--- a/lib/report/benchmark_report/web14/exl/202109/jsliu__bank_test_&_city_(HF)(202109)_Two_Cycles_Comparison.xlsx
+++ b/lib/report/benchmark_report/web14/exl/202109/jsliu__bank_test_&_city_(HF)(202109)_Two_Cycles_Comparison.xlsx
@@ -368,7 +368,7 @@
     <t xml:space="preserve">Bank Name: jsliu  bank test &amp; city (HF)</t>
   </si>
   <si>
-    <t>Printed on: 11/03/21 1:50:20PM</t>
+    <t>Printed on: 01/06/22 5:01:23AM</t>
   </si>
   <si>
     <t xml:space="preserve">Cycle: September, 2021    Evaluation Date: September 30, 2021</t>
@@ -663,7 +663,7 @@
     <t xml:space="preserve">jsliu  bank test &amp; city (HF)-202106</t>
   </si>
   <si>
-    <t>Printed on: 11/03/21 1:50:16PM</t>
+    <t>Printed on: 01/06/22 5:01:18AM</t>
   </si>
   <si>
     <t xml:space="preserve">Earning/
@@ -3055,7 +3055,7 @@
       <c r="F8" s="75"/>
       <c r="G8" s="75"/>
       <c r="H8" s="75">
-        <v>26.298620769320063</v>
+        <v>26.29854999188084</v>
       </c>
       <c r="I8" s="75"/>
       <c r="J8" s="75"/>
@@ -3067,7 +3067,7 @@
       <c r="N8" s="75"/>
       <c r="O8" s="75"/>
       <c r="P8" s="75">
-        <v>32.882959500031561</v>
+        <v>32.88282896810518</v>
       </c>
       <c r="Q8" s="75"/>
       <c r="R8" s="75"/>
@@ -3079,7 +3079,7 @@
       <c r="V8" s="75"/>
       <c r="W8" s="75"/>
       <c r="X8" s="75">
-        <v>3.3070747791920669</v>
+        <v>3.3071833926779255</v>
       </c>
       <c r="Y8" s="75"/>
       <c r="Z8" s="75"/>
@@ -3091,7 +3091,7 @@
       <c r="AD8" s="75"/>
       <c r="AE8" s="75"/>
       <c r="AF8" s="75">
-        <v>-7.670346216997487</v>
+        <v>-7.67024078678061</v>
       </c>
       <c r="AG8" s="75"/>
       <c r="AH8" s="75"/>
@@ -3103,7 +3103,7 @@
       <c r="AL8" s="75"/>
       <c r="AM8" s="75"/>
       <c r="AN8" s="75">
-        <v>-1.3417803191514977</v>
+        <v>-1.3417772624949345</v>
       </c>
       <c r="AO8" s="75"/>
       <c r="AP8" s="75"/>
@@ -3121,7 +3121,7 @@
       <c r="F9" s="75"/>
       <c r="G9" s="75"/>
       <c r="H9" s="75">
-        <v>20.059819876849879</v>
+        <v>20.059750418185651</v>
       </c>
       <c r="I9" s="75"/>
       <c r="J9" s="75"/>
@@ -3133,7 +3133,7 @@
       <c r="N9" s="75"/>
       <c r="O9" s="75"/>
       <c r="P9" s="75">
-        <v>25.279217542381211</v>
+        <v>25.279085909868229</v>
       </c>
       <c r="Q9" s="75"/>
       <c r="R9" s="75"/>
@@ -3145,7 +3145,7 @@
       <c r="V9" s="75"/>
       <c r="W9" s="75"/>
       <c r="X9" s="75">
-        <v>2.3590628347302904</v>
+        <v>2.3591691530241863</v>
       </c>
       <c r="Y9" s="75"/>
       <c r="Z9" s="75"/>
@@ -3157,7 +3157,7 @@
       <c r="AD9" s="75"/>
       <c r="AE9" s="75"/>
       <c r="AF9" s="75">
-        <v>-5.8289172895306933</v>
+        <v>-5.8288917655350936</v>
       </c>
       <c r="AG9" s="75"/>
       <c r="AH9" s="75"/>
@@ -3169,7 +3169,7 @@
       <c r="AL9" s="75"/>
       <c r="AM9" s="75"/>
       <c r="AN9" s="75">
-        <v>-1.200917973764327</v>
+        <v>-1.2009151763716339</v>
       </c>
       <c r="AO9" s="75"/>
       <c r="AP9" s="75"/>
@@ -3187,7 +3187,7 @@
       <c r="F10" s="75"/>
       <c r="G10" s="75"/>
       <c r="H10" s="75">
-        <v>13.714271572122605</v>
+        <v>13.714213314022249</v>
       </c>
       <c r="I10" s="75"/>
       <c r="J10" s="75"/>
@@ -3199,7 +3199,7 @@
       <c r="N10" s="75"/>
       <c r="O10" s="75"/>
       <c r="P10" s="75">
-        <v>17.456605029067585</v>
+        <v>17.456517295745254</v>
       </c>
       <c r="Q10" s="75"/>
       <c r="R10" s="75"/>
@@ -3211,7 +3211,7 @@
       <c r="V10" s="75"/>
       <c r="W10" s="75"/>
       <c r="X10" s="75">
-        <v>1.4516239752379434</v>
+        <v>1.4517009712654245</v>
       </c>
       <c r="Y10" s="75"/>
       <c r="Z10" s="75"/>
@@ -3223,7 +3223,7 @@
       <c r="AD10" s="75"/>
       <c r="AE10" s="75"/>
       <c r="AF10" s="75">
-        <v>-3.9245633188646041</v>
+        <v>-3.9245822462539044</v>
       </c>
       <c r="AG10" s="75"/>
       <c r="AH10" s="75"/>
@@ -3235,7 +3235,7 @@
       <c r="AL10" s="75"/>
       <c r="AM10" s="75"/>
       <c r="AN10" s="75">
-        <v>-1.0576456169291579</v>
+        <v>-1.0576433134282515</v>
       </c>
       <c r="AO10" s="75"/>
       <c r="AP10" s="75"/>
@@ -3253,7 +3253,7 @@
       <c r="F11" s="75"/>
       <c r="G11" s="75"/>
       <c r="H11" s="75">
-        <v>7.0491823142492223</v>
+        <v>7.0491338502877454</v>
       </c>
       <c r="I11" s="75"/>
       <c r="J11" s="75"/>
@@ -3265,7 +3265,7 @@
       <c r="N11" s="75"/>
       <c r="O11" s="75"/>
       <c r="P11" s="75">
-        <v>9.0960892254423538</v>
+        <v>9.09600020471807</v>
       </c>
       <c r="Q11" s="75"/>
       <c r="R11" s="75"/>
@@ -3277,7 +3277,7 @@
       <c r="V11" s="75"/>
       <c r="W11" s="75"/>
       <c r="X11" s="75">
-        <v>0.622666413078783</v>
+        <v>0.62272550000647731</v>
       </c>
       <c r="Y11" s="75"/>
       <c r="Z11" s="75"/>
@@ -3289,7 +3289,7 @@
       <c r="AD11" s="75"/>
       <c r="AE11" s="75"/>
       <c r="AF11" s="75">
-        <v>-1.9563481703298653</v>
+        <v>-1.9563761600161369</v>
       </c>
       <c r="AG11" s="75"/>
       <c r="AH11" s="75"/>
@@ -3301,7 +3301,7 @@
       <c r="AL11" s="75"/>
       <c r="AM11" s="75"/>
       <c r="AN11" s="75">
-        <v>-0.907152509660069</v>
+        <v>-0.90715067534121574</v>
       </c>
       <c r="AO11" s="75"/>
       <c r="AP11" s="75"/>
@@ -3367,7 +3367,7 @@
       <c r="AL12" s="75"/>
       <c r="AM12" s="75"/>
       <c r="AN12" s="75">
-        <v>-0.74792727919396063</v>
+        <v>-0.74792681315376386</v>
       </c>
       <c r="AO12" s="75"/>
       <c r="AP12" s="75"/>
@@ -3385,7 +3385,7 @@
       <c r="F13" s="75"/>
       <c r="G13" s="75"/>
       <c r="H13" s="75">
-        <v>-2.9802045656203009</v>
+        <v>-2.98009995102298</v>
       </c>
       <c r="I13" s="75"/>
       <c r="J13" s="75"/>
@@ -3397,7 +3397,7 @@
       <c r="N13" s="75"/>
       <c r="O13" s="75"/>
       <c r="P13" s="75">
-        <v>-6.6388814858399607</v>
+        <v>-6.6387180820978919</v>
       </c>
       <c r="Q13" s="75"/>
       <c r="R13" s="75"/>
@@ -3409,7 +3409,7 @@
       <c r="V13" s="75"/>
       <c r="W13" s="75"/>
       <c r="X13" s="75">
-        <v>-0.31757729515799527</v>
+        <v>-0.31773705009837755</v>
       </c>
       <c r="Y13" s="75"/>
       <c r="Z13" s="75"/>
@@ -3421,7 +3421,7 @@
       <c r="AD13" s="75"/>
       <c r="AE13" s="75"/>
       <c r="AF13" s="75">
-        <v>1.1699828909373686</v>
+        <v>1.1702487006711995</v>
       </c>
       <c r="AG13" s="75"/>
       <c r="AH13" s="75"/>
@@ -3433,7 +3433,7 @@
       <c r="AL13" s="75"/>
       <c r="AM13" s="75"/>
       <c r="AN13" s="75">
-        <v>-0.68064152468597927</v>
+        <v>-0.68064352568493647</v>
       </c>
       <c r="AO13" s="75"/>
       <c r="AP13" s="75"/>
@@ -3451,7 +3451,7 @@
       <c r="F14" s="75"/>
       <c r="G14" s="75"/>
       <c r="H14" s="75">
-        <v>-4.1799283067990309</v>
+        <v>-4.1808431514505155</v>
       </c>
       <c r="I14" s="75"/>
       <c r="J14" s="75"/>
@@ -3463,7 +3463,7 @@
       <c r="N14" s="75"/>
       <c r="O14" s="75"/>
       <c r="P14" s="75">
-        <v>-9.1996435488766668</v>
+        <v>-9.2004303599624162</v>
       </c>
       <c r="Q14" s="75"/>
       <c r="R14" s="75"/>
@@ -3475,7 +3475,7 @@
       <c r="V14" s="75"/>
       <c r="W14" s="75"/>
       <c r="X14" s="75">
-        <v>-0.35061381640153366</v>
+        <v>-0.35076398770737971</v>
       </c>
       <c r="Y14" s="75"/>
       <c r="Z14" s="75"/>
@@ -3487,7 +3487,7 @@
       <c r="AD14" s="75"/>
       <c r="AE14" s="75"/>
       <c r="AF14" s="75">
-        <v>1.2885567400261653</v>
+        <v>1.2887584573900177</v>
       </c>
       <c r="AG14" s="75"/>
       <c r="AH14" s="75"/>
@@ -3499,7 +3499,7 @@
       <c r="AL14" s="75"/>
       <c r="AM14" s="75"/>
       <c r="AN14" s="75">
-        <v>-0.65358342960003069</v>
+        <v>-0.65356242869553716</v>
       </c>
       <c r="AO14" s="75"/>
       <c r="AP14" s="75"/>
@@ -3579,7 +3579,7 @@
       <c r="V16" s="75"/>
       <c r="W16" s="75"/>
       <c r="X16" s="75">
-        <v>-0.34977386782856712</v>
+        <v>-0.34992309391565979</v>
       </c>
       <c r="Y16" s="75"/>
       <c r="Z16" s="75"/>
@@ -3591,7 +3591,7 @@
       <c r="AD16" s="75"/>
       <c r="AE16" s="75"/>
       <c r="AF16" s="75">
-        <v>1.2890999068775475</v>
+        <v>1.2893016655619773</v>
       </c>
       <c r="AG16" s="75"/>
       <c r="AH16" s="75"/>
@@ -3617,7 +3617,7 @@
       <c r="F17" s="75"/>
       <c r="G17" s="75"/>
       <c r="H17" s="75">
-        <v>17.093260990169725</v>
+        <v>17.093213992866051</v>
       </c>
       <c r="I17" s="75"/>
       <c r="J17" s="75"/>
@@ -3629,7 +3629,7 @@
       <c r="N17" s="75"/>
       <c r="O17" s="75"/>
       <c r="P17" s="75">
-        <v>17.976523409441175</v>
+        <v>17.976452787739742</v>
       </c>
       <c r="Q17" s="75"/>
       <c r="R17" s="75"/>
@@ -3641,7 +3641,7 @@
       <c r="V17" s="75"/>
       <c r="W17" s="75"/>
       <c r="X17" s="75">
-        <v>1.4496589247994138</v>
+        <v>1.4497974064356207</v>
       </c>
       <c r="Y17" s="75"/>
       <c r="Z17" s="75"/>
@@ -3653,7 +3653,7 @@
       <c r="AD17" s="75"/>
       <c r="AE17" s="75"/>
       <c r="AF17" s="75">
-        <v>-4.2044678351835847</v>
+        <v>-4.20451710897565</v>
       </c>
       <c r="AG17" s="75"/>
       <c r="AH17" s="75"/>
@@ -3665,7 +3665,7 @@
       <c r="AL17" s="75"/>
       <c r="AM17" s="75"/>
       <c r="AN17" s="75">
-        <v>-1.1339725597248112</v>
+        <v>-1.1339703882386296</v>
       </c>
       <c r="AO17" s="75"/>
       <c r="AP17" s="75"/>
@@ -3881,13 +3881,13 @@
       <c r="F23" s="74"/>
       <c r="G23" s="74"/>
       <c r="H23" s="74">
-        <v>5622.9153881130487</v>
+        <v>5622.9182798398615</v>
       </c>
       <c r="I23" s="74"/>
       <c r="J23" s="74"/>
       <c r="K23" s="74"/>
       <c r="L23" s="68">
-        <v>546.16735550191538</v>
+        <v>546.1702472287277</v>
       </c>
       <c r="M23" s="68"/>
       <c r="N23" s="68"/>
@@ -3921,7 +3921,7 @@
       <c r="AL23" s="74"/>
       <c r="AM23" s="74"/>
       <c r="AN23" s="74">
-        <v>558.74683473916116</v>
+        <v>558.74972646597348</v>
       </c>
       <c r="AO23" s="74"/>
       <c r="AP23" s="74"/>
@@ -3939,13 +3939,13 @@
       <c r="F24" s="74"/>
       <c r="G24" s="74"/>
       <c r="H24" s="74">
-        <v>10689.225373192523</v>
+        <v>10689.235639462646</v>
       </c>
       <c r="I24" s="74"/>
       <c r="J24" s="74"/>
       <c r="K24" s="74"/>
       <c r="L24" s="68">
-        <v>1426.8777530485261</v>
+        <v>1426.8880193186496</v>
       </c>
       <c r="M24" s="68"/>
       <c r="N24" s="68"/>
@@ -3979,7 +3979,7 @@
       <c r="AL24" s="74"/>
       <c r="AM24" s="74"/>
       <c r="AN24" s="74">
-        <v>1452.0367115230179</v>
+        <v>1452.0469777931412</v>
       </c>
       <c r="AO24" s="74"/>
       <c r="AP24" s="74"/>
@@ -3997,13 +3997,13 @@
       <c r="F25" s="74"/>
       <c r="G25" s="74"/>
       <c r="H25" s="74">
-        <v>1479.1394430345658</v>
+        <v>1479.1417373996849</v>
       </c>
       <c r="I25" s="74"/>
       <c r="J25" s="74"/>
       <c r="K25" s="74"/>
       <c r="L25" s="68">
-        <v>447.31842783861191</v>
+        <v>447.32072220373107</v>
       </c>
       <c r="M25" s="68"/>
       <c r="N25" s="68"/>
@@ -4037,13 +4037,13 @@
       <c r="AH25" s="74"/>
       <c r="AI25" s="74"/>
       <c r="AJ25" s="74">
-        <v>-120.18226099652534</v>
+        <v>-120.18285835825506</v>
       </c>
       <c r="AK25" s="74"/>
       <c r="AL25" s="74"/>
       <c r="AM25" s="74"/>
       <c r="AN25" s="74">
-        <v>558.7468347391615</v>
+        <v>558.74972646601043</v>
       </c>
       <c r="AO25" s="74"/>
       <c r="AP25" s="74"/>
@@ -4061,13 +4061,13 @@
       <c r="F26" s="74"/>
       <c r="G26" s="74"/>
       <c r="H26" s="74">
-        <v>2516.6548707959009</v>
+        <v>2516.6630162997203</v>
       </c>
       <c r="I26" s="74"/>
       <c r="J26" s="74"/>
       <c r="K26" s="74"/>
       <c r="L26" s="68">
-        <v>1162.0986999286411</v>
+        <v>1162.1068454324604</v>
       </c>
       <c r="M26" s="68"/>
       <c r="N26" s="68"/>
@@ -4101,13 +4101,13 @@
       <c r="AH26" s="74"/>
       <c r="AI26" s="74"/>
       <c r="AJ26" s="74">
-        <v>-307.445719786349</v>
+        <v>-307.44784055265922</v>
       </c>
       <c r="AK26" s="74"/>
       <c r="AL26" s="74"/>
       <c r="AM26" s="74"/>
       <c r="AN26" s="74">
-        <v>1452.0367115230413</v>
+        <v>1452.046977793171</v>
       </c>
       <c r="AO26" s="74"/>
       <c r="AP26" s="74"/>
@@ -4183,7 +4183,7 @@
       <c r="F29" s="73"/>
       <c r="G29" s="73"/>
       <c r="H29" s="73">
-        <v>-130.75469471290157</v>
+        <v>-130.7553507378239</v>
       </c>
       <c r="I29" s="73"/>
       <c r="J29" s="73"/>
@@ -4233,7 +4233,7 @@
       <c r="F30" s="73"/>
       <c r="G30" s="73"/>
       <c r="H30" s="73">
-        <v>-1.4496589247994181</v>
+        <v>-1.4497974064356298</v>
       </c>
       <c r="I30" s="73"/>
       <c r="J30" s="73"/>
@@ -4285,7 +4285,7 @@
       <c r="F31" s="73"/>
       <c r="G31" s="73"/>
       <c r="H31" s="73">
-        <v>-1.17112846079816</v>
+        <v>-1.17107625897543</v>
       </c>
       <c r="I31" s="73"/>
       <c r="J31" s="73"/>
@@ -4715,7 +4715,7 @@
       </c>
       <c r="Y38" s="129"/>
       <c r="Z38" s="130">
-        <v>151248.979679504</v>
+        <v>151248.549686874</v>
       </c>
       <c r="AA38" s="130"/>
       <c r="AB38" s="130"/>
@@ -4725,21 +4725,21 @@
       <c r="AD38" s="130"/>
       <c r="AE38" s="130"/>
       <c r="AF38" s="129">
-        <v>108.66067877297331</v>
+        <v>108.66036984580953</v>
       </c>
       <c r="AG38" s="129"/>
       <c r="AH38" s="129">
-        <v>-6.9131502257095319</v>
+        <v>-6.913321299280816</v>
       </c>
       <c r="AI38" s="129"/>
       <c r="AJ38" s="129">
-        <v>1.44572720792179</v>
+        <v>1.44565860486734</v>
       </c>
       <c r="AK38" s="129"/>
       <c r="AL38" s="129"/>
       <c r="AM38" s="129"/>
       <c r="AN38" s="129">
-        <v>0.749490815274544</v>
+        <v>0.74942221222009409</v>
       </c>
       <c r="AO38" s="129"/>
       <c r="AP38" s="130">
@@ -4747,11 +4747,11 @@
       </c>
       <c r="AQ38" s="130"/>
       <c r="AR38" s="130">
-        <v>3784.047536403722</v>
+        <v>3783.6175437737197</v>
       </c>
       <c r="AS38" s="130"/>
       <c r="AT38" s="130">
-        <v>7226.7123761959956</v>
+        <v>7226.2823835659947</v>
       </c>
       <c r="AU38" s="130"/>
       <c r="AV38" s="131">
@@ -4761,7 +4761,7 @@
         <v>-0.026210495219274498</v>
       </c>
       <c r="AX38" s="131">
-        <v>0.025661576985262616</v>
+        <v>0.025658660983581414</v>
       </c>
       <c r="AY38" s="131">
         <v>0</v>
@@ -4770,7 +4770,7 @@
         <v>0.40475231574707976</v>
       </c>
       <c r="BA38" s="131">
-        <v>1.0764889959641621</v>
+        <v>1.0763904618237834</v>
       </c>
     </row>
     <row r="39">
@@ -4819,7 +4819,7 @@
       </c>
       <c r="Y39" s="129"/>
       <c r="Z39" s="130">
-        <v>151248.979679504</v>
+        <v>151248.549686874</v>
       </c>
       <c r="AA39" s="130"/>
       <c r="AB39" s="130"/>
@@ -4829,21 +4829,21 @@
       <c r="AD39" s="130"/>
       <c r="AE39" s="130"/>
       <c r="AF39" s="129">
-        <v>108.66067877297331</v>
+        <v>108.66036984580953</v>
       </c>
       <c r="AG39" s="129"/>
       <c r="AH39" s="129">
-        <v>-6.9131502257095319</v>
+        <v>-6.913321299280816</v>
       </c>
       <c r="AI39" s="129"/>
       <c r="AJ39" s="129">
-        <v>1.44572720792179</v>
+        <v>1.44565860486734</v>
       </c>
       <c r="AK39" s="129"/>
       <c r="AL39" s="129"/>
       <c r="AM39" s="129"/>
       <c r="AN39" s="129">
-        <v>0.749490815274544</v>
+        <v>0.74942221222009409</v>
       </c>
       <c r="AO39" s="129"/>
       <c r="AP39" s="130">
@@ -4851,11 +4851,11 @@
       </c>
       <c r="AQ39" s="130"/>
       <c r="AR39" s="130">
-        <v>3784.047536403722</v>
+        <v>3783.6175437737197</v>
       </c>
       <c r="AS39" s="130"/>
       <c r="AT39" s="130">
-        <v>7226.7123761959956</v>
+        <v>7226.2823835659947</v>
       </c>
       <c r="AU39" s="130"/>
       <c r="AV39" s="131">
@@ -4865,7 +4865,7 @@
         <v>-0.026210495219274498</v>
       </c>
       <c r="AX39" s="131">
-        <v>0.025661576985262616</v>
+        <v>0.025658660983581414</v>
       </c>
       <c r="AY39" s="131">
         <v>0</v>
@@ -4874,7 +4874,7 @@
         <v>0.40475231574707976</v>
       </c>
       <c r="BA39" s="131">
-        <v>1.0764889959641621</v>
+        <v>1.0763904618237834</v>
       </c>
     </row>
     <row r="40">
@@ -5027,7 +5027,7 @@
       </c>
       <c r="Y41" s="129"/>
       <c r="Z41" s="130">
-        <v>-197765.141636314</v>
+        <v>-197765.571628944</v>
       </c>
       <c r="AA41" s="130"/>
       <c r="AB41" s="130"/>
@@ -5037,21 +5037,21 @@
       <c r="AD41" s="130"/>
       <c r="AE41" s="130"/>
       <c r="AF41" s="129">
-        <v>-1340.8163331424012</v>
+        <v>-1340.8192483466723</v>
       </c>
       <c r="AG41" s="129"/>
       <c r="AH41" s="129">
-        <v>3.3070747791920669</v>
+        <v>3.3071833926779255</v>
       </c>
       <c r="AI41" s="129"/>
       <c r="AJ41" s="129">
-        <v>-0.57047168062713</v>
+        <v>-0.570414830169929</v>
       </c>
       <c r="AK41" s="129"/>
       <c r="AL41" s="129"/>
       <c r="AM41" s="129"/>
       <c r="AN41" s="129">
-        <v>2.0065852537075597</v>
+        <v>2.0066421041647606</v>
       </c>
       <c r="AO41" s="129"/>
       <c r="AP41" s="130">
@@ -5059,11 +5059,11 @@
       </c>
       <c r="AQ41" s="130"/>
       <c r="AR41" s="130">
-        <v>-220159.29594247864</v>
+        <v>-220159.72593510864</v>
       </c>
       <c r="AS41" s="130"/>
       <c r="AT41" s="130">
-        <v>-219594.94957509649</v>
+        <v>-219595.37956772649</v>
       </c>
       <c r="AU41" s="130"/>
       <c r="AV41" s="131">
@@ -5073,7 +5073,7 @@
         <v>-0.0266798541238018</v>
       </c>
       <c r="AX41" s="131">
-        <v>-9.8334186004904964</v>
+        <v>-9.8334378061184378</v>
       </c>
       <c r="AY41" s="131">
         <v>0</v>
@@ -5082,7 +5082,7 @@
         <v>0.39300202839756648</v>
       </c>
       <c r="BA41" s="131">
-        <v>-0.77863442866682075</v>
+        <v>-0.77865648889236083</v>
       </c>
     </row>
     <row r="42"/>
@@ -5500,7 +5500,7 @@
       </c>
       <c r="Y47" s="125"/>
       <c r="Z47" s="126">
-        <v>3234.99801265673</v>
+        <v>3234.99799955292</v>
       </c>
       <c r="AA47" s="126"/>
       <c r="AB47" s="126"/>
@@ -5510,21 +5510,21 @@
       <c r="AD47" s="126"/>
       <c r="AE47" s="126"/>
       <c r="AF47" s="125">
-        <v>99.999938567441433</v>
+        <v>99.999938162377745</v>
       </c>
       <c r="AG47" s="125"/>
       <c r="AH47" s="125">
-        <v>-4.94123281040087</v>
+        <v>-4.9410992976824382</v>
       </c>
       <c r="AI47" s="125"/>
       <c r="AJ47" s="125">
-        <v>1.29688816038546</v>
+        <v>1.29685095769915</v>
       </c>
       <c r="AK47" s="125"/>
       <c r="AL47" s="125"/>
       <c r="AM47" s="125"/>
       <c r="AN47" s="125">
-        <v>-0.22231360901561992</v>
+        <v>-0.22235081170192994</v>
       </c>
       <c r="AO47" s="125"/>
       <c r="AP47" s="126">
@@ -5532,11 +5532,11 @@
       </c>
       <c r="AQ47" s="126"/>
       <c r="AR47" s="126">
-        <v>-0.00033359008310895888</v>
+        <v>-0.00034669389339896383</v>
       </c>
       <c r="AS47" s="126"/>
       <c r="AT47" s="126">
-        <v>0.999665898710191</v>
+        <v>0.99965279490015746</v>
       </c>
       <c r="AU47" s="126"/>
       <c r="AV47" s="127">
@@ -5546,7 +5546,7 @@
         <v>-0.10804974550836805</v>
       </c>
       <c r="AX47" s="127">
-        <v>-1.0311908922487829E-07</v>
+        <v>-1.0716972817039978E-07</v>
       </c>
       <c r="AY47" s="127">
         <v>0</v>
@@ -5555,7 +5555,7 @@
         <v>-0.16780821917808442</v>
       </c>
       <c r="BA47" s="127">
-        <v>-0.14633580179627054</v>
+        <v>-0.14636029010786897</v>
       </c>
     </row>
     <row r="48">
@@ -5708,7 +5708,7 @@
       </c>
       <c r="Y49" s="125"/>
       <c r="Z49" s="126">
-        <v>1006.99810253271</v>
+        <v>1006.99810688759</v>
       </c>
       <c r="AA49" s="126"/>
       <c r="AB49" s="126"/>
@@ -5718,21 +5718,21 @@
       <c r="AD49" s="126"/>
       <c r="AE49" s="126"/>
       <c r="AF49" s="125">
-        <v>99.999811572265145</v>
+        <v>99.999812004725911</v>
       </c>
       <c r="AG49" s="125"/>
       <c r="AH49" s="125">
-        <v>-18.193861497840885</v>
+        <v>-18.193760326134608</v>
       </c>
       <c r="AI49" s="125"/>
       <c r="AJ49" s="125">
-        <v>4.27849184261994</v>
+        <v>4.27888568404327</v>
       </c>
       <c r="AK49" s="125"/>
       <c r="AL49" s="125"/>
       <c r="AM49" s="125"/>
       <c r="AN49" s="125">
-        <v>-2.0431863077402</v>
+        <v>-2.04279246631687</v>
       </c>
       <c r="AO49" s="125"/>
       <c r="AP49" s="126">
@@ -5740,11 +5740,11 @@
       </c>
       <c r="AQ49" s="126"/>
       <c r="AR49" s="126">
-        <v>0.0012397971972195876</v>
+        <v>0.0012441520771318438</v>
       </c>
       <c r="AS49" s="126"/>
       <c r="AT49" s="126">
-        <v>-63.998560813599966</v>
+        <v>-63.998556458720032</v>
       </c>
       <c r="AU49" s="126"/>
       <c r="AV49" s="127">
@@ -5754,7 +5754,7 @@
         <v>0.08471405576352134</v>
       </c>
       <c r="AX49" s="127">
-        <v>1.2311827803034773E-06</v>
+        <v>1.235507401435291E-06</v>
       </c>
       <c r="AY49" s="127">
         <v>0</v>
@@ -5763,7 +5763,7 @@
         <v>-0.13319538226965944</v>
       </c>
       <c r="BA49" s="127">
-        <v>-0.32320315257172683</v>
+        <v>-0.32314085243338336</v>
       </c>
     </row>
     <row r="50">
@@ -5812,7 +5812,7 @@
       </c>
       <c r="Y50" s="133"/>
       <c r="Z50" s="134">
-        <v>1006.99810253271</v>
+        <v>1006.99810688759</v>
       </c>
       <c r="AA50" s="134"/>
       <c r="AB50" s="134"/>
@@ -5822,21 +5822,21 @@
       <c r="AD50" s="134"/>
       <c r="AE50" s="134"/>
       <c r="AF50" s="133">
-        <v>99.999811572265145</v>
+        <v>99.999812004725911</v>
       </c>
       <c r="AG50" s="133"/>
       <c r="AH50" s="133">
-        <v>-18.193861497840885</v>
+        <v>-18.193760326134608</v>
       </c>
       <c r="AI50" s="133"/>
       <c r="AJ50" s="133">
-        <v>4.27849184261994</v>
+        <v>4.27888568404327</v>
       </c>
       <c r="AK50" s="133"/>
       <c r="AL50" s="133"/>
       <c r="AM50" s="133"/>
       <c r="AN50" s="133">
-        <v>-2.0431863077402</v>
+        <v>-2.04279246631687</v>
       </c>
       <c r="AO50" s="133"/>
       <c r="AP50" s="134">
@@ -5844,11 +5844,11 @@
       </c>
       <c r="AQ50" s="134"/>
       <c r="AR50" s="134">
-        <v>0.0012397971972195876</v>
+        <v>0.0012441520771318438</v>
       </c>
       <c r="AS50" s="134"/>
       <c r="AT50" s="134">
-        <v>-63.998560813599966</v>
+        <v>-63.998556458720032</v>
       </c>
       <c r="AU50" s="134"/>
       <c r="AV50" s="135">
@@ -5858,7 +5858,7 @@
         <v>0.08471405576352134</v>
       </c>
       <c r="AX50" s="135">
-        <v>1.2311827803034773E-06</v>
+        <v>1.235507401435291E-06</v>
       </c>
       <c r="AY50" s="135">
         <v>0</v>
@@ -5867,7 +5867,7 @@
         <v>-0.13319538226965944</v>
       </c>
       <c r="BA50" s="135">
-        <v>-0.32320315257172683</v>
+        <v>-0.32314085243338336</v>
       </c>
     </row>
     <row r="51">
@@ -5916,7 +5916,7 @@
       </c>
       <c r="Y51" s="125"/>
       <c r="Z51" s="126">
-        <v>144.255512961968</v>
+        <v>144.255511987425</v>
       </c>
       <c r="AA51" s="126"/>
       <c r="AB51" s="126"/>
@@ -5926,21 +5926,21 @@
       <c r="AD51" s="126"/>
       <c r="AE51" s="126"/>
       <c r="AF51" s="125">
-        <v>100.17743955692222</v>
+        <v>100.17743888015625</v>
       </c>
       <c r="AG51" s="125"/>
       <c r="AH51" s="125">
-        <v>-6.7521576815708952</v>
+        <v>-6.7522736670215426</v>
       </c>
       <c r="AI51" s="125"/>
       <c r="AJ51" s="125">
-        <v>1.52968145022415</v>
+        <v>1.53016430703343</v>
       </c>
       <c r="AK51" s="125"/>
       <c r="AL51" s="125"/>
       <c r="AM51" s="125"/>
       <c r="AN51" s="125">
-        <v>-0.18958324558973994</v>
+        <v>-0.18910038878045987</v>
       </c>
       <c r="AO51" s="125"/>
       <c r="AP51" s="126">
@@ -5948,11 +5948,11 @@
       </c>
       <c r="AQ51" s="126"/>
       <c r="AR51" s="126">
-        <v>0.58187774714572693</v>
+        <v>0.58187677260271808</v>
       </c>
       <c r="AS51" s="126"/>
       <c r="AT51" s="126">
-        <v>-31.345596745037</v>
+        <v>-31.345597719580013</v>
       </c>
       <c r="AU51" s="126"/>
       <c r="AV51" s="127">
@@ -5962,7 +5962,7 @@
         <v>0.083665783069860541</v>
       </c>
       <c r="AX51" s="127">
-        <v>0.0040499966905946068</v>
+        <v>0.004049989907561607</v>
       </c>
       <c r="AY51" s="127">
         <v>0</v>
@@ -5971,7 +5971,7 @@
         <v>-0.19543759596402702</v>
       </c>
       <c r="BA51" s="127">
-        <v>-0.11026995787870368</v>
+        <v>-0.10998910711124725</v>
       </c>
     </row>
     <row r="52">
@@ -6020,7 +6020,7 @@
       </c>
       <c r="Y52" s="133"/>
       <c r="Z52" s="134">
-        <v>144.255512961968</v>
+        <v>144.255511987425</v>
       </c>
       <c r="AA52" s="134"/>
       <c r="AB52" s="134"/>
@@ -6030,21 +6030,21 @@
       <c r="AD52" s="134"/>
       <c r="AE52" s="134"/>
       <c r="AF52" s="133">
-        <v>100.17743955692222</v>
+        <v>100.17743888015625</v>
       </c>
       <c r="AG52" s="133"/>
       <c r="AH52" s="133">
-        <v>-6.7521576815708952</v>
+        <v>-6.7522736670215426</v>
       </c>
       <c r="AI52" s="133"/>
       <c r="AJ52" s="133">
-        <v>1.52968145022415</v>
+        <v>1.53016430703343</v>
       </c>
       <c r="AK52" s="133"/>
       <c r="AL52" s="133"/>
       <c r="AM52" s="133"/>
       <c r="AN52" s="133">
-        <v>-0.18958324558973994</v>
+        <v>-0.18910038878045987</v>
       </c>
       <c r="AO52" s="133"/>
       <c r="AP52" s="134">
@@ -6052,11 +6052,11 @@
       </c>
       <c r="AQ52" s="134"/>
       <c r="AR52" s="134">
-        <v>0.58187774714572693</v>
+        <v>0.58187677260271808</v>
       </c>
       <c r="AS52" s="134"/>
       <c r="AT52" s="134">
-        <v>-31.345596745037</v>
+        <v>-31.345597719580013</v>
       </c>
       <c r="AU52" s="134"/>
       <c r="AV52" s="135">
@@ -6066,7 +6066,7 @@
         <v>0.083665783069860541</v>
       </c>
       <c r="AX52" s="135">
-        <v>0.0040499966905946068</v>
+        <v>0.004049989907561607</v>
       </c>
       <c r="AY52" s="135">
         <v>0</v>
@@ -6075,7 +6075,7 @@
         <v>-0.19543759596402702</v>
       </c>
       <c r="BA52" s="135">
-        <v>-0.11026995787870368</v>
+        <v>-0.10998910711124725</v>
       </c>
     </row>
     <row r="53">
@@ -6124,7 +6124,7 @@
       </c>
       <c r="Y53" s="133"/>
       <c r="Z53" s="134">
-        <v>1151.25361549468</v>
+        <v>1151.25361887502</v>
       </c>
       <c r="AA53" s="134"/>
       <c r="AB53" s="134"/>
@@ -6134,21 +6134,21 @@
       <c r="AD53" s="134"/>
       <c r="AE53" s="134"/>
       <c r="AF53" s="133">
-        <v>100.02203436096264</v>
+        <v>100.02203465464987</v>
       </c>
       <c r="AG53" s="133"/>
       <c r="AH53" s="133">
-        <v>-16.760181871596618</v>
+        <v>-16.760107924225061</v>
       </c>
       <c r="AI53" s="133"/>
       <c r="AJ53" s="133">
-        <v>3.93405769895832</v>
+        <v>3.93446269761319</v>
       </c>
       <c r="AK53" s="133"/>
       <c r="AL53" s="133"/>
       <c r="AM53" s="133"/>
       <c r="AN53" s="133">
-        <v>-1.73930474972253</v>
+        <v>-1.73889975106766</v>
       </c>
       <c r="AO53" s="133"/>
       <c r="AP53" s="134">
@@ -6156,11 +6156,11 @@
       </c>
       <c r="AQ53" s="134"/>
       <c r="AR53" s="134">
-        <v>0.62487709502373689</v>
+        <v>0.62488047536382685</v>
       </c>
       <c r="AS53" s="134"/>
       <c r="AT53" s="134">
-        <v>-95.344157558640063</v>
+        <v>-95.344154178299959</v>
       </c>
       <c r="AU53" s="134"/>
       <c r="AV53" s="135">
@@ -6170,7 +6170,7 @@
         <v>0.087435115585920542</v>
       </c>
       <c r="AX53" s="135">
-        <v>0.00054307447239049732</v>
+        <v>0.00054307741021047094</v>
       </c>
       <c r="AY53" s="135">
         <v>0</v>
@@ -6179,7 +6179,7 @@
         <v>-0.14084814128420442</v>
       </c>
       <c r="BA53" s="135">
-        <v>-0.30657388197134261</v>
+        <v>-0.30650249597079471</v>
       </c>
     </row>
     <row r="54">
@@ -6228,7 +6228,7 @@
       </c>
       <c r="Y54" s="133"/>
       <c r="Z54" s="134">
-        <v>4903.51897993619</v>
+        <v>4903.51897021271</v>
       </c>
       <c r="AA54" s="134"/>
       <c r="AB54" s="134"/>
@@ -6238,21 +6238,21 @@
       <c r="AD54" s="134"/>
       <c r="AE54" s="134"/>
       <c r="AF54" s="133">
-        <v>100.00513429452853</v>
+        <v>100.00513409600914</v>
       </c>
       <c r="AG54" s="133"/>
       <c r="AH54" s="133">
-        <v>-7.670346216997487</v>
+        <v>-7.67024078678061</v>
       </c>
       <c r="AI54" s="133"/>
       <c r="AJ54" s="133">
-        <v>1.90581715064664</v>
+        <v>1.90588769598143</v>
       </c>
       <c r="AK54" s="133"/>
       <c r="AL54" s="133"/>
       <c r="AM54" s="133"/>
       <c r="AN54" s="133">
-        <v>-0.64668782595437024</v>
+        <v>-0.64661728061958024</v>
       </c>
       <c r="AO54" s="133"/>
       <c r="AP54" s="134">
@@ -6260,11 +6260,11 @@
       </c>
       <c r="AQ54" s="134"/>
       <c r="AR54" s="134">
-        <v>0.64766633105822935</v>
+        <v>0.64765660757862487</v>
       </c>
       <c r="AS54" s="134"/>
       <c r="AT54" s="134">
-        <v>-92.617734443229892</v>
+        <v>-92.6177441667096</v>
       </c>
       <c r="AU54" s="134"/>
       <c r="AV54" s="135">
@@ -6274,7 +6274,7 @@
         <v>-0.0044048118225913082</v>
       </c>
       <c r="AX54" s="135">
-        <v>0.0001322414707267051</v>
+        <v>0.00013223948537223812</v>
       </c>
       <c r="AY54" s="135">
         <v>0</v>
@@ -6283,7 +6283,7 @@
         <v>-0.18658357771261014</v>
       </c>
       <c r="BA54" s="135">
-        <v>-0.25335418809467652</v>
+        <v>-0.25332655040721391</v>
       </c>
     </row>
     <row r="55">
@@ -6874,7 +6874,7 @@
       </c>
       <c r="Y60" s="125"/>
       <c r="Z60" s="126">
-        <v>65484.8141474219</v>
+        <v>65484.384164516</v>
       </c>
       <c r="AA60" s="126"/>
       <c r="AB60" s="126"/>
@@ -6884,23 +6884,23 @@
       <c r="AD60" s="126"/>
       <c r="AE60" s="126"/>
       <c r="AF60" s="125">
-        <v>110.22709378616355</v>
+        <v>110.22637001887929</v>
       </c>
       <c r="AG60" s="125"/>
       <c r="AH60" s="125">
-        <v>-9.2221290421850473</v>
+        <v>-9.2225472248976672</v>
       </c>
       <c r="AI60" s="125"/>
       <c r="AJ60" s="125">
-        <v>1.50706185213233</v>
+        <v>1.50689852074111</v>
       </c>
       <c r="AK60" s="125"/>
       <c r="AL60" s="125">
-        <v>25.435783248364203</v>
+        <v>25.4359693284899</v>
       </c>
       <c r="AM60" s="125"/>
       <c r="AN60" s="125">
-        <v>0.888101986367564</v>
+        <v>0.887938654976344</v>
       </c>
       <c r="AO60" s="125"/>
       <c r="AP60" s="126">
@@ -6908,11 +6908,11 @@
       </c>
       <c r="AQ60" s="126"/>
       <c r="AR60" s="126">
-        <v>2450.2050170327052</v>
+        <v>2449.7750341268011</v>
       </c>
       <c r="AS60" s="126"/>
       <c r="AT60" s="126">
-        <v>2257.0979312085983</v>
+        <v>2256.6679483026965</v>
       </c>
       <c r="AU60" s="126"/>
       <c r="AV60" s="127">
@@ -6922,16 +6922,16 @@
         <v>0.0094366248444064816</v>
       </c>
       <c r="AX60" s="127">
-        <v>0.038870789409741147</v>
+        <v>0.0388639680315834</v>
       </c>
       <c r="AY60" s="127">
-        <v>0.050275088914839</v>
+        <v>0.050282772394394312</v>
       </c>
       <c r="AZ60" s="127">
         <v>0.50089812676418088</v>
       </c>
       <c r="BA60" s="127">
-        <v>1.4348296803868776</v>
+        <v>1.4345657999638424</v>
       </c>
     </row>
     <row r="61">
@@ -7090,7 +7090,7 @@
       </c>
       <c r="Y62" s="133"/>
       <c r="Z62" s="134">
-        <v>66127.5972396796</v>
+        <v>66127.1672567737</v>
       </c>
       <c r="AA62" s="134"/>
       <c r="AB62" s="134"/>
@@ -7100,23 +7100,23 @@
       <c r="AD62" s="134"/>
       <c r="AE62" s="134"/>
       <c r="AF62" s="133">
-        <v>110.19246011511156</v>
+        <v>110.19174360829464</v>
       </c>
       <c r="AG62" s="133"/>
       <c r="AH62" s="133">
-        <v>-9.158870276305759</v>
+        <v>-9.1592839827801242</v>
       </c>
       <c r="AI62" s="133"/>
       <c r="AJ62" s="133">
-        <v>1.49904576038993</v>
+        <v>1.49888396452315</v>
       </c>
       <c r="AK62" s="133"/>
       <c r="AL62" s="133">
-        <v>25.431390408971822</v>
+        <v>25.431574622435814</v>
       </c>
       <c r="AM62" s="133"/>
       <c r="AN62" s="133">
-        <v>0.88265743888413106</v>
+        <v>0.882495643017351</v>
       </c>
       <c r="AO62" s="133"/>
       <c r="AP62" s="134">
@@ -7124,11 +7124,11 @@
       </c>
       <c r="AQ62" s="134"/>
       <c r="AR62" s="134">
-        <v>2450.141346749</v>
+        <v>2449.7113638431015</v>
       </c>
       <c r="AS62" s="134"/>
       <c r="AT62" s="134">
-        <v>2323.870875481196</v>
+        <v>2323.4408925752941</v>
       </c>
       <c r="AU62" s="134"/>
       <c r="AV62" s="135">
@@ -7138,16 +7138,16 @@
         <v>0.0084250956118233165</v>
       </c>
       <c r="AX62" s="135">
-        <v>0.038477374957767624</v>
+        <v>0.038470622443869742</v>
       </c>
       <c r="AY62" s="135">
-        <v>0.049790733953022533</v>
+        <v>0.0497983381612258</v>
       </c>
       <c r="AZ62" s="135">
         <v>0.497295905227906</v>
       </c>
       <c r="BA62" s="135">
-        <v>1.4319827421905931</v>
+        <v>1.4317202520344123</v>
       </c>
     </row>
     <row r="63">
@@ -7198,7 +7198,7 @@
       </c>
       <c r="Y63" s="133"/>
       <c r="Z63" s="134">
-        <v>68074.601151041</v>
+        <v>68074.1711681351</v>
       </c>
       <c r="AA63" s="134"/>
       <c r="AB63" s="134"/>
@@ -7208,23 +7208,23 @@
       <c r="AD63" s="134"/>
       <c r="AE63" s="134"/>
       <c r="AF63" s="133">
-        <v>110.12278362107674</v>
+        <v>110.12208804719592</v>
       </c>
       <c r="AG63" s="133"/>
       <c r="AH63" s="133">
-        <v>-8.9949520082183589</v>
+        <v>-8.9953528468138888</v>
       </c>
       <c r="AI63" s="133"/>
       <c r="AJ63" s="133">
-        <v>1.47093991505218</v>
+        <v>1.47078256921601</v>
       </c>
       <c r="AK63" s="133"/>
       <c r="AL63" s="133">
-        <v>25.418777427355387</v>
+        <v>25.418956258974323</v>
       </c>
       <c r="AM63" s="133"/>
       <c r="AN63" s="133">
-        <v>0.865392361418153</v>
+        <v>0.8652350155819829</v>
       </c>
       <c r="AO63" s="133"/>
       <c r="AP63" s="134">
@@ -7232,11 +7232,11 @@
       </c>
       <c r="AQ63" s="134"/>
       <c r="AR63" s="134">
-        <v>2470.7757856580006</v>
+        <v>2470.3458027520951</v>
       </c>
       <c r="AS63" s="134"/>
       <c r="AT63" s="134">
-        <v>2374.2012493938091</v>
+        <v>2373.7712664879073</v>
       </c>
       <c r="AU63" s="134"/>
       <c r="AV63" s="135">
@@ -7246,16 +7246,16 @@
         <v>0.00453800187585018</v>
       </c>
       <c r="AX63" s="135">
-        <v>0.037662068818348944</v>
+        <v>0.037655514583081244</v>
       </c>
       <c r="AY63" s="135">
-        <v>0.048307562238229934</v>
+        <v>0.0483149375157795</v>
       </c>
       <c r="AZ63" s="135">
         <v>0.48387928810935887</v>
       </c>
       <c r="BA63" s="135">
-        <v>1.4291071877422985</v>
+        <v>1.4288473471480696</v>
       </c>
     </row>
     <row r="64">
@@ -7630,7 +7630,7 @@
       </c>
       <c r="Y67" s="133"/>
       <c r="Z67" s="134">
-        <v>90094.4589631627</v>
+        <v>90094.0289802568</v>
       </c>
       <c r="AA67" s="134"/>
       <c r="AB67" s="134"/>
@@ -7640,23 +7640,23 @@
       <c r="AD67" s="134"/>
       <c r="AE67" s="134"/>
       <c r="AF67" s="133">
-        <v>110.72059943120117</v>
+        <v>110.72007100841429</v>
       </c>
       <c r="AG67" s="133"/>
       <c r="AH67" s="133">
-        <v>-9.2054241910302554</v>
+        <v>-9.2057280652704634</v>
       </c>
       <c r="AI67" s="133"/>
       <c r="AJ67" s="133">
-        <v>1.77696104291952</v>
+        <v>1.7768436144545</v>
       </c>
       <c r="AK67" s="133"/>
       <c r="AL67" s="133">
-        <v>19.310473807951578</v>
+        <v>19.310609665126591</v>
       </c>
       <c r="AM67" s="133"/>
       <c r="AN67" s="133">
-        <v>1.04319131735001</v>
+        <v>1.0430738888849898</v>
       </c>
       <c r="AO67" s="133"/>
       <c r="AP67" s="134">
@@ -7664,11 +7664,11 @@
       </c>
       <c r="AQ67" s="134"/>
       <c r="AR67" s="134">
-        <v>3005.6831792071725</v>
+        <v>3005.2531963012675</v>
       </c>
       <c r="AS67" s="134"/>
       <c r="AT67" s="134">
-        <v>2999.2615713285049</v>
+        <v>2998.8315884226031</v>
       </c>
       <c r="AU67" s="134"/>
       <c r="AV67" s="135">
@@ -7678,16 +7678,16 @@
         <v>0.0014946993125793261</v>
       </c>
       <c r="AX67" s="135">
-        <v>0.034512865201636156</v>
+        <v>0.0345079279074552</v>
       </c>
       <c r="AY67" s="135">
-        <v>0.046843815468069233</v>
+        <v>0.0468511804475547</v>
       </c>
       <c r="AZ67" s="135">
         <v>0.43487982112912138</v>
       </c>
       <c r="BA67" s="135">
-        <v>1.4216875962555482</v>
+        <v>1.4215275617638976</v>
       </c>
     </row>
     <row r="68">
@@ -8494,7 +8494,7 @@
       </c>
       <c r="Y75" s="133"/>
       <c r="Z75" s="134">
-        <v>110420.255938736</v>
+        <v>110419.82595583</v>
       </c>
       <c r="AA75" s="134"/>
       <c r="AB75" s="134"/>
@@ -8504,23 +8504,23 @@
       <c r="AD75" s="134"/>
       <c r="AE75" s="134"/>
       <c r="AF75" s="133">
-        <v>112.25449437685379</v>
+        <v>112.25405725131651</v>
       </c>
       <c r="AG75" s="133"/>
       <c r="AH75" s="133">
-        <v>-9.1270373570186152</v>
+        <v>-9.1272849896272472</v>
       </c>
       <c r="AI75" s="133"/>
       <c r="AJ75" s="133">
-        <v>1.89140298375031</v>
+        <v>1.89130761685967</v>
       </c>
       <c r="AK75" s="133"/>
       <c r="AL75" s="133">
-        <v>17.429300909052664</v>
+        <v>17.429413293760671</v>
       </c>
       <c r="AM75" s="133"/>
       <c r="AN75" s="133">
-        <v>1.0935400703352169</v>
+        <v>1.0934447034445771</v>
       </c>
       <c r="AO75" s="133"/>
       <c r="AP75" s="134">
@@ -8528,11 +8528,11 @@
       </c>
       <c r="AQ75" s="134"/>
       <c r="AR75" s="134">
-        <v>4093.8233422213789</v>
+        <v>4093.3933593153834</v>
       </c>
       <c r="AS75" s="134"/>
       <c r="AT75" s="134">
-        <v>2529.7224540369934</v>
+        <v>2529.2924711310043</v>
       </c>
       <c r="AU75" s="134"/>
       <c r="AV75" s="135">
@@ -8542,16 +8542,16 @@
         <v>0.009808561285562567</v>
       </c>
       <c r="AX75" s="135">
-        <v>0.038502404738401566</v>
+        <v>0.038498360749569291</v>
       </c>
       <c r="AY75" s="135">
-        <v>0.023637143860822871</v>
+        <v>0.023643744306940506</v>
       </c>
       <c r="AZ75" s="135">
         <v>0.44949174078780535</v>
       </c>
       <c r="BA75" s="135">
-        <v>1.3705864152208014</v>
+        <v>1.3704668873056216</v>
       </c>
     </row>
     <row r="76">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="Y80" s="133"/>
       <c r="Z80" s="134">
-        <v>151248.979679504</v>
+        <v>151248.549686874</v>
       </c>
       <c r="AA80" s="134"/>
       <c r="AB80" s="134"/>
@@ -9026,21 +9026,21 @@
       <c r="AD80" s="134"/>
       <c r="AE80" s="134"/>
       <c r="AF80" s="133">
-        <v>108.66067877297331</v>
+        <v>108.66036984580953</v>
       </c>
       <c r="AG80" s="133"/>
       <c r="AH80" s="133">
-        <v>-6.9131502257095319</v>
+        <v>-6.913321299280816</v>
       </c>
       <c r="AI80" s="133"/>
       <c r="AJ80" s="133">
-        <v>1.44572720792179</v>
+        <v>1.44565860486734</v>
       </c>
       <c r="AK80" s="133"/>
       <c r="AL80" s="133"/>
       <c r="AM80" s="133"/>
       <c r="AN80" s="133">
-        <v>0.749490815274544</v>
+        <v>0.74942221222009409</v>
       </c>
       <c r="AO80" s="133"/>
       <c r="AP80" s="134">
@@ -9048,11 +9048,11 @@
       </c>
       <c r="AQ80" s="134"/>
       <c r="AR80" s="134">
-        <v>3784.047536403722</v>
+        <v>3783.6175437737197</v>
       </c>
       <c r="AS80" s="134"/>
       <c r="AT80" s="134">
-        <v>7226.7123761959956</v>
+        <v>7226.2823835659947</v>
       </c>
       <c r="AU80" s="134"/>
       <c r="AV80" s="135">
@@ -9062,7 +9062,7 @@
         <v>-0.026210495219274498</v>
       </c>
       <c r="AX80" s="135">
-        <v>0.025661576985262616</v>
+        <v>0.025658660983581414</v>
       </c>
       <c r="AY80" s="135">
         <v>0</v>
@@ -9071,7 +9071,7 @@
         <v>0.40475231574707976</v>
       </c>
       <c r="BA80" s="135">
-        <v>1.0764889959641621</v>
+        <v>1.0763904618237834</v>
       </c>
     </row>
     <row r="81"/>
@@ -10190,7 +10190,7 @@
       </c>
       <c r="Y94" s="133"/>
       <c r="Z94" s="134">
-        <v>-197765.141636314</v>
+        <v>-197765.571628944</v>
       </c>
       <c r="AA94" s="134"/>
       <c r="AB94" s="134"/>
@@ -10200,21 +10200,21 @@
       <c r="AD94" s="134"/>
       <c r="AE94" s="134"/>
       <c r="AF94" s="133">
-        <v>-1340.8163331424012</v>
+        <v>-1340.8192483466723</v>
       </c>
       <c r="AG94" s="133"/>
       <c r="AH94" s="133">
-        <v>3.3070747791920669</v>
+        <v>3.3071833926779255</v>
       </c>
       <c r="AI94" s="133"/>
       <c r="AJ94" s="133">
-        <v>-0.57047168062713</v>
+        <v>-0.570414830169929</v>
       </c>
       <c r="AK94" s="133"/>
       <c r="AL94" s="133"/>
       <c r="AM94" s="133"/>
       <c r="AN94" s="133">
-        <v>2.0065852537075597</v>
+        <v>2.0066421041647606</v>
       </c>
       <c r="AO94" s="133"/>
       <c r="AP94" s="134">
@@ -10222,11 +10222,11 @@
       </c>
       <c r="AQ94" s="134"/>
       <c r="AR94" s="134">
-        <v>-220159.29594247864</v>
+        <v>-220159.72593510864</v>
       </c>
       <c r="AS94" s="134"/>
       <c r="AT94" s="134">
-        <v>-219594.94957509649</v>
+        <v>-219595.37956772649</v>
       </c>
       <c r="AU94" s="134"/>
       <c r="AV94" s="135">
@@ -10236,7 +10236,7 @@
         <v>-0.0266798541238018</v>
       </c>
       <c r="AX94" s="135">
-        <v>-9.8334186004904964</v>
+        <v>-9.8334378061184378</v>
       </c>
       <c r="AY94" s="135">
         <v>0</v>
@@ -10245,7 +10245,7 @@
         <v>0.39300202839756648</v>
       </c>
       <c r="BA94" s="135">
-        <v>-0.77863442866682075</v>
+        <v>-0.77865648889236083</v>
       </c>
     </row>
     <row r="95" ht="14.25" customHeight="1">
@@ -10824,55 +10824,55 @@
       </c>
       <c r="C110" s="14"/>
       <c r="D110" s="74">
-        <v>5387.8815561379533</v>
+        <v>5387.8328860255169</v>
       </c>
       <c r="E110" s="74"/>
       <c r="F110" s="74"/>
       <c r="G110" s="74"/>
       <c r="H110" s="74">
-        <v>5455.3410069955371</v>
+        <v>5455.3496949362916</v>
       </c>
       <c r="I110" s="74"/>
       <c r="J110" s="74"/>
       <c r="K110" s="74"/>
       <c r="L110" s="74">
-        <v>5622.9153881130487</v>
+        <v>5622.9182798398615</v>
       </c>
       <c r="M110" s="74"/>
       <c r="N110" s="74"/>
       <c r="O110" s="74"/>
       <c r="P110" s="74">
-        <v>6019.2849451971115</v>
+        <v>6019.28531567807</v>
       </c>
       <c r="Q110" s="74"/>
       <c r="R110" s="74"/>
       <c r="S110" s="74"/>
       <c r="T110" s="74">
-        <v>6394.0572747095439</v>
+        <v>6394.05728721025</v>
       </c>
       <c r="U110" s="74"/>
       <c r="V110" s="74"/>
       <c r="W110" s="74"/>
       <c r="X110" s="74">
-        <v>6750.8620867962009</v>
+        <v>6750.8616529942747</v>
       </c>
       <c r="Y110" s="74"/>
       <c r="Z110" s="74"/>
       <c r="AA110" s="74"/>
       <c r="AB110" s="74">
-        <v>7101.6645822126411</v>
+        <v>7101.6642546661533</v>
       </c>
       <c r="AC110" s="74"/>
       <c r="AD110" s="74"/>
       <c r="AE110" s="74"/>
       <c r="AF110" s="74">
-        <v>6584.054990659627</v>
+        <v>6584.0557340568712</v>
       </c>
       <c r="AG110" s="74"/>
       <c r="AH110" s="74"/>
       <c r="AI110" s="74"/>
       <c r="AJ110" s="73">
-        <v>7.0491823142492223</v>
+        <v>7.0491338502877454</v>
       </c>
       <c r="AK110" s="73"/>
       <c r="AL110" s="73"/>
@@ -11779,47 +11779,47 @@
       <c r="N126" s="68"/>
       <c r="O126" s="68"/>
       <c r="P126" s="68">
-        <v>521.668889217834</v>
+        <v>521.66888921554</v>
       </c>
       <c r="Q126" s="68"/>
       <c r="R126" s="68"/>
       <c r="S126" s="68">
-        <v>513.895817623165</v>
+        <v>513.895561418909</v>
       </c>
       <c r="T126" s="68"/>
       <c r="U126" s="68"/>
       <c r="V126" s="68">
-        <v>509.04912642066404</v>
+        <v>509.04916422694504</v>
       </c>
       <c r="W126" s="68"/>
       <c r="X126" s="68"/>
       <c r="Y126" s="68">
-        <v>505.26845125900803</v>
+        <v>505.268595376398</v>
       </c>
       <c r="Z126" s="68"/>
       <c r="AA126" s="68"/>
       <c r="AB126" s="68">
-        <v>500.796158555683</v>
+        <v>500.79630653993803</v>
       </c>
       <c r="AC126" s="68"/>
       <c r="AD126" s="68"/>
       <c r="AE126" s="68">
-        <v>496.74338157115204</v>
+        <v>496.743691062707</v>
       </c>
       <c r="AF126" s="68"/>
       <c r="AG126" s="68"/>
       <c r="AH126" s="68">
-        <v>492.24619424534296</v>
+        <v>492.246309486332</v>
       </c>
       <c r="AI126" s="68"/>
       <c r="AJ126" s="68"/>
       <c r="AK126" s="68">
-        <v>487.117858778107</v>
+        <v>487.118185215217</v>
       </c>
       <c r="AL126" s="68"/>
       <c r="AM126" s="68"/>
       <c r="AN126" s="68">
-        <v>481.571478653401</v>
+        <v>481.57183964515</v>
       </c>
       <c r="AO126" s="68"/>
       <c r="AP126" s="68"/>
@@ -11905,47 +11905,47 @@
       <c r="N128" s="68"/>
       <c r="O128" s="68"/>
       <c r="P128" s="68">
-        <v>487.935157760921</v>
+        <v>487.935157758628</v>
       </c>
       <c r="Q128" s="68"/>
       <c r="R128" s="68"/>
       <c r="S128" s="68">
-        <v>482.491011437512</v>
+        <v>482.490755233256</v>
       </c>
       <c r="T128" s="68"/>
       <c r="U128" s="68"/>
       <c r="V128" s="68">
-        <v>479.863617402057</v>
+        <v>479.86365520833897</v>
       </c>
       <c r="W128" s="68"/>
       <c r="X128" s="68"/>
       <c r="Y128" s="68">
-        <v>478.202083421163</v>
+        <v>478.202227538553</v>
       </c>
       <c r="Z128" s="68"/>
       <c r="AA128" s="68"/>
       <c r="AB128" s="68">
-        <v>474.761836842355</v>
+        <v>474.761984826611</v>
       </c>
       <c r="AC128" s="68"/>
       <c r="AD128" s="68"/>
       <c r="AE128" s="68">
-        <v>471.73582387725395</v>
+        <v>471.736133368809</v>
       </c>
       <c r="AF128" s="68"/>
       <c r="AG128" s="68"/>
       <c r="AH128" s="68">
-        <v>468.27305480588404</v>
+        <v>468.273170046874</v>
       </c>
       <c r="AI128" s="68"/>
       <c r="AJ128" s="68"/>
       <c r="AK128" s="68">
-        <v>464.17369513907204</v>
+        <v>464.17402157618295</v>
       </c>
       <c r="AL128" s="68"/>
       <c r="AM128" s="68"/>
       <c r="AN128" s="68">
-        <v>459.60069045487097</v>
+        <v>459.601051446621</v>
       </c>
       <c r="AO128" s="68"/>
       <c r="AP128" s="68"/>
@@ -12094,47 +12094,47 @@
       <c r="N131" s="68"/>
       <c r="O131" s="68"/>
       <c r="P131" s="68">
-        <v>174.712935538686</v>
+        <v>174.712935536391</v>
       </c>
       <c r="Q131" s="68"/>
       <c r="R131" s="68"/>
       <c r="S131" s="68">
-        <v>169.268789215273</v>
+        <v>169.26853301102602</v>
       </c>
       <c r="T131" s="68"/>
       <c r="U131" s="68"/>
       <c r="V131" s="68">
-        <v>166.64139517981502</v>
+        <v>166.641432986117</v>
       </c>
       <c r="W131" s="68"/>
       <c r="X131" s="68"/>
       <c r="Y131" s="68">
-        <v>164.979861198939</v>
+        <v>164.980005316324</v>
       </c>
       <c r="Z131" s="68"/>
       <c r="AA131" s="68"/>
       <c r="AB131" s="68">
-        <v>161.539614620126</v>
+        <v>161.539762604392</v>
       </c>
       <c r="AC131" s="68"/>
       <c r="AD131" s="68"/>
       <c r="AE131" s="68">
-        <v>158.513601655013</v>
+        <v>158.51391114658802</v>
       </c>
       <c r="AF131" s="68"/>
       <c r="AG131" s="68"/>
       <c r="AH131" s="68">
-        <v>155.050832583643</v>
+        <v>155.050947824634</v>
       </c>
       <c r="AI131" s="68"/>
       <c r="AJ131" s="68"/>
       <c r="AK131" s="68">
-        <v>150.951472916848</v>
+        <v>150.951799353964</v>
       </c>
       <c r="AL131" s="68"/>
       <c r="AM131" s="68"/>
       <c r="AN131" s="68">
-        <v>146.378468232638</v>
+        <v>146.37882922438402</v>
       </c>
       <c r="AO131" s="68"/>
       <c r="AP131" s="68"/>
@@ -12157,47 +12157,47 @@
       <c r="N132" s="68"/>
       <c r="O132" s="68"/>
       <c r="P132" s="68">
-        <v>36.0915213514512</v>
+        <v>36.0915213509772</v>
       </c>
       <c r="Q132" s="68"/>
       <c r="R132" s="68"/>
       <c r="S132" s="68">
-        <v>34.9668906956498</v>
+        <v>34.9668377699689</v>
       </c>
       <c r="T132" s="68"/>
       <c r="U132" s="68"/>
       <c r="V132" s="68">
-        <v>34.4241338148438</v>
+        <v>34.4241416247233</v>
       </c>
       <c r="W132" s="68"/>
       <c r="X132" s="68"/>
       <c r="Y132" s="68">
-        <v>34.0809005621825</v>
+        <v>34.080930333393596</v>
       </c>
       <c r="Z132" s="68"/>
       <c r="AA132" s="68"/>
       <c r="AB132" s="68">
-        <v>33.3702277521204</v>
+        <v>33.3702583221368</v>
       </c>
       <c r="AC132" s="68"/>
       <c r="AD132" s="68"/>
       <c r="AE132" s="68">
-        <v>32.7451257171543</v>
+        <v>32.7451896507247</v>
       </c>
       <c r="AF132" s="68"/>
       <c r="AG132" s="68"/>
       <c r="AH132" s="68">
-        <v>32.0298002978361</v>
+        <v>32.0298241038736</v>
       </c>
       <c r="AI132" s="68"/>
       <c r="AJ132" s="68"/>
       <c r="AK132" s="68">
-        <v>31.182970459592003</v>
+        <v>31.1830378937066</v>
       </c>
       <c r="AL132" s="68"/>
       <c r="AM132" s="68"/>
       <c r="AN132" s="68">
-        <v>30.2382968686437</v>
+        <v>30.238371440920098</v>
       </c>
       <c r="AO132" s="68"/>
       <c r="AP132" s="68"/>
@@ -12220,47 +12220,47 @@
       <c r="N133" s="68"/>
       <c r="O133" s="68"/>
       <c r="P133" s="68">
-        <v>138.621414187235</v>
+        <v>138.621414185414</v>
       </c>
       <c r="Q133" s="68"/>
       <c r="R133" s="68"/>
       <c r="S133" s="68">
-        <v>134.301898519624</v>
+        <v>134.301695241057</v>
       </c>
       <c r="T133" s="68"/>
       <c r="U133" s="68"/>
       <c r="V133" s="68">
-        <v>132.217261364971</v>
+        <v>132.217291361394</v>
       </c>
       <c r="W133" s="68"/>
       <c r="X133" s="68"/>
       <c r="Y133" s="68">
-        <v>130.89896063675602</v>
+        <v>130.89907498293002</v>
       </c>
       <c r="Z133" s="68"/>
       <c r="AA133" s="68"/>
       <c r="AB133" s="68">
-        <v>128.169386868006</v>
+        <v>128.169504282255</v>
       </c>
       <c r="AC133" s="68"/>
       <c r="AD133" s="68"/>
       <c r="AE133" s="68">
-        <v>125.768475937859</v>
+        <v>125.768721495863</v>
       </c>
       <c r="AF133" s="68"/>
       <c r="AG133" s="68"/>
       <c r="AH133" s="68">
-        <v>123.021032285807</v>
+        <v>123.02112372076</v>
       </c>
       <c r="AI133" s="68"/>
       <c r="AJ133" s="68"/>
       <c r="AK133" s="68">
-        <v>119.768502457256</v>
+        <v>119.768761460257</v>
       </c>
       <c r="AL133" s="68"/>
       <c r="AM133" s="68"/>
       <c r="AN133" s="68">
-        <v>116.14017136399501</v>
+        <v>116.14045778346399</v>
       </c>
       <c r="AO133" s="68"/>
       <c r="AP133" s="68"/>
@@ -12285,47 +12285,47 @@
       <c r="N134" s="68"/>
       <c r="O134" s="68"/>
       <c r="P134" s="68">
-        <v>14888.6214141871</v>
+        <v>14888.6214141853</v>
       </c>
       <c r="Q134" s="68"/>
       <c r="R134" s="68"/>
       <c r="S134" s="68">
-        <v>15022.9233128736</v>
+        <v>15022.9231095903</v>
       </c>
       <c r="T134" s="68"/>
       <c r="U134" s="68"/>
       <c r="V134" s="68">
-        <v>15155.1405742301</v>
+        <v>15155.1404009773</v>
       </c>
       <c r="W134" s="68"/>
       <c r="X134" s="68"/>
       <c r="Y134" s="68">
-        <v>15286.0395342664</v>
+        <v>15286.039475304799</v>
       </c>
       <c r="Z134" s="68"/>
       <c r="AA134" s="68"/>
       <c r="AB134" s="68">
-        <v>15414.2089213983</v>
+        <v>15414.2089797726</v>
       </c>
       <c r="AC134" s="68"/>
       <c r="AD134" s="68"/>
       <c r="AE134" s="68">
-        <v>15539.9773948008</v>
+        <v>15539.977698804001</v>
       </c>
       <c r="AF134" s="68"/>
       <c r="AG134" s="68"/>
       <c r="AH134" s="68">
-        <v>15662.998432530001</v>
+        <v>15662.9988279176</v>
       </c>
       <c r="AI134" s="68"/>
       <c r="AJ134" s="68"/>
       <c r="AK134" s="68">
-        <v>15782.766931302</v>
+        <v>15782.7675857458</v>
       </c>
       <c r="AL134" s="68"/>
       <c r="AM134" s="68"/>
       <c r="AN134" s="68">
-        <v>15898.9071064091</v>
+        <v>15898.9080473205</v>
       </c>
       <c r="AO134" s="68"/>
       <c r="AP134" s="68"/>
@@ -12446,13 +12446,13 @@
       <c r="F140" s="143"/>
       <c r="G140" s="143"/>
       <c r="H140" s="143">
-        <v>1017.6222885679</v>
+        <v>1017.6223577887599</v>
       </c>
       <c r="I140" s="143"/>
       <c r="J140" s="143"/>
       <c r="K140" s="143"/>
       <c r="L140" s="143">
-        <v>-5349.52694226754</v>
+        <v>-5349.52687304668</v>
       </c>
       <c r="M140" s="143"/>
       <c r="N140" s="143"/>
@@ -12464,13 +12464,13 @@
       <c r="R140" s="143"/>
       <c r="S140" s="143"/>
       <c r="T140" s="143">
-        <v>1048.92178056308</v>
+        <v>1048.9220263066202</v>
       </c>
       <c r="U140" s="143"/>
       <c r="V140" s="143"/>
       <c r="W140" s="143"/>
       <c r="X140" s="143">
-        <v>-5385.5222795362006</v>
+        <v>-5385.52203379266</v>
       </c>
       <c r="Y140" s="143"/>
       <c r="Z140" s="143"/>
@@ -12488,13 +12488,13 @@
       <c r="F141" s="143"/>
       <c r="G141" s="143"/>
       <c r="H141" s="143">
-        <v>32714.5171494389</v>
+        <v>32714.5193747505</v>
       </c>
       <c r="I141" s="143"/>
       <c r="J141" s="143"/>
       <c r="K141" s="143"/>
       <c r="L141" s="143">
-        <v>8545.8453616512979</v>
+        <v>8545.8475869628965</v>
       </c>
       <c r="M141" s="143"/>
       <c r="N141" s="143"/>
@@ -12506,13 +12506,13 @@
       <c r="R141" s="143"/>
       <c r="S141" s="143"/>
       <c r="T141" s="143">
-        <v>33720.7330894278</v>
+        <v>33720.740989589896</v>
       </c>
       <c r="U141" s="143"/>
       <c r="V141" s="143"/>
       <c r="W141" s="143"/>
       <c r="X141" s="143">
-        <v>9296.6209809364973</v>
+        <v>9296.6288810985989</v>
       </c>
       <c r="Y141" s="143"/>
       <c r="Z141" s="143"/>
@@ -12530,13 +12530,13 @@
       <c r="F142" s="145"/>
       <c r="G142" s="145"/>
       <c r="H142" s="145">
-        <v>33732.1394380068</v>
+        <v>33732.141732539305</v>
       </c>
       <c r="I142" s="145"/>
       <c r="J142" s="145"/>
       <c r="K142" s="145"/>
       <c r="L142" s="145">
-        <v>3196.3184193838051</v>
+        <v>3196.3207139163055</v>
       </c>
       <c r="M142" s="145"/>
       <c r="N142" s="145"/>
@@ -12548,13 +12548,13 @@
       <c r="R142" s="145"/>
       <c r="S142" s="145"/>
       <c r="T142" s="145">
-        <v>34769.6548699909</v>
+        <v>34769.6630158965</v>
       </c>
       <c r="U142" s="145"/>
       <c r="V142" s="145"/>
       <c r="W142" s="145"/>
       <c r="X142" s="145">
-        <v>3911.098701400399</v>
+        <v>3911.1068473059981</v>
       </c>
       <c r="Y142" s="145"/>
       <c r="Z142" s="145"/>
@@ -13430,13 +13430,13 @@
       <c r="R163" s="145"/>
       <c r="S163" s="145"/>
       <c r="T163" s="145">
-        <v>81371</v>
+        <v>81371.0000000001</v>
       </c>
       <c r="U163" s="145"/>
       <c r="V163" s="145"/>
       <c r="W163" s="145"/>
       <c r="X163" s="145">
-        <v>-6</v>
+        <v>-5.9999999998956914</v>
       </c>
       <c r="Y163" s="145"/>
       <c r="Z163" s="145"/>
@@ -13958,13 +13958,13 @@
       <c r="F176" s="145"/>
       <c r="G176" s="145"/>
       <c r="H176" s="145">
-        <v>140668.139438007</v>
+        <v>140668.141732539</v>
       </c>
       <c r="I176" s="145"/>
       <c r="J176" s="145"/>
       <c r="K176" s="145"/>
       <c r="L176" s="145">
-        <v>3694.3184193840025</v>
+        <v>3694.3207139160036</v>
       </c>
       <c r="M176" s="145"/>
       <c r="N176" s="145"/>
@@ -13976,13 +13976,13 @@
       <c r="R176" s="145"/>
       <c r="S176" s="145"/>
       <c r="T176" s="145">
-        <v>141705.654869991</v>
+        <v>141705.663015897</v>
       </c>
       <c r="U176" s="145"/>
       <c r="V176" s="145"/>
       <c r="W176" s="145"/>
       <c r="X176" s="145">
-        <v>4409.098701400012</v>
+        <v>4409.1068473060132</v>
       </c>
       <c r="Y176" s="145"/>
       <c r="Z176" s="145"/>
@@ -14380,13 +14380,13 @@
       <c r="F188" s="145"/>
       <c r="G188" s="145"/>
       <c r="H188" s="145">
-        <v>16229.1394380068</v>
+        <v>16229.141732539401</v>
       </c>
       <c r="I188" s="145"/>
       <c r="J188" s="145"/>
       <c r="K188" s="145"/>
       <c r="L188" s="145">
-        <v>817.31841938379966</v>
+        <v>817.32071391640045</v>
       </c>
       <c r="M188" s="145"/>
       <c r="N188" s="145"/>
@@ -14398,13 +14398,13 @@
       <c r="R188" s="145"/>
       <c r="S188" s="145"/>
       <c r="T188" s="145">
-        <v>17266.6548699909</v>
+        <v>17266.663015896498</v>
       </c>
       <c r="U188" s="145"/>
       <c r="V188" s="145"/>
       <c r="W188" s="145"/>
       <c r="X188" s="145">
-        <v>1532.0987014003006</v>
+        <v>1532.1068473058995</v>
       </c>
       <c r="Y188" s="145"/>
       <c r="Z188" s="145"/>
@@ -14624,13 +14624,13 @@
       <c r="F195" s="143"/>
       <c r="G195" s="143"/>
       <c r="H195" s="143">
-        <v>26027.438066065748</v>
+        <v>26027.438730358164</v>
       </c>
       <c r="I195" s="143"/>
       <c r="J195" s="143"/>
       <c r="K195" s="143"/>
       <c r="L195" s="143">
-        <v>2548.3844017862757</v>
+        <v>2548.385066078692</v>
       </c>
       <c r="M195" s="143"/>
       <c r="N195" s="143"/>
@@ -14642,13 +14642,13 @@
       <c r="R195" s="143"/>
       <c r="S195" s="143"/>
       <c r="T195" s="143">
-        <v>152947.52461324778</v>
+        <v>152947.54752501467</v>
       </c>
       <c r="U195" s="143"/>
       <c r="V195" s="143"/>
       <c r="W195" s="143"/>
       <c r="X195" s="143">
-        <v>40885.84534858758</v>
+        <v>40885.868260354473</v>
       </c>
       <c r="Y195" s="143"/>
       <c r="Z195" s="143"/>
@@ -14666,13 +14666,13 @@
       <c r="F196" s="145"/>
       <c r="G196" s="145"/>
       <c r="H196" s="145">
-        <v>26027.438066065748</v>
+        <v>26027.438730358164</v>
       </c>
       <c r="I196" s="145"/>
       <c r="J196" s="145"/>
       <c r="K196" s="145"/>
       <c r="L196" s="145">
-        <v>2548.3844017862757</v>
+        <v>2548.385066078692</v>
       </c>
       <c r="M196" s="145"/>
       <c r="N196" s="145"/>
@@ -14684,13 +14684,13 @@
       <c r="R196" s="145"/>
       <c r="S196" s="145"/>
       <c r="T196" s="145">
-        <v>152947.52461324778</v>
+        <v>152947.54752501467</v>
       </c>
       <c r="U196" s="145"/>
       <c r="V196" s="145"/>
       <c r="W196" s="145"/>
       <c r="X196" s="145">
-        <v>40885.84534858758</v>
+        <v>40885.868260354473</v>
       </c>
       <c r="Y196" s="145"/>
       <c r="Z196" s="145"/>
@@ -14792,13 +14792,13 @@
       <c r="F199" s="143"/>
       <c r="G199" s="143"/>
       <c r="H199" s="143">
-        <v>23786.545695739056</v>
+        <v>23786.570393968988</v>
       </c>
       <c r="I199" s="143"/>
       <c r="J199" s="143"/>
       <c r="K199" s="143"/>
       <c r="L199" s="143">
-        <v>259.38840613362845</v>
+        <v>259.41310436356071</v>
       </c>
       <c r="M199" s="143"/>
       <c r="N199" s="143"/>
@@ -14810,13 +14810,13 @@
       <c r="R199" s="143"/>
       <c r="S199" s="143"/>
       <c r="T199" s="143">
-        <v>23312.730573469318</v>
+        <v>23312.767439050407</v>
       </c>
       <c r="U199" s="143"/>
       <c r="V199" s="143"/>
       <c r="W199" s="143"/>
       <c r="X199" s="143">
-        <v>-62.328696577624214</v>
+        <v>-62.291830996535282</v>
       </c>
       <c r="Y199" s="143"/>
       <c r="Z199" s="143"/>
@@ -14834,13 +14834,13 @@
       <c r="F200" s="145"/>
       <c r="G200" s="145"/>
       <c r="H200" s="145">
-        <v>23786.545695739056</v>
+        <v>23786.570393968988</v>
       </c>
       <c r="I200" s="145"/>
       <c r="J200" s="145"/>
       <c r="K200" s="145"/>
       <c r="L200" s="145">
-        <v>259.38840613362845</v>
+        <v>259.41310436356071</v>
       </c>
       <c r="M200" s="145"/>
       <c r="N200" s="145"/>
@@ -14852,13 +14852,13 @@
       <c r="R200" s="145"/>
       <c r="S200" s="145"/>
       <c r="T200" s="145">
-        <v>23312.730573469318</v>
+        <v>23312.767439050407</v>
       </c>
       <c r="U200" s="145"/>
       <c r="V200" s="145"/>
       <c r="W200" s="145"/>
       <c r="X200" s="145">
-        <v>-62.328696577624214</v>
+        <v>-62.291830996535282</v>
       </c>
       <c r="Y200" s="145"/>
       <c r="Z200" s="145"/>
@@ -14876,13 +14876,13 @@
       <c r="F201" s="143"/>
       <c r="G201" s="143"/>
       <c r="H201" s="143">
-        <v>2907.7875989717791</v>
+        <v>2907.4241195162745</v>
       </c>
       <c r="I201" s="143"/>
       <c r="J201" s="143"/>
       <c r="K201" s="143"/>
       <c r="L201" s="143">
-        <v>-321.41870352422848</v>
+        <v>-321.78218297973308</v>
       </c>
       <c r="M201" s="143"/>
       <c r="N201" s="143"/>
@@ -14894,13 +14894,13 @@
       <c r="R201" s="143"/>
       <c r="S201" s="143"/>
       <c r="T201" s="143">
-        <v>3111.6658934874863</v>
+        <v>3111.6494158444261</v>
       </c>
       <c r="U201" s="143"/>
       <c r="V201" s="143"/>
       <c r="W201" s="143"/>
       <c r="X201" s="143">
-        <v>-66.6649997878917</v>
+        <v>-66.681477430951873</v>
       </c>
       <c r="Y201" s="143"/>
       <c r="Z201" s="143"/>
@@ -14918,13 +14918,13 @@
       <c r="F202" s="145"/>
       <c r="G202" s="145"/>
       <c r="H202" s="145">
-        <v>2907.7875989717791</v>
+        <v>2907.4241195162745</v>
       </c>
       <c r="I202" s="145"/>
       <c r="J202" s="145"/>
       <c r="K202" s="145"/>
       <c r="L202" s="145">
-        <v>-321.41870352422848</v>
+        <v>-321.78218297973308</v>
       </c>
       <c r="M202" s="145"/>
       <c r="N202" s="145"/>
@@ -14936,13 +14936,13 @@
       <c r="R202" s="145"/>
       <c r="S202" s="145"/>
       <c r="T202" s="145">
-        <v>3111.6658934874863</v>
+        <v>3111.6494158444261</v>
       </c>
       <c r="U202" s="145"/>
       <c r="V202" s="145"/>
       <c r="W202" s="145"/>
       <c r="X202" s="145">
-        <v>-66.6649997878917</v>
+        <v>-66.681477430951873</v>
       </c>
       <c r="Y202" s="145"/>
       <c r="Z202" s="145"/>
@@ -14960,13 +14960,13 @@
       <c r="F203" s="145"/>
       <c r="G203" s="145"/>
       <c r="H203" s="145">
-        <v>26694.333294710832</v>
+        <v>26693.994513485264</v>
       </c>
       <c r="I203" s="145"/>
       <c r="J203" s="145"/>
       <c r="K203" s="145"/>
       <c r="L203" s="145">
-        <v>-62.030297390618216</v>
+        <v>-62.369078616186016</v>
       </c>
       <c r="M203" s="145"/>
       <c r="N203" s="145"/>
@@ -14978,13 +14978,13 @@
       <c r="R203" s="145"/>
       <c r="S203" s="145"/>
       <c r="T203" s="145">
-        <v>26424.39646695683</v>
+        <v>26424.41685489484</v>
       </c>
       <c r="U203" s="145"/>
       <c r="V203" s="145"/>
       <c r="W203" s="145"/>
       <c r="X203" s="145">
-        <v>-128.99369636549091</v>
+        <v>-128.97330842748124</v>
       </c>
       <c r="Y203" s="145"/>
       <c r="Z203" s="145"/>
@@ -15002,13 +15002,13 @@
       <c r="F204" s="145"/>
       <c r="G204" s="145"/>
       <c r="H204" s="145">
-        <v>65151.030647527878</v>
+        <v>65150.69186630231</v>
       </c>
       <c r="I204" s="145"/>
       <c r="J204" s="145"/>
       <c r="K204" s="145"/>
       <c r="L204" s="145">
-        <v>9662.4603148891765</v>
+        <v>9662.1215336636087</v>
       </c>
       <c r="M204" s="145"/>
       <c r="N204" s="145"/>
@@ -15020,13 +15020,13 @@
       <c r="R204" s="145"/>
       <c r="S204" s="145"/>
       <c r="T204" s="145">
-        <v>71774.695055871416</v>
+        <v>71774.715443809415</v>
       </c>
       <c r="U204" s="145"/>
       <c r="V204" s="145"/>
       <c r="W204" s="145"/>
       <c r="X204" s="145">
-        <v>-1661.2864976181591</v>
+        <v>-1661.2661096801603</v>
       </c>
       <c r="Y204" s="145"/>
       <c r="Z204" s="145"/>
@@ -15254,13 +15254,13 @@
       <c r="F210" s="143"/>
       <c r="G210" s="143"/>
       <c r="H210" s="143">
-        <v>3319506.090454475</v>
+        <v>3319509.3202982186</v>
       </c>
       <c r="I210" s="143"/>
       <c r="J210" s="143"/>
       <c r="K210" s="143"/>
       <c r="L210" s="143">
-        <v>292714.485309802</v>
+        <v>292717.71515354561</v>
       </c>
       <c r="M210" s="143"/>
       <c r="N210" s="143"/>
@@ -15272,13 +15272,13 @@
       <c r="R210" s="143"/>
       <c r="S210" s="143"/>
       <c r="T210" s="143">
-        <v>2821972.269097263</v>
+        <v>2821979.60034087</v>
       </c>
       <c r="U210" s="143"/>
       <c r="V210" s="143"/>
       <c r="W210" s="143"/>
       <c r="X210" s="143">
-        <v>456193.44760282431</v>
+        <v>456200.77884643152</v>
       </c>
       <c r="Y210" s="143"/>
       <c r="Z210" s="143"/>
@@ -15338,13 +15338,13 @@
       <c r="F212" s="145"/>
       <c r="G212" s="145"/>
       <c r="H212" s="145">
-        <v>3351562.5201874473</v>
+        <v>3351565.75003119</v>
       </c>
       <c r="I212" s="145"/>
       <c r="J212" s="145"/>
       <c r="K212" s="145"/>
       <c r="L212" s="145">
-        <v>293506.38081122143</v>
+        <v>293509.61065496411</v>
       </c>
       <c r="M212" s="145"/>
       <c r="N212" s="145"/>
@@ -15356,13 +15356,13 @@
       <c r="R212" s="145"/>
       <c r="S212" s="145"/>
       <c r="T212" s="145">
-        <v>2850796.3818543116</v>
+        <v>2850803.7130979165</v>
       </c>
       <c r="U212" s="145"/>
       <c r="V212" s="145"/>
       <c r="W212" s="145"/>
       <c r="X212" s="145">
-        <v>457685.162504775</v>
+        <v>457692.49374837987</v>
       </c>
       <c r="Y212" s="145"/>
       <c r="Z212" s="145"/>
@@ -15380,13 +15380,13 @@
       <c r="F213" s="145"/>
       <c r="G213" s="145"/>
       <c r="H213" s="145">
-        <v>3428255.87787803</v>
+        <v>3428259.1077217716</v>
       </c>
       <c r="I213" s="145"/>
       <c r="J213" s="145"/>
       <c r="K213" s="145"/>
       <c r="L213" s="145">
-        <v>283577.31812388776</v>
+        <v>283580.54796762951</v>
       </c>
       <c r="M213" s="145"/>
       <c r="N213" s="145"/>
@@ -15398,13 +15398,13 @@
       <c r="R213" s="145"/>
       <c r="S213" s="145"/>
       <c r="T213" s="145">
-        <v>2939287.4483514745</v>
+        <v>2939294.7795950794</v>
       </c>
       <c r="U213" s="145"/>
       <c r="V213" s="145"/>
       <c r="W213" s="145"/>
       <c r="X213" s="145">
-        <v>459304.18324242253</v>
+        <v>459311.51448602742</v>
       </c>
       <c r="Y213" s="145"/>
       <c r="Z213" s="145"/>
@@ -15548,13 +15548,13 @@
       <c r="F217" s="145"/>
       <c r="G217" s="145"/>
       <c r="H217" s="145">
-        <v>4387700.6208760962</v>
+        <v>4387703.85071984</v>
       </c>
       <c r="I217" s="145"/>
       <c r="J217" s="145"/>
       <c r="K217" s="145"/>
       <c r="L217" s="145">
-        <v>272864.00005795015</v>
+        <v>272867.22990169423</v>
       </c>
       <c r="M217" s="145"/>
       <c r="N217" s="145"/>
@@ -15566,13 +15566,13 @@
       <c r="R217" s="145"/>
       <c r="S217" s="145"/>
       <c r="T217" s="145">
-        <v>3863168.3949893527</v>
+        <v>3863175.7262329594</v>
       </c>
       <c r="U217" s="145"/>
       <c r="V217" s="145"/>
       <c r="W217" s="145"/>
       <c r="X217" s="145">
-        <v>446305.25592443859</v>
+        <v>446312.58716804534</v>
       </c>
       <c r="Y217" s="145"/>
       <c r="Z217" s="145"/>
@@ -15884,13 +15884,13 @@
       <c r="F225" s="145"/>
       <c r="G225" s="145"/>
       <c r="H225" s="145">
-        <v>5834749.0433665821</v>
+        <v>5834752.2732103234</v>
       </c>
       <c r="I225" s="145"/>
       <c r="J225" s="145"/>
       <c r="K225" s="145"/>
       <c r="L225" s="145">
-        <v>254121.00647099037</v>
+        <v>254124.23631473165</v>
       </c>
       <c r="M225" s="145"/>
       <c r="N225" s="145"/>
@@ -15902,13 +15902,13 @@
       <c r="R225" s="145"/>
       <c r="S225" s="145"/>
       <c r="T225" s="145">
-        <v>5123200.1940321308</v>
+        <v>5123207.525275737</v>
       </c>
       <c r="U225" s="145"/>
       <c r="V225" s="145"/>
       <c r="W225" s="145"/>
       <c r="X225" s="145">
-        <v>503935.23862068169</v>
+        <v>503942.569864288</v>
       </c>
       <c r="Y225" s="145"/>
       <c r="Z225" s="145"/>
@@ -16094,13 +16094,13 @@
       <c r="F230" s="145"/>
       <c r="G230" s="145"/>
       <c r="H230" s="145">
-        <v>5925927.5120801767</v>
+        <v>5925930.4038069816</v>
       </c>
       <c r="I230" s="145"/>
       <c r="J230" s="145"/>
       <c r="K230" s="145"/>
       <c r="L230" s="145">
-        <v>266331.85118766408</v>
+        <v>266334.742914469</v>
       </c>
       <c r="M230" s="145"/>
       <c r="N230" s="145"/>
@@ -16112,13 +16112,13 @@
       <c r="R230" s="145"/>
       <c r="S230" s="145"/>
       <c r="T230" s="145">
-        <v>5347922.4137012511</v>
+        <v>5347929.7882445632</v>
       </c>
       <c r="U230" s="145"/>
       <c r="V230" s="145"/>
       <c r="W230" s="145"/>
       <c r="X230" s="145">
-        <v>543159.79747165274</v>
+        <v>543167.17201496474</v>
       </c>
       <c r="Y230" s="145"/>
       <c r="Z230" s="145"/>
@@ -16516,13 +16516,13 @@
       <c r="F242" s="145"/>
       <c r="G242" s="145"/>
       <c r="H242" s="145">
-        <v>5622915.3881130489</v>
+        <v>5622918.2798398612</v>
       </c>
       <c r="I242" s="145"/>
       <c r="J242" s="145"/>
       <c r="K242" s="145"/>
       <c r="L242" s="145">
-        <v>546167.35550191533</v>
+        <v>546170.24722872768</v>
       </c>
       <c r="M242" s="145"/>
       <c r="N242" s="145"/>
@@ -16534,13 +16534,13 @@
       <c r="R242" s="145"/>
       <c r="S242" s="145"/>
       <c r="T242" s="145">
-        <v>5066309.9850794757</v>
+        <v>5066317.3596227868</v>
       </c>
       <c r="U242" s="145"/>
       <c r="V242" s="145"/>
       <c r="W242" s="145"/>
       <c r="X242" s="145">
-        <v>880710.397546614</v>
+        <v>880717.77208992513</v>
       </c>
       <c r="Y242" s="145"/>
       <c r="Z242" s="145"/>
@@ -16932,13 +16932,13 @@
       <c r="F253" s="138"/>
       <c r="G253" s="138"/>
       <c r="H253" s="138">
-        <v>2.362119731453729</v>
+        <v>2.362122184108141</v>
       </c>
       <c r="I253" s="138"/>
       <c r="J253" s="138"/>
       <c r="K253" s="138"/>
       <c r="L253" s="138">
-        <v>0.16537301907226798</v>
+        <v>0.16537547172668</v>
       </c>
       <c r="M253" s="138"/>
       <c r="N253" s="138"/>
@@ -16950,13 +16950,13 @@
       <c r="R253" s="138"/>
       <c r="S253" s="138"/>
       <c r="T253" s="138">
-        <v>2.3150675842571329</v>
+        <v>2.3150712451887205</v>
       </c>
       <c r="U253" s="138"/>
       <c r="V253" s="138"/>
       <c r="W253" s="138"/>
       <c r="X253" s="138">
-        <v>0.13252236763276848</v>
+        <v>0.13252602856435614</v>
       </c>
       <c r="Y253" s="138"/>
       <c r="Z253" s="138"/>
@@ -16974,13 +16974,13 @@
       <c r="F254" s="146"/>
       <c r="G254" s="146"/>
       <c r="H254" s="146">
-        <v>2.362119731453729</v>
+        <v>2.362122184108141</v>
       </c>
       <c r="I254" s="146"/>
       <c r="J254" s="146"/>
       <c r="K254" s="146"/>
       <c r="L254" s="146">
-        <v>0.16537301907226798</v>
+        <v>0.16537547172668</v>
       </c>
       <c r="M254" s="146"/>
       <c r="N254" s="146"/>
@@ -16992,13 +16992,13 @@
       <c r="R254" s="146"/>
       <c r="S254" s="146"/>
       <c r="T254" s="146">
-        <v>2.3150675842571329</v>
+        <v>2.3150712451887205</v>
       </c>
       <c r="U254" s="146"/>
       <c r="V254" s="146"/>
       <c r="W254" s="146"/>
       <c r="X254" s="146">
-        <v>0.13252236763276848</v>
+        <v>0.13252602856435614</v>
       </c>
       <c r="Y254" s="146"/>
       <c r="Z254" s="146"/>
@@ -17016,13 +17016,13 @@
       <c r="F255" s="138"/>
       <c r="G255" s="138"/>
       <c r="H255" s="138">
-        <v>2.0192969437304011</v>
+        <v>2.0190445274418551</v>
       </c>
       <c r="I255" s="138"/>
       <c r="J255" s="138"/>
       <c r="K255" s="138"/>
       <c r="L255" s="138">
-        <v>0.18452063549403497</v>
+        <v>0.18426821920548897</v>
       </c>
       <c r="M255" s="138"/>
       <c r="N255" s="138"/>
@@ -17034,13 +17034,13 @@
       <c r="R255" s="138"/>
       <c r="S255" s="138"/>
       <c r="T255" s="138">
-        <v>2.1608790926996391</v>
+        <v>2.16086764989196</v>
       </c>
       <c r="U255" s="138"/>
       <c r="V255" s="138"/>
       <c r="W255" s="138"/>
       <c r="X255" s="138">
-        <v>0.35500926697499247</v>
+        <v>0.35499782416731329</v>
       </c>
       <c r="Y255" s="138"/>
       <c r="Z255" s="138"/>
@@ -17058,13 +17058,13 @@
       <c r="F256" s="146"/>
       <c r="G256" s="146"/>
       <c r="H256" s="146">
-        <v>2.0192969437304011</v>
+        <v>2.0190445274418551</v>
       </c>
       <c r="I256" s="146"/>
       <c r="J256" s="146"/>
       <c r="K256" s="146"/>
       <c r="L256" s="146">
-        <v>0.18452063549403497</v>
+        <v>0.18426821920548897</v>
       </c>
       <c r="M256" s="146"/>
       <c r="N256" s="146"/>
@@ -17076,13 +17076,13 @@
       <c r="R256" s="146"/>
       <c r="S256" s="146"/>
       <c r="T256" s="146">
-        <v>2.1608790926996391</v>
+        <v>2.16086764989196</v>
       </c>
       <c r="U256" s="146"/>
       <c r="V256" s="146"/>
       <c r="W256" s="146"/>
       <c r="X256" s="146">
-        <v>0.35500926697499247</v>
+        <v>0.35499782416731329</v>
       </c>
       <c r="Y256" s="146"/>
       <c r="Z256" s="146"/>
@@ -17100,13 +17100,13 @@
       <c r="F257" s="146"/>
       <c r="G257" s="146"/>
       <c r="H257" s="146">
-        <v>2.3192296520165785</v>
+        <v>2.3192002183740441</v>
       </c>
       <c r="I257" s="146"/>
       <c r="J257" s="146"/>
       <c r="K257" s="146"/>
       <c r="L257" s="146">
-        <v>0.17357098384485115</v>
+        <v>0.17354155020231676</v>
       </c>
       <c r="M257" s="146"/>
       <c r="N257" s="146"/>
@@ -17118,13 +17118,13 @@
       <c r="R257" s="146"/>
       <c r="S257" s="146"/>
       <c r="T257" s="146">
-        <v>2.2957772777547185</v>
+        <v>2.2957790490786136</v>
       </c>
       <c r="U257" s="146"/>
       <c r="V257" s="146"/>
       <c r="W257" s="146"/>
       <c r="X257" s="146">
-        <v>0.16639554853881533</v>
+        <v>0.16639731986271045</v>
       </c>
       <c r="Y257" s="146"/>
       <c r="Z257" s="146"/>
@@ -17142,13 +17142,13 @@
       <c r="F258" s="146"/>
       <c r="G258" s="146"/>
       <c r="H258" s="146">
-        <v>1.3301557910887671</v>
+        <v>1.3301488743630514</v>
       </c>
       <c r="I258" s="146"/>
       <c r="J258" s="146"/>
       <c r="K258" s="146"/>
       <c r="L258" s="146">
-        <v>0.21905105875719233</v>
+        <v>0.2190441420314766</v>
       </c>
       <c r="M258" s="146"/>
       <c r="N258" s="146"/>
@@ -17160,13 +17160,13 @@
       <c r="R258" s="146"/>
       <c r="S258" s="146"/>
       <c r="T258" s="146">
-        <v>1.4653878124922708</v>
+        <v>1.4653882287425359</v>
       </c>
       <c r="U258" s="146"/>
       <c r="V258" s="146"/>
       <c r="W258" s="146"/>
       <c r="X258" s="146">
-        <v>-0.0050963996320723126</v>
+        <v>-0.0050959833818071676</v>
       </c>
       <c r="Y258" s="146"/>
       <c r="Z258" s="146"/>
@@ -17394,13 +17394,13 @@
       <c r="F264" s="138"/>
       <c r="G264" s="138"/>
       <c r="H264" s="138">
-        <v>5.5875474935691116</v>
+        <v>5.5875529301927562</v>
       </c>
       <c r="I264" s="138"/>
       <c r="J264" s="138"/>
       <c r="K264" s="138"/>
       <c r="L264" s="138">
-        <v>0.508271084137033</v>
+        <v>0.50827652076067764</v>
       </c>
       <c r="M264" s="138"/>
       <c r="N264" s="138"/>
@@ -17412,13 +17412,13 @@
       <c r="R264" s="138"/>
       <c r="S264" s="138"/>
       <c r="T264" s="138">
-        <v>4.7500753574328138</v>
+        <v>4.7500876977240276</v>
       </c>
       <c r="U264" s="138"/>
       <c r="V264" s="138"/>
       <c r="W264" s="138"/>
       <c r="X264" s="138">
-        <v>0.78004830386023238</v>
+        <v>0.78006064415144616</v>
       </c>
       <c r="Y264" s="138"/>
       <c r="Z264" s="138"/>
@@ -17478,13 +17478,13 @@
       <c r="F266" s="146"/>
       <c r="G266" s="146"/>
       <c r="H266" s="146">
-        <v>5.5849136328130582</v>
+        <v>5.5849190148992429</v>
       </c>
       <c r="I266" s="146"/>
       <c r="J266" s="146"/>
       <c r="K266" s="146"/>
       <c r="L266" s="146">
-        <v>0.49917250629347532</v>
+        <v>0.49917788837966004</v>
       </c>
       <c r="M266" s="146"/>
       <c r="N266" s="146"/>
@@ -17496,13 +17496,13 @@
       <c r="R266" s="146"/>
       <c r="S266" s="146"/>
       <c r="T266" s="146">
-        <v>4.7504563860863973</v>
+        <v>4.7504686025860527</v>
       </c>
       <c r="U266" s="146"/>
       <c r="V266" s="146"/>
       <c r="W266" s="146"/>
       <c r="X266" s="146">
-        <v>0.77056079428607349</v>
+        <v>0.77057301078572893</v>
       </c>
       <c r="Y266" s="146"/>
       <c r="Z266" s="146"/>
@@ -17520,13 +17520,13 @@
       <c r="F267" s="146"/>
       <c r="G267" s="146"/>
       <c r="H267" s="146">
-        <v>5.5458140606597324</v>
+        <v>5.5458192855068473</v>
       </c>
       <c r="I267" s="146"/>
       <c r="J267" s="146"/>
       <c r="K267" s="146"/>
       <c r="L267" s="146">
-        <v>0.46621439703929468</v>
+        <v>0.46621962188640964</v>
       </c>
       <c r="M267" s="146"/>
       <c r="N267" s="146"/>
@@ -17538,13 +17538,13 @@
       <c r="R267" s="146"/>
       <c r="S267" s="146"/>
       <c r="T267" s="146">
-        <v>4.7548205968446711</v>
+        <v>4.7548324564360573</v>
       </c>
       <c r="U267" s="146"/>
       <c r="V267" s="146"/>
       <c r="W267" s="146"/>
       <c r="X267" s="146">
-        <v>0.74890332426431083</v>
+        <v>0.74891518385569711</v>
       </c>
       <c r="Y267" s="146"/>
       <c r="Z267" s="146"/>
@@ -17688,13 +17688,13 @@
       <c r="F271" s="146"/>
       <c r="G271" s="146"/>
       <c r="H271" s="146">
-        <v>5.3922166630324</v>
+        <v>5.3922206323135216</v>
       </c>
       <c r="I271" s="146"/>
       <c r="J271" s="146"/>
       <c r="K271" s="146"/>
       <c r="L271" s="146">
-        <v>0.33570607549766063</v>
+        <v>0.33571004477878219</v>
       </c>
       <c r="M271" s="146"/>
       <c r="N271" s="146"/>
@@ -17706,13 +17706,13 @@
       <c r="R271" s="146"/>
       <c r="S271" s="146"/>
       <c r="T271" s="146">
-        <v>4.7475985240311038</v>
+        <v>4.747607533682709</v>
       </c>
       <c r="U271" s="146"/>
       <c r="V271" s="146"/>
       <c r="W271" s="146"/>
       <c r="X271" s="146">
-        <v>0.54879156498258652</v>
+        <v>0.54880057463419174</v>
       </c>
       <c r="Y271" s="146"/>
       <c r="Z271" s="146"/>
@@ -18024,13 +18024,13 @@
       <c r="F279" s="146"/>
       <c r="G279" s="146"/>
       <c r="H279" s="146">
-        <v>5.9316725732128743</v>
+        <v>5.9316758567089449</v>
       </c>
       <c r="I279" s="146"/>
       <c r="J279" s="146"/>
       <c r="K279" s="146"/>
       <c r="L279" s="146">
-        <v>0.34058921042887924</v>
+        <v>0.34059249392494984</v>
       </c>
       <c r="M279" s="146"/>
       <c r="N279" s="146"/>
@@ -18042,13 +18042,13 @@
       <c r="R279" s="146"/>
       <c r="S279" s="146"/>
       <c r="T279" s="146">
-        <v>5.208303879421881</v>
+        <v>5.2083113324479342</v>
       </c>
       <c r="U279" s="146"/>
       <c r="V279" s="146"/>
       <c r="W279" s="146"/>
       <c r="X279" s="146">
-        <v>0.58038471517328993</v>
+        <v>0.58039216819934314</v>
       </c>
       <c r="Y279" s="146"/>
       <c r="Z279" s="146"/>
@@ -18234,13 +18234,13 @@
       <c r="F284" s="146"/>
       <c r="G284" s="146"/>
       <c r="H284" s="146">
-        <v>4.2362946164791433</v>
+        <v>4.2362966650167211</v>
       </c>
       <c r="I284" s="146"/>
       <c r="J284" s="146"/>
       <c r="K284" s="146"/>
       <c r="L284" s="146">
-        <v>0.089064795197444369</v>
+        <v>0.089066843735022161</v>
       </c>
       <c r="M284" s="146"/>
       <c r="N284" s="146"/>
@@ -18252,13 +18252,13 @@
       <c r="R284" s="146"/>
       <c r="S284" s="146"/>
       <c r="T284" s="146">
-        <v>3.7883397306442084</v>
+        <v>3.7883448263646358</v>
       </c>
       <c r="U284" s="146"/>
       <c r="V284" s="146"/>
       <c r="W284" s="146"/>
       <c r="X284" s="146">
-        <v>0.28539017485003759</v>
+        <v>0.285395270570465</v>
       </c>
       <c r="Y284" s="146"/>
       <c r="Z284" s="146"/>
@@ -18815,13 +18815,13 @@
       <c r="F300" s="143"/>
       <c r="G300" s="143"/>
       <c r="H300" s="143">
-        <v>11978.096526819158</v>
+        <v>11978.096753824759</v>
       </c>
       <c r="I300" s="143"/>
       <c r="J300" s="143"/>
       <c r="K300" s="143"/>
       <c r="L300" s="143">
-        <v>-63425.13825534084</v>
+        <v>-63425.138028335241</v>
       </c>
       <c r="M300" s="143"/>
       <c r="N300" s="143"/>
@@ -18833,13 +18833,13 @@
       <c r="R300" s="143"/>
       <c r="S300" s="143"/>
       <c r="T300" s="143">
-        <v>12425.869845862759</v>
+        <v>12425.871742378102</v>
       </c>
       <c r="U300" s="143"/>
       <c r="V300" s="143"/>
       <c r="W300" s="143"/>
       <c r="X300" s="143">
-        <v>-64528.028954255911</v>
+        <v>-64528.027057740568</v>
       </c>
       <c r="Y300" s="143"/>
       <c r="Z300" s="143"/>
@@ -18857,13 +18857,13 @@
       <c r="F301" s="143"/>
       <c r="G301" s="143"/>
       <c r="H301" s="143">
-        <v>385071.79790226452</v>
+        <v>385071.805200039</v>
       </c>
       <c r="I301" s="143"/>
       <c r="J301" s="143"/>
       <c r="K301" s="143"/>
       <c r="L301" s="143">
-        <v>98853.277318226872</v>
+        <v>98853.284616001372</v>
       </c>
       <c r="M301" s="143"/>
       <c r="N301" s="143"/>
@@ -18875,13 +18875,13 @@
       <c r="R301" s="143"/>
       <c r="S301" s="143"/>
       <c r="T301" s="143">
-        <v>399466.81272208324</v>
+        <v>399466.87369125045</v>
       </c>
       <c r="U301" s="143"/>
       <c r="V301" s="143"/>
       <c r="W301" s="143"/>
       <c r="X301" s="143">
-        <v>107362.22156792689</v>
+        <v>107362.28253709411</v>
       </c>
       <c r="Y301" s="143"/>
       <c r="Z301" s="143"/>
@@ -18899,13 +18899,13 @@
       <c r="F302" s="145"/>
       <c r="G302" s="145"/>
       <c r="H302" s="145">
-        <v>397049.89442908403</v>
+        <v>397049.90195386379</v>
       </c>
       <c r="I302" s="145"/>
       <c r="J302" s="145"/>
       <c r="K302" s="145"/>
       <c r="L302" s="145">
-        <v>35428.139062886417</v>
+        <v>35428.146587666211</v>
       </c>
       <c r="M302" s="145"/>
       <c r="N302" s="145"/>
@@ -18917,13 +18917,13 @@
       <c r="R302" s="145"/>
       <c r="S302" s="145"/>
       <c r="T302" s="145">
-        <v>411892.68256794609</v>
+        <v>411892.74543362856</v>
       </c>
       <c r="U302" s="145"/>
       <c r="V302" s="145"/>
       <c r="W302" s="145"/>
       <c r="X302" s="145">
-        <v>42834.192613671061</v>
+        <v>42834.255479353546</v>
       </c>
       <c r="Y302" s="145"/>
       <c r="Z302" s="145"/>
@@ -19025,13 +19025,13 @@
       <c r="F305" s="143"/>
       <c r="G305" s="143"/>
       <c r="H305" s="143">
-        <v>147.7196052134876</v>
+        <v>147.70085608411691</v>
       </c>
       <c r="I305" s="143"/>
       <c r="J305" s="143"/>
       <c r="K305" s="143"/>
       <c r="L305" s="143">
-        <v>60.177658616818938</v>
+        <v>60.158909487448241</v>
       </c>
       <c r="M305" s="143"/>
       <c r="N305" s="143"/>
@@ -19043,13 +19043,13 @@
       <c r="R305" s="143"/>
       <c r="S305" s="143"/>
       <c r="T305" s="143">
-        <v>144.09073230664518</v>
+        <v>144.0786230736376</v>
       </c>
       <c r="U305" s="143"/>
       <c r="V305" s="143"/>
       <c r="W305" s="143"/>
       <c r="X305" s="143">
-        <v>41.69749819875814</v>
+        <v>41.685388965750548</v>
       </c>
       <c r="Y305" s="143"/>
       <c r="Z305" s="143"/>
@@ -19067,13 +19067,13 @@
       <c r="F306" s="145"/>
       <c r="G306" s="145"/>
       <c r="H306" s="145">
-        <v>147.7196052134876</v>
+        <v>147.70085608411691</v>
       </c>
       <c r="I306" s="145"/>
       <c r="J306" s="145"/>
       <c r="K306" s="145"/>
       <c r="L306" s="145">
-        <v>60.177658616818938</v>
+        <v>60.158909487448241</v>
       </c>
       <c r="M306" s="145"/>
       <c r="N306" s="145"/>
@@ -19085,13 +19085,13 @@
       <c r="R306" s="145"/>
       <c r="S306" s="145"/>
       <c r="T306" s="145">
-        <v>144.09073230664518</v>
+        <v>144.0786230736376</v>
       </c>
       <c r="U306" s="145"/>
       <c r="V306" s="145"/>
       <c r="W306" s="145"/>
       <c r="X306" s="145">
-        <v>41.69749819875814</v>
+        <v>41.685388965750548</v>
       </c>
       <c r="Y306" s="145"/>
       <c r="Z306" s="145"/>
@@ -19109,13 +19109,13 @@
       <c r="F307" s="143"/>
       <c r="G307" s="143"/>
       <c r="H307" s="143">
-        <v>20.304217291510056</v>
+        <v>20.301039207650113</v>
       </c>
       <c r="I307" s="143"/>
       <c r="J307" s="143"/>
       <c r="K307" s="143"/>
       <c r="L307" s="143">
-        <v>-0.47831651041857548</v>
+        <v>-0.48149459427851982</v>
       </c>
       <c r="M307" s="143"/>
       <c r="N307" s="143"/>
@@ -19127,13 +19127,13 @@
       <c r="R307" s="143"/>
       <c r="S307" s="143"/>
       <c r="T307" s="143">
-        <v>20.864413722253762</v>
+        <v>20.860029312902764</v>
       </c>
       <c r="U307" s="143"/>
       <c r="V307" s="143"/>
       <c r="W307" s="143"/>
       <c r="X307" s="143">
-        <v>0.77863309784909507</v>
+        <v>0.77424868849809714</v>
       </c>
       <c r="Y307" s="143"/>
       <c r="Z307" s="143"/>
@@ -19151,13 +19151,13 @@
       <c r="F308" s="145"/>
       <c r="G308" s="145"/>
       <c r="H308" s="145">
-        <v>20.304217291510056</v>
+        <v>20.301039207650113</v>
       </c>
       <c r="I308" s="145"/>
       <c r="J308" s="145"/>
       <c r="K308" s="145"/>
       <c r="L308" s="145">
-        <v>-0.47831651041857548</v>
+        <v>-0.48149459427851982</v>
       </c>
       <c r="M308" s="145"/>
       <c r="N308" s="145"/>
@@ -19169,13 +19169,13 @@
       <c r="R308" s="145"/>
       <c r="S308" s="145"/>
       <c r="T308" s="145">
-        <v>20.864413722253762</v>
+        <v>20.860029312902764</v>
       </c>
       <c r="U308" s="145"/>
       <c r="V308" s="145"/>
       <c r="W308" s="145"/>
       <c r="X308" s="145">
-        <v>0.77863309784909507</v>
+        <v>0.77424868849809714</v>
       </c>
       <c r="Y308" s="145"/>
       <c r="Z308" s="145"/>
@@ -19193,13 +19193,13 @@
       <c r="F309" s="145"/>
       <c r="G309" s="145"/>
       <c r="H309" s="145">
-        <v>168.02382250499741</v>
+        <v>168.00189529176717</v>
       </c>
       <c r="I309" s="145"/>
       <c r="J309" s="145"/>
       <c r="K309" s="145"/>
       <c r="L309" s="145">
-        <v>59.699342106400145</v>
+        <v>59.677414893169917</v>
       </c>
       <c r="M309" s="145"/>
       <c r="N309" s="145"/>
@@ -19211,13 +19211,13 @@
       <c r="R309" s="145"/>
       <c r="S309" s="145"/>
       <c r="T309" s="145">
-        <v>164.95514602889912</v>
+        <v>164.93865238654041</v>
       </c>
       <c r="U309" s="145"/>
       <c r="V309" s="145"/>
       <c r="W309" s="145"/>
       <c r="X309" s="145">
-        <v>42.476131296607392</v>
+        <v>42.459637654248667</v>
       </c>
       <c r="Y309" s="145"/>
       <c r="Z309" s="145"/>
@@ -19235,13 +19235,13 @@
       <c r="F310" s="145"/>
       <c r="G310" s="145"/>
       <c r="H310" s="145">
-        <v>2167.8794210571336</v>
+        <v>2167.8574938439042</v>
       </c>
       <c r="I310" s="145"/>
       <c r="J310" s="145"/>
       <c r="K310" s="145"/>
       <c r="L310" s="145">
-        <v>65.121766948266881</v>
+        <v>65.099839735037648</v>
       </c>
       <c r="M310" s="145"/>
       <c r="N310" s="145"/>
@@ -19253,13 +19253,13 @@
       <c r="R310" s="145"/>
       <c r="S310" s="145"/>
       <c r="T310" s="145">
-        <v>761.92500363524948</v>
+        <v>761.90850999289069</v>
       </c>
       <c r="U310" s="145"/>
       <c r="V310" s="145"/>
       <c r="W310" s="145"/>
       <c r="X310" s="145">
-        <v>43.8631246730109</v>
+        <v>43.846631030652091</v>
       </c>
       <c r="Y310" s="145"/>
       <c r="Z310" s="145"/>
@@ -19295,13 +19295,13 @@
       <c r="R311" s="143"/>
       <c r="S311" s="143"/>
       <c r="T311" s="143">
-        <v>646.02709540815715</v>
+        <v>646.02709540807712</v>
       </c>
       <c r="U311" s="143"/>
       <c r="V311" s="143"/>
       <c r="W311" s="143"/>
       <c r="X311" s="143">
-        <v>278.4267807198101</v>
+        <v>278.42678071973012</v>
       </c>
       <c r="Y311" s="143"/>
       <c r="Z311" s="143"/>
@@ -19337,13 +19337,13 @@
       <c r="R312" s="143"/>
       <c r="S312" s="143"/>
       <c r="T312" s="143">
-        <v>472.34919295931024</v>
+        <v>472.34919295925175</v>
       </c>
       <c r="U312" s="143"/>
       <c r="V312" s="143"/>
       <c r="W312" s="143"/>
       <c r="X312" s="143">
-        <v>97.947923682314581</v>
+        <v>97.947923682256075</v>
       </c>
       <c r="Y312" s="143"/>
       <c r="Z312" s="143"/>
@@ -19379,13 +19379,13 @@
       <c r="R313" s="145"/>
       <c r="S313" s="145"/>
       <c r="T313" s="145">
-        <v>1118.3762883674665</v>
+        <v>1118.3762883673282</v>
       </c>
       <c r="U313" s="145"/>
       <c r="V313" s="145"/>
       <c r="W313" s="145"/>
       <c r="X313" s="145">
-        <v>376.37470440212462</v>
+        <v>376.37470440198632</v>
       </c>
       <c r="Y313" s="145"/>
       <c r="Z313" s="145"/>
@@ -19421,13 +19421,13 @@
       <c r="R314" s="143"/>
       <c r="S314" s="143"/>
       <c r="T314" s="143">
-        <v>898.39237326784519</v>
+        <v>898.39237326762861</v>
       </c>
       <c r="U314" s="143"/>
       <c r="V314" s="143"/>
       <c r="W314" s="143"/>
       <c r="X314" s="143">
-        <v>-219.54487874771644</v>
+        <v>-219.54487874793296</v>
       </c>
       <c r="Y314" s="143"/>
       <c r="Z314" s="143"/>
@@ -19463,13 +19463,13 @@
       <c r="R315" s="143"/>
       <c r="S315" s="143"/>
       <c r="T315" s="143">
-        <v>673.18279230536382</v>
+        <v>673.18279230575638</v>
       </c>
       <c r="U315" s="143"/>
       <c r="V315" s="143"/>
       <c r="W315" s="143"/>
       <c r="X315" s="143">
-        <v>10.200931993069709</v>
+        <v>10.200931993462262</v>
       </c>
       <c r="Y315" s="143"/>
       <c r="Z315" s="143"/>
@@ -19487,13 +19487,13 @@
       <c r="F316" s="143"/>
       <c r="G316" s="143"/>
       <c r="H316" s="143">
-        <v>19213.123383576469</v>
+        <v>19212.891891399307</v>
       </c>
       <c r="I316" s="143"/>
       <c r="J316" s="143"/>
       <c r="K316" s="143"/>
       <c r="L316" s="143">
-        <v>-20544.89877817814</v>
+        <v>-20545.130270355297</v>
       </c>
       <c r="M316" s="143"/>
       <c r="N316" s="143"/>
@@ -19505,13 +19505,13 @@
       <c r="R316" s="143"/>
       <c r="S316" s="143"/>
       <c r="T316" s="143">
-        <v>16711.801956560768</v>
+        <v>16711.35199219851</v>
       </c>
       <c r="U316" s="143"/>
       <c r="V316" s="143"/>
       <c r="W316" s="143"/>
       <c r="X316" s="143">
-        <v>1951.3444053650815</v>
+        <v>1950.8944410028216</v>
       </c>
       <c r="Y316" s="143"/>
       <c r="Z316" s="143"/>
@@ -19547,13 +19547,13 @@
       <c r="R317" s="143"/>
       <c r="S317" s="143"/>
       <c r="T317" s="143">
-        <v>265.43352455373827</v>
+        <v>265.43352455364032</v>
       </c>
       <c r="U317" s="143"/>
       <c r="V317" s="143"/>
       <c r="W317" s="143"/>
       <c r="X317" s="143">
-        <v>29.040301308671943</v>
+        <v>29.040301308574037</v>
       </c>
       <c r="Y317" s="143"/>
       <c r="Z317" s="143"/>
@@ -19571,13 +19571,13 @@
       <c r="F318" s="145"/>
       <c r="G318" s="145"/>
       <c r="H318" s="145">
-        <v>19555.881856280932</v>
+        <v>19555.650364103767</v>
       </c>
       <c r="I318" s="145"/>
       <c r="J318" s="145"/>
       <c r="K318" s="145"/>
       <c r="L318" s="145">
-        <v>-20504.249906882033</v>
+        <v>-20504.481399059194</v>
       </c>
       <c r="M318" s="145"/>
       <c r="N318" s="145"/>
@@ -19589,13 +19589,13 @@
       <c r="R318" s="145"/>
       <c r="S318" s="145"/>
       <c r="T318" s="145">
-        <v>16977.23548111452</v>
+        <v>16976.785516752137</v>
       </c>
       <c r="U318" s="145"/>
       <c r="V318" s="145"/>
       <c r="W318" s="145"/>
       <c r="X318" s="145">
-        <v>1980.3847066737562</v>
+        <v>1979.934742311377</v>
       </c>
       <c r="Y318" s="145"/>
       <c r="Z318" s="145"/>
@@ -19613,13 +19613,13 @@
       <c r="F319" s="145"/>
       <c r="G319" s="145"/>
       <c r="H319" s="145">
-        <v>20237.790937144953</v>
+        <v>20237.55944496777</v>
       </c>
       <c r="I319" s="145"/>
       <c r="J319" s="145"/>
       <c r="K319" s="145"/>
       <c r="L319" s="145">
-        <v>-20489.189777759682</v>
+        <v>-20489.421269936865</v>
       </c>
       <c r="M319" s="145"/>
       <c r="N319" s="145"/>
@@ -19631,13 +19631,13 @@
       <c r="R319" s="145"/>
       <c r="S319" s="145"/>
       <c r="T319" s="145">
-        <v>17650.418273419891</v>
+        <v>17649.96830905788</v>
       </c>
       <c r="U319" s="145"/>
       <c r="V319" s="145"/>
       <c r="W319" s="145"/>
       <c r="X319" s="145">
-        <v>1990.5856386668384</v>
+        <v>1990.1356743048279</v>
       </c>
       <c r="Y319" s="145"/>
       <c r="Z319" s="145"/>
@@ -19673,13 +19673,13 @@
       <c r="R320" s="143"/>
       <c r="S320" s="143"/>
       <c r="T320" s="143">
-        <v>1315.803816394686</v>
+        <v>1315.8038163943179</v>
       </c>
       <c r="U320" s="143"/>
       <c r="V320" s="143"/>
       <c r="W320" s="143"/>
       <c r="X320" s="143">
-        <v>-343.17745861176911</v>
+        <v>-343.17745861213723</v>
       </c>
       <c r="Y320" s="143"/>
       <c r="Z320" s="143"/>
@@ -19715,13 +19715,13 @@
       <c r="R321" s="143"/>
       <c r="S321" s="143"/>
       <c r="T321" s="143">
-        <v>84.086698644337829</v>
+        <v>84.0866986443143</v>
       </c>
       <c r="U321" s="143"/>
       <c r="V321" s="143"/>
       <c r="W321" s="143"/>
       <c r="X321" s="143">
-        <v>3.9580151296145343</v>
+        <v>3.9580151295910038</v>
       </c>
       <c r="Y321" s="143"/>
       <c r="Z321" s="143"/>
@@ -19757,13 +19757,13 @@
       <c r="R322" s="145"/>
       <c r="S322" s="145"/>
       <c r="T322" s="145">
-        <v>1399.8905150390231</v>
+        <v>1399.8905150386311</v>
       </c>
       <c r="U322" s="145"/>
       <c r="V322" s="145"/>
       <c r="W322" s="145"/>
       <c r="X322" s="145">
-        <v>-339.2194434821559</v>
+        <v>-339.21944348254777</v>
       </c>
       <c r="Y322" s="145"/>
       <c r="Z322" s="145"/>
@@ -19781,13 +19781,13 @@
       <c r="F323" s="145"/>
       <c r="G323" s="145"/>
       <c r="H323" s="145">
-        <v>25433.2678323812</v>
+        <v>25433.036340204049</v>
       </c>
       <c r="I323" s="145"/>
       <c r="J323" s="145"/>
       <c r="K323" s="145"/>
       <c r="L323" s="145">
-        <v>-21073.933844692794</v>
+        <v>-21074.165336869944</v>
       </c>
       <c r="M323" s="145"/>
       <c r="N323" s="145"/>
@@ -19799,13 +19799,13 @@
       <c r="R323" s="145"/>
       <c r="S323" s="145"/>
       <c r="T323" s="145">
-        <v>21067.077450094213</v>
+        <v>21066.6274857315</v>
       </c>
       <c r="U323" s="145"/>
       <c r="V323" s="145"/>
       <c r="W323" s="145"/>
       <c r="X323" s="145">
-        <v>1808.196020839084</v>
+        <v>1807.7460564763733</v>
       </c>
       <c r="Y323" s="145"/>
       <c r="Z323" s="145"/>
@@ -19841,13 +19841,13 @@
       <c r="R324" s="143"/>
       <c r="S324" s="143"/>
       <c r="T324" s="143">
-        <v>386.9916598711111</v>
+        <v>386.99165987120847</v>
       </c>
       <c r="U324" s="143"/>
       <c r="V324" s="143"/>
       <c r="W324" s="143"/>
       <c r="X324" s="143">
-        <v>-60.972479642271708</v>
+        <v>-60.972479642174321</v>
       </c>
       <c r="Y324" s="143"/>
       <c r="Z324" s="143"/>
@@ -19883,13 +19883,13 @@
       <c r="R325" s="143"/>
       <c r="S325" s="143"/>
       <c r="T325" s="143">
-        <v>1340.05570761674</v>
+        <v>1340.05570761714</v>
       </c>
       <c r="U325" s="143"/>
       <c r="V325" s="143"/>
       <c r="W325" s="143"/>
       <c r="X325" s="143">
-        <v>-3028.3931471194269</v>
+        <v>-3028.3931471190272</v>
       </c>
       <c r="Y325" s="143"/>
       <c r="Z325" s="143"/>
@@ -19925,13 +19925,13 @@
       <c r="R326" s="143"/>
       <c r="S326" s="143"/>
       <c r="T326" s="143">
-        <v>2638.6901109210662</v>
+        <v>2638.6901109107912</v>
       </c>
       <c r="U326" s="143"/>
       <c r="V326" s="143"/>
       <c r="W326" s="143"/>
       <c r="X326" s="143">
-        <v>-19.284886199044063</v>
+        <v>-19.284886209319346</v>
       </c>
       <c r="Y326" s="143"/>
       <c r="Z326" s="143"/>
@@ -19967,13 +19967,13 @@
       <c r="R327" s="143"/>
       <c r="S327" s="143"/>
       <c r="T327" s="143">
-        <v>2367.1185628787748</v>
+        <v>2367.118562885</v>
       </c>
       <c r="U327" s="143"/>
       <c r="V327" s="143"/>
       <c r="W327" s="143"/>
       <c r="X327" s="143">
-        <v>-318.0983781351643</v>
+        <v>-318.09837812893932</v>
       </c>
       <c r="Y327" s="143"/>
       <c r="Z327" s="143"/>
@@ -20009,13 +20009,13 @@
       <c r="R328" s="145"/>
       <c r="S328" s="145"/>
       <c r="T328" s="145">
-        <v>5005.8086737998383</v>
+        <v>5005.8086737957883</v>
       </c>
       <c r="U328" s="145"/>
       <c r="V328" s="145"/>
       <c r="W328" s="145"/>
       <c r="X328" s="145">
-        <v>-337.38326433420929</v>
+        <v>-337.38326433825864</v>
       </c>
       <c r="Y328" s="145"/>
       <c r="Z328" s="145"/>
@@ -20051,13 +20051,13 @@
       <c r="R329" s="143"/>
       <c r="S329" s="143"/>
       <c r="T329" s="143">
-        <v>3.6267253714291376</v>
+        <v>3.6267253714296848</v>
       </c>
       <c r="U329" s="143"/>
       <c r="V329" s="143"/>
       <c r="W329" s="143"/>
       <c r="X329" s="143">
-        <v>-5.5082346329284633</v>
+        <v>-5.5082346329279162</v>
       </c>
       <c r="Y329" s="143"/>
       <c r="Z329" s="143"/>
@@ -20117,13 +20117,13 @@
       <c r="F331" s="145"/>
       <c r="G331" s="145"/>
       <c r="H331" s="145">
-        <v>31464.208806219594</v>
+        <v>31463.977314042419</v>
       </c>
       <c r="I331" s="145"/>
       <c r="J331" s="145"/>
       <c r="K331" s="145"/>
       <c r="L331" s="145">
-        <v>-22822.899816808389</v>
+        <v>-22823.131308985561</v>
       </c>
       <c r="M331" s="145"/>
       <c r="N331" s="145"/>
@@ -20135,13 +20135,13 @@
       <c r="R331" s="145"/>
       <c r="S331" s="145"/>
       <c r="T331" s="145">
-        <v>27803.560216753329</v>
+        <v>27803.110252387069</v>
       </c>
       <c r="U331" s="145"/>
       <c r="V331" s="145"/>
       <c r="W331" s="145"/>
       <c r="X331" s="145">
-        <v>-1624.0611048897542</v>
+        <v>-1624.5110692560152</v>
       </c>
       <c r="Y331" s="145"/>
       <c r="Z331" s="145"/>
@@ -20327,13 +20327,13 @@
       <c r="F336" s="145"/>
       <c r="G336" s="145"/>
       <c r="H336" s="145">
-        <v>430681.98265636072</v>
+        <v>430681.7367617499</v>
       </c>
       <c r="I336" s="145"/>
       <c r="J336" s="145"/>
       <c r="K336" s="145"/>
       <c r="L336" s="145">
-        <v>12670.361013026237</v>
+        <v>12670.115118415415</v>
       </c>
       <c r="M336" s="145"/>
       <c r="N336" s="145"/>
@@ -20345,13 +20345,13 @@
       <c r="R336" s="145"/>
       <c r="S336" s="145"/>
       <c r="T336" s="145">
-        <v>440458.1677883346</v>
+        <v>440457.76419600844</v>
       </c>
       <c r="U336" s="145"/>
       <c r="V336" s="145"/>
       <c r="W336" s="145"/>
       <c r="X336" s="145">
-        <v>41253.99463345432</v>
+        <v>41253.591041128158</v>
       </c>
       <c r="Y336" s="145"/>
       <c r="Z336" s="145"/>
@@ -20388,13 +20388,13 @@
       <c r="R338" s="143"/>
       <c r="S338" s="143"/>
       <c r="T338" s="143">
-        <v>59736.874620498485</v>
+        <v>59736.874620891263</v>
       </c>
       <c r="U338" s="143"/>
       <c r="V338" s="143"/>
       <c r="W338" s="143"/>
       <c r="X338" s="143">
-        <v>13232.571570747316</v>
+        <v>13232.571571140095</v>
       </c>
       <c r="Y338" s="143"/>
       <c r="Z338" s="143"/>
@@ -20598,13 +20598,13 @@
       <c r="R343" s="145"/>
       <c r="S343" s="145"/>
       <c r="T343" s="145">
-        <v>69541.438690407347</v>
+        <v>69541.438690800132</v>
       </c>
       <c r="U343" s="145"/>
       <c r="V343" s="145"/>
       <c r="W343" s="145"/>
       <c r="X343" s="145">
-        <v>-8752.1292761190089</v>
+        <v>-8752.129275726229</v>
       </c>
       <c r="Y343" s="145"/>
       <c r="Z343" s="145"/>
@@ -20724,13 +20724,13 @@
       <c r="R346" s="145"/>
       <c r="S346" s="145"/>
       <c r="T346" s="145">
-        <v>69541.438690407347</v>
+        <v>69541.438690800132</v>
       </c>
       <c r="U346" s="145"/>
       <c r="V346" s="145"/>
       <c r="W346" s="145"/>
       <c r="X346" s="145">
-        <v>-8752.1292761190089</v>
+        <v>-8752.129275726229</v>
       </c>
       <c r="Y346" s="145"/>
       <c r="Z346" s="145"/>
@@ -21122,13 +21122,13 @@
       <c r="F357" s="138"/>
       <c r="G357" s="138"/>
       <c r="H357" s="138">
-        <v>2.0475138581535433</v>
+        <v>2.04750987173738</v>
       </c>
       <c r="I357" s="138"/>
       <c r="J357" s="138"/>
       <c r="K357" s="138"/>
       <c r="L357" s="138">
-        <v>0.076841585923433264</v>
+        <v>0.076837599507269871</v>
       </c>
       <c r="M357" s="138"/>
       <c r="N357" s="138"/>
@@ -21140,13 +21140,13 @@
       <c r="R357" s="138"/>
       <c r="S357" s="138"/>
       <c r="T357" s="138">
-        <v>2.2475582676150325</v>
+        <v>2.2475562148940003</v>
       </c>
       <c r="U357" s="138"/>
       <c r="V357" s="138"/>
       <c r="W357" s="138"/>
       <c r="X357" s="138">
-        <v>0.08170073443251491</v>
+        <v>0.081698681711482646</v>
       </c>
       <c r="Y357" s="138"/>
       <c r="Z357" s="138"/>
@@ -21164,13 +21164,13 @@
       <c r="F358" s="146"/>
       <c r="G358" s="146"/>
       <c r="H358" s="146">
-        <v>2.0475138581535433</v>
+        <v>2.04750987173738</v>
       </c>
       <c r="I358" s="146"/>
       <c r="J358" s="146"/>
       <c r="K358" s="146"/>
       <c r="L358" s="146">
-        <v>0.076841585923433264</v>
+        <v>0.076837599507269871</v>
       </c>
       <c r="M358" s="146"/>
       <c r="N358" s="146"/>
@@ -21182,13 +21182,13 @@
       <c r="R358" s="146"/>
       <c r="S358" s="146"/>
       <c r="T358" s="146">
-        <v>2.2475582676150325</v>
+        <v>2.2475562148940003</v>
       </c>
       <c r="U358" s="146"/>
       <c r="V358" s="146"/>
       <c r="W358" s="146"/>
       <c r="X358" s="146">
-        <v>0.08170073443251491</v>
+        <v>0.081698681711482646</v>
       </c>
       <c r="Y358" s="146"/>
       <c r="Z358" s="146"/>
@@ -21290,13 +21290,13 @@
       <c r="F361" s="146"/>
       <c r="G361" s="146"/>
       <c r="H361" s="146">
-        <v>2.0517831839266591</v>
+        <v>2.0517795627301045</v>
       </c>
       <c r="I361" s="146"/>
       <c r="J361" s="146"/>
       <c r="K361" s="146"/>
       <c r="L361" s="146">
-        <v>0.070638886208499452</v>
+        <v>0.070635265011944837</v>
       </c>
       <c r="M361" s="146"/>
       <c r="N361" s="146"/>
@@ -21308,13 +21308,13 @@
       <c r="R361" s="146"/>
       <c r="S361" s="146"/>
       <c r="T361" s="146">
-        <v>2.2533721664641124</v>
+        <v>2.2533697591110817</v>
       </c>
       <c r="U361" s="146"/>
       <c r="V361" s="146"/>
       <c r="W361" s="146"/>
       <c r="X361" s="146">
-        <v>0.076236646243632578</v>
+        <v>0.07623423889060188</v>
       </c>
       <c r="Y361" s="146"/>
       <c r="Z361" s="146"/>
@@ -21332,13 +21332,13 @@
       <c r="F362" s="146"/>
       <c r="G362" s="146"/>
       <c r="H362" s="146">
-        <v>1.9445400121169041</v>
+        <v>1.944537139301491</v>
       </c>
       <c r="I362" s="146"/>
       <c r="J362" s="146"/>
       <c r="K362" s="146"/>
       <c r="L362" s="146">
-        <v>0.29323389638214015</v>
+        <v>0.29323102356672703</v>
       </c>
       <c r="M362" s="146"/>
       <c r="N362" s="146"/>
@@ -21350,13 +21350,13 @@
       <c r="R362" s="146"/>
       <c r="S362" s="146"/>
       <c r="T362" s="146">
-        <v>1.8945978809747928</v>
+        <v>1.8945897374039118</v>
       </c>
       <c r="U362" s="146"/>
       <c r="V362" s="146"/>
       <c r="W362" s="146"/>
       <c r="X362" s="146">
-        <v>0.091994688557142545</v>
+        <v>0.091986544986261576</v>
       </c>
       <c r="Y362" s="146"/>
       <c r="Z362" s="146"/>
@@ -21434,13 +21434,13 @@
       <c r="R364" s="138"/>
       <c r="S364" s="138"/>
       <c r="T364" s="138">
-        <v>4.8581610314773318</v>
+        <v>4.8581610314773309</v>
       </c>
       <c r="U364" s="138"/>
       <c r="V364" s="138"/>
       <c r="W364" s="138"/>
       <c r="X364" s="138">
-        <v>0.19479546908447798</v>
+        <v>0.19479546908447709</v>
       </c>
       <c r="Y364" s="138"/>
       <c r="Z364" s="138"/>
@@ -21476,13 +21476,13 @@
       <c r="R365" s="146"/>
       <c r="S365" s="146"/>
       <c r="T365" s="146">
-        <v>4.8581610314772989</v>
+        <v>4.8581610314772981</v>
       </c>
       <c r="U365" s="146"/>
       <c r="V365" s="146"/>
       <c r="W365" s="146"/>
       <c r="X365" s="146">
-        <v>0.19479546908443268</v>
+        <v>0.19479546908443179</v>
       </c>
       <c r="Y365" s="146"/>
       <c r="Z365" s="146"/>
@@ -21518,13 +21518,13 @@
       <c r="R366" s="138"/>
       <c r="S366" s="138"/>
       <c r="T366" s="138">
-        <v>3.999486544166285</v>
+        <v>3.9994865441659795</v>
       </c>
       <c r="U366" s="138"/>
       <c r="V366" s="138"/>
       <c r="W366" s="138"/>
       <c r="X366" s="138">
-        <v>0.0066127957632078349</v>
+        <v>0.0066127957629023015</v>
       </c>
       <c r="Y366" s="138"/>
       <c r="Z366" s="138"/>
@@ -21584,13 +21584,13 @@
       <c r="F368" s="138"/>
       <c r="G368" s="138"/>
       <c r="H368" s="138">
-        <v>3.2072628819777034</v>
+        <v>3.2072692990722529</v>
       </c>
       <c r="I368" s="138"/>
       <c r="J368" s="138"/>
       <c r="K368" s="138"/>
       <c r="L368" s="138">
-        <v>0.59213967367233122</v>
+        <v>0.59214609076688074</v>
       </c>
       <c r="M368" s="138"/>
       <c r="N368" s="138"/>
@@ -21602,13 +21602,13 @@
       <c r="R368" s="138"/>
       <c r="S368" s="138"/>
       <c r="T368" s="138">
-        <v>3.4160997180127182</v>
+        <v>3.4160962106229302</v>
       </c>
       <c r="U368" s="138"/>
       <c r="V368" s="138"/>
       <c r="W368" s="138"/>
       <c r="X368" s="138">
-        <v>0.37612419987231638</v>
+        <v>0.37612069248252844</v>
       </c>
       <c r="Y368" s="138"/>
       <c r="Z368" s="138"/>
@@ -21644,13 +21644,13 @@
       <c r="R369" s="138"/>
       <c r="S369" s="138"/>
       <c r="T369" s="138">
-        <v>4.083331705329579</v>
+        <v>4.08333170532947</v>
       </c>
       <c r="U369" s="138"/>
       <c r="V369" s="138"/>
       <c r="W369" s="138"/>
       <c r="X369" s="138">
-        <v>0.080938378653669041</v>
+        <v>0.0809383786535598</v>
       </c>
       <c r="Y369" s="138"/>
       <c r="Z369" s="138"/>
@@ -21668,13 +21668,13 @@
       <c r="F370" s="146"/>
       <c r="G370" s="146"/>
       <c r="H370" s="146">
-        <v>3.2156301235462439</v>
+        <v>3.2156365226021282</v>
       </c>
       <c r="I370" s="146"/>
       <c r="J370" s="146"/>
       <c r="K370" s="146"/>
       <c r="L370" s="146">
-        <v>0.59084229219479578</v>
+        <v>0.59084869125068007</v>
       </c>
       <c r="M370" s="146"/>
       <c r="N370" s="146"/>
@@ -21686,13 +21686,13 @@
       <c r="R370" s="146"/>
       <c r="S370" s="146"/>
       <c r="T370" s="146">
-        <v>3.42674169038307</v>
+        <v>3.4267386212953537</v>
       </c>
       <c r="U370" s="146"/>
       <c r="V370" s="146"/>
       <c r="W370" s="146"/>
       <c r="X370" s="146">
-        <v>0.37127366481129176</v>
+        <v>0.37127059572357535</v>
       </c>
       <c r="Y370" s="146"/>
       <c r="Z370" s="146"/>
@@ -21710,13 +21710,13 @@
       <c r="F371" s="146"/>
       <c r="G371" s="146"/>
       <c r="H371" s="146">
-        <v>3.2282952629426416</v>
+        <v>3.22830158398448</v>
       </c>
       <c r="I371" s="146"/>
       <c r="J371" s="146"/>
       <c r="K371" s="146"/>
       <c r="L371" s="146">
-        <v>0.58389007605988485</v>
+        <v>0.58389639710172325</v>
       </c>
       <c r="M371" s="146"/>
       <c r="N371" s="146"/>
@@ -21728,13 +21728,13 @@
       <c r="R371" s="146"/>
       <c r="S371" s="146"/>
       <c r="T371" s="146">
-        <v>3.4485066570113383</v>
+        <v>3.448504491872169</v>
       </c>
       <c r="U371" s="146"/>
       <c r="V371" s="146"/>
       <c r="W371" s="146"/>
       <c r="X371" s="146">
-        <v>0.35402791848764403</v>
+        <v>0.35402575334847475</v>
       </c>
       <c r="Y371" s="146"/>
       <c r="Z371" s="146"/>
@@ -21770,13 +21770,13 @@
       <c r="R372" s="138"/>
       <c r="S372" s="138"/>
       <c r="T372" s="138">
-        <v>4.0004597530317616</v>
+        <v>4.0004597530314427</v>
       </c>
       <c r="U372" s="138"/>
       <c r="V372" s="138"/>
       <c r="W372" s="138"/>
       <c r="X372" s="138">
-        <v>0.0076897456499405159</v>
+        <v>0.00768974564962166</v>
       </c>
       <c r="Y372" s="138"/>
       <c r="Z372" s="138"/>
@@ -21812,13 +21812,13 @@
       <c r="R373" s="138"/>
       <c r="S373" s="138"/>
       <c r="T373" s="138">
-        <v>4.0004597530317545</v>
+        <v>4.0004597530314356</v>
       </c>
       <c r="U373" s="138"/>
       <c r="V373" s="138"/>
       <c r="W373" s="138"/>
       <c r="X373" s="138">
-        <v>0.0076897456499307459</v>
+        <v>0.00768974564961189</v>
       </c>
       <c r="Y373" s="138"/>
       <c r="Z373" s="138"/>
@@ -21854,13 +21854,13 @@
       <c r="R374" s="146"/>
       <c r="S374" s="146"/>
       <c r="T374" s="146">
-        <v>4.0004597530317616</v>
+        <v>4.0004597530314427</v>
       </c>
       <c r="U374" s="146"/>
       <c r="V374" s="146"/>
       <c r="W374" s="146"/>
       <c r="X374" s="146">
-        <v>0.0076897456499414041</v>
+        <v>0.007689745649622548</v>
       </c>
       <c r="Y374" s="146"/>
       <c r="Z374" s="146"/>
@@ -21878,13 +21878,13 @@
       <c r="F375" s="146"/>
       <c r="G375" s="146"/>
       <c r="H375" s="146">
-        <v>3.3602338523956266</v>
+        <v>3.3602399510026477</v>
       </c>
       <c r="I375" s="146"/>
       <c r="J375" s="146"/>
       <c r="K375" s="146"/>
       <c r="L375" s="146">
-        <v>0.52681629806944041</v>
+        <v>0.52682239667646158</v>
       </c>
       <c r="M375" s="146"/>
       <c r="N375" s="146"/>
@@ -21896,13 +21896,13 @@
       <c r="R375" s="146"/>
       <c r="S375" s="146"/>
       <c r="T375" s="146">
-        <v>3.573394642076861</v>
+        <v>3.5733950581090572</v>
       </c>
       <c r="U375" s="146"/>
       <c r="V375" s="146"/>
       <c r="W375" s="146"/>
       <c r="X375" s="146">
-        <v>0.28907503479517294</v>
+        <v>0.28907545082736918</v>
       </c>
       <c r="Y375" s="146"/>
       <c r="Z375" s="146"/>
@@ -21938,13 +21938,13 @@
       <c r="R376" s="138"/>
       <c r="S376" s="138"/>
       <c r="T376" s="138">
-        <v>3.9836895177589291</v>
+        <v>3.98368951775879</v>
       </c>
       <c r="U376" s="138"/>
       <c r="V376" s="138"/>
       <c r="W376" s="138"/>
       <c r="X376" s="138">
-        <v>-0.037209560972653044</v>
+        <v>-0.037209560972792044</v>
       </c>
       <c r="Y376" s="138"/>
       <c r="Z376" s="138"/>
@@ -21980,13 +21980,13 @@
       <c r="R377" s="138"/>
       <c r="S377" s="138"/>
       <c r="T377" s="138">
-        <v>4.2200085193048524</v>
+        <v>4.2200085193048364</v>
       </c>
       <c r="U377" s="138"/>
       <c r="V377" s="138"/>
       <c r="W377" s="138"/>
       <c r="X377" s="138">
-        <v>0.02514745276871011</v>
+        <v>0.025147452768694123</v>
       </c>
       <c r="Y377" s="138"/>
       <c r="Z377" s="138"/>
@@ -22106,13 +22106,13 @@
       <c r="R380" s="146"/>
       <c r="S380" s="146"/>
       <c r="T380" s="146">
-        <v>6.4996079359724339</v>
+        <v>6.4996079359811487</v>
       </c>
       <c r="U380" s="146"/>
       <c r="V380" s="146"/>
       <c r="W380" s="146"/>
       <c r="X380" s="146">
-        <v>-0.078690099579118211</v>
+        <v>-0.0786900995704034</v>
       </c>
       <c r="Y380" s="146"/>
       <c r="Z380" s="146"/>
@@ -22148,13 +22148,13 @@
       <c r="R381" s="138"/>
       <c r="S381" s="138"/>
       <c r="T381" s="138">
-        <v>4.1777146978113047</v>
+        <v>4.1777146978112922</v>
       </c>
       <c r="U381" s="138"/>
       <c r="V381" s="138"/>
       <c r="W381" s="138"/>
       <c r="X381" s="138">
-        <v>0.13677884600544932</v>
+        <v>0.13677884600543688</v>
       </c>
       <c r="Y381" s="138"/>
       <c r="Z381" s="138"/>
@@ -22214,13 +22214,13 @@
       <c r="F383" s="146"/>
       <c r="G383" s="146"/>
       <c r="H383" s="146">
-        <v>3.6974389519007027</v>
+        <v>3.6974468355344539</v>
       </c>
       <c r="I383" s="146"/>
       <c r="J383" s="146"/>
       <c r="K383" s="146"/>
       <c r="L383" s="146">
-        <v>0.48171044353903314</v>
+        <v>0.48171832717278429</v>
       </c>
       <c r="M383" s="146"/>
       <c r="N383" s="146"/>
@@ -22232,13 +22232,13 @@
       <c r="R383" s="146"/>
       <c r="S383" s="146"/>
       <c r="T383" s="146">
-        <v>4.1506117078814553</v>
+        <v>4.1506246882697821</v>
       </c>
       <c r="U383" s="146"/>
       <c r="V383" s="146"/>
       <c r="W383" s="146"/>
       <c r="X383" s="146">
-        <v>0.11841618574678492</v>
+        <v>0.11842916613511179</v>
       </c>
       <c r="Y383" s="146"/>
       <c r="Z383" s="146"/>
@@ -22424,13 +22424,13 @@
       <c r="F388" s="146"/>
       <c r="G388" s="146"/>
       <c r="H388" s="146">
-        <v>0.37050169776813968</v>
+        <v>0.37050032493809132</v>
       </c>
       <c r="I388" s="146"/>
       <c r="J388" s="146"/>
       <c r="K388" s="146"/>
       <c r="L388" s="146">
-        <v>-0.11709868586349864</v>
+        <v>-0.117100058693547</v>
       </c>
       <c r="M388" s="146"/>
       <c r="N388" s="146"/>
@@ -22442,13 +22442,13 @@
       <c r="R388" s="146"/>
       <c r="S388" s="146"/>
       <c r="T388" s="146">
-        <v>0.71384592552455439</v>
+        <v>0.713842998805652</v>
       </c>
       <c r="U388" s="146"/>
       <c r="V388" s="146"/>
       <c r="W388" s="146"/>
       <c r="X388" s="146">
-        <v>0.056279442085743092</v>
+        <v>0.056276515366840751</v>
       </c>
       <c r="Y388" s="146"/>
       <c r="Z388" s="146"/>
@@ -22485,13 +22485,13 @@
       <c r="R390" s="138"/>
       <c r="S390" s="138"/>
       <c r="T390" s="138">
-        <v>0.64228818547144806</v>
+        <v>0.64228818547139355</v>
       </c>
       <c r="U390" s="138"/>
       <c r="V390" s="138"/>
       <c r="W390" s="138"/>
       <c r="X390" s="138">
-        <v>0.026448096123578457</v>
+        <v>0.026448096123523945</v>
       </c>
       <c r="Y390" s="138"/>
       <c r="Z390" s="138"/>
@@ -22695,13 +22695,13 @@
       <c r="R395" s="146"/>
       <c r="S395" s="146"/>
       <c r="T395" s="146">
-        <v>0.55174548474752816</v>
+        <v>0.55174548474805019</v>
       </c>
       <c r="U395" s="146"/>
       <c r="V395" s="146"/>
       <c r="W395" s="146"/>
       <c r="X395" s="146">
-        <v>0.014584583800490991</v>
+        <v>0.014584583801013018</v>
       </c>
       <c r="Y395" s="146"/>
       <c r="Z395" s="146"/>
@@ -22821,13 +22821,13 @@
       <c r="R398" s="146"/>
       <c r="S398" s="146"/>
       <c r="T398" s="146">
-        <v>0.55174548474752816</v>
+        <v>0.55174548474805019</v>
       </c>
       <c r="U398" s="146"/>
       <c r="V398" s="146"/>
       <c r="W398" s="146"/>
       <c r="X398" s="146">
-        <v>0.014584583800490991</v>
+        <v>0.014584583801013018</v>
       </c>
       <c r="Y398" s="146"/>
       <c r="Z398" s="146"/>
@@ -23215,13 +23215,13 @@
       <c r="F409" s="143"/>
       <c r="G409" s="143"/>
       <c r="H409" s="143">
-        <v>64.90657634486854</v>
+        <v>64.906553247086734</v>
       </c>
       <c r="I409" s="143"/>
       <c r="J409" s="143"/>
       <c r="K409" s="143"/>
       <c r="L409" s="143">
-        <v>9.0026827427064564</v>
+        <v>9.002659644924643</v>
       </c>
       <c r="M409" s="143"/>
       <c r="N409" s="143"/>
@@ -23233,13 +23233,13 @@
       <c r="R409" s="143"/>
       <c r="S409" s="143"/>
       <c r="T409" s="143">
-        <v>145.369395891046</v>
+        <v>145.36938351931872</v>
       </c>
       <c r="U409" s="143"/>
       <c r="V409" s="143"/>
       <c r="W409" s="143"/>
       <c r="X409" s="143">
-        <v>11.652131826205906</v>
+        <v>11.652119454478612</v>
       </c>
       <c r="Y409" s="143"/>
       <c r="Z409" s="143"/>
@@ -23299,13 +23299,13 @@
       <c r="F411" s="145"/>
       <c r="G411" s="145"/>
       <c r="H411" s="145">
-        <v>69.327072076475133</v>
+        <v>69.327048978693313</v>
       </c>
       <c r="I411" s="145"/>
       <c r="J411" s="145"/>
       <c r="K411" s="145"/>
       <c r="L411" s="145">
-        <v>9.4486303139942471</v>
+        <v>9.4486072162124337</v>
       </c>
       <c r="M411" s="145"/>
       <c r="N411" s="145"/>
@@ -23317,13 +23317,13 @@
       <c r="R411" s="145"/>
       <c r="S411" s="145"/>
       <c r="T411" s="145">
-        <v>149.6022321575982</v>
+        <v>149.60221978587089</v>
       </c>
       <c r="U411" s="145"/>
       <c r="V411" s="145"/>
       <c r="W411" s="145"/>
       <c r="X411" s="145">
-        <v>12.119399970420171</v>
+        <v>12.119387598692876</v>
       </c>
       <c r="Y411" s="145"/>
       <c r="Z411" s="145"/>
@@ -23341,13 +23341,13 @@
       <c r="F412" s="145"/>
       <c r="G412" s="145"/>
       <c r="H412" s="145">
-        <v>83.349643165458588</v>
+        <v>83.349620067676767</v>
       </c>
       <c r="I412" s="145"/>
       <c r="J412" s="145"/>
       <c r="K412" s="145"/>
       <c r="L412" s="145">
-        <v>9.66096679230433</v>
+        <v>9.6609436945225031</v>
       </c>
       <c r="M412" s="145"/>
       <c r="N412" s="145"/>
@@ -23359,13 +23359,13 @@
       <c r="R412" s="145"/>
       <c r="S412" s="145"/>
       <c r="T412" s="145">
-        <v>163.21692444289187</v>
+        <v>163.2169120711647</v>
       </c>
       <c r="U412" s="145"/>
       <c r="V412" s="145"/>
       <c r="W412" s="145"/>
       <c r="X412" s="145">
-        <v>12.295499458631152</v>
+        <v>12.295487086903973</v>
       </c>
       <c r="Y412" s="145"/>
       <c r="Z412" s="145"/>
@@ -23509,13 +23509,13 @@
       <c r="F416" s="145"/>
       <c r="G416" s="145"/>
       <c r="H416" s="145">
-        <v>150.95245435874381</v>
+        <v>150.9524312609619</v>
       </c>
       <c r="I416" s="145"/>
       <c r="J416" s="145"/>
       <c r="K416" s="145"/>
       <c r="L416" s="145">
-        <v>10.219991426710621</v>
+        <v>10.21996832892872</v>
       </c>
       <c r="M416" s="145"/>
       <c r="N416" s="145"/>
@@ -23527,13 +23527,13 @@
       <c r="R416" s="145"/>
       <c r="S416" s="145"/>
       <c r="T416" s="145">
-        <v>244.389517157644</v>
+        <v>244.38950478591679</v>
       </c>
       <c r="U416" s="145"/>
       <c r="V416" s="145"/>
       <c r="W416" s="145"/>
       <c r="X416" s="145">
-        <v>11.891217802022322</v>
+        <v>11.891205430295115</v>
       </c>
       <c r="Y416" s="145"/>
       <c r="Z416" s="145"/>
@@ -23845,13 +23845,13 @@
       <c r="F424" s="145"/>
       <c r="G424" s="145"/>
       <c r="H424" s="145">
-        <v>293.75189188218889</v>
+        <v>293.75186878440724</v>
       </c>
       <c r="I424" s="145"/>
       <c r="J424" s="145"/>
       <c r="K424" s="145"/>
       <c r="L424" s="145">
-        <v>6.3216447603775308</v>
+        <v>6.3216216625958328</v>
       </c>
       <c r="M424" s="145"/>
       <c r="N424" s="145"/>
@@ -23863,13 +23863,13 @@
       <c r="R424" s="145"/>
       <c r="S424" s="145"/>
       <c r="T424" s="145">
-        <v>416.04002106105361</v>
+        <v>416.04000868932633</v>
       </c>
       <c r="U424" s="145"/>
       <c r="V424" s="145"/>
       <c r="W424" s="145"/>
       <c r="X424" s="145">
-        <v>1.8676764219256001</v>
+        <v>1.8676640501983348</v>
       </c>
       <c r="Y424" s="145"/>
       <c r="Z424" s="145"/>
@@ -24065,13 +24065,13 @@
       <c r="R430" s="143"/>
       <c r="S430" s="143"/>
       <c r="T430" s="143">
-        <v>26.0874211571501</v>
+        <v>26.0874211571612</v>
       </c>
       <c r="U430" s="143"/>
       <c r="V430" s="143"/>
       <c r="W430" s="143"/>
       <c r="X430" s="143">
-        <v>2.014902688994</v>
+        <v>2.0149026890050989</v>
       </c>
       <c r="Y430" s="143"/>
       <c r="Z430" s="143"/>
@@ -24107,13 +24107,13 @@
       <c r="R431" s="143"/>
       <c r="S431" s="143"/>
       <c r="T431" s="143">
-        <v>19.0740797368319</v>
+        <v>19.07407973684</v>
       </c>
       <c r="U431" s="143"/>
       <c r="V431" s="143"/>
       <c r="W431" s="143"/>
       <c r="X431" s="143">
-        <v>-5.4438031621863008</v>
+        <v>-5.4438031621782</v>
       </c>
       <c r="Y431" s="143"/>
       <c r="Z431" s="143"/>
@@ -24149,13 +24149,13 @@
       <c r="R432" s="145"/>
       <c r="S432" s="145"/>
       <c r="T432" s="145">
-        <v>45.161500893982</v>
+        <v>45.1615008940011</v>
       </c>
       <c r="U432" s="145"/>
       <c r="V432" s="145"/>
       <c r="W432" s="145"/>
       <c r="X432" s="145">
-        <v>-3.4289004731922978</v>
+        <v>-3.4289004731731985</v>
       </c>
       <c r="Y432" s="145"/>
       <c r="Z432" s="145"/>
@@ -24191,13 +24191,13 @@
       <c r="R433" s="143"/>
       <c r="S433" s="143"/>
       <c r="T433" s="143">
-        <v>172.526553409257</v>
+        <v>172.526553409315</v>
       </c>
       <c r="U433" s="143"/>
       <c r="V433" s="143"/>
       <c r="W433" s="143"/>
       <c r="X433" s="143">
-        <v>31.578179768525004</v>
+        <v>31.578179768583009</v>
       </c>
       <c r="Y433" s="143"/>
       <c r="Z433" s="143"/>
@@ -24233,13 +24233,13 @@
       <c r="R434" s="143"/>
       <c r="S434" s="143"/>
       <c r="T434" s="143">
-        <v>23.602015077498198</v>
+        <v>23.602015077392902</v>
       </c>
       <c r="U434" s="143"/>
       <c r="V434" s="143"/>
       <c r="W434" s="143"/>
       <c r="X434" s="143">
-        <v>0.44802466454419848</v>
+        <v>0.44802466443890082</v>
       </c>
       <c r="Y434" s="143"/>
       <c r="Z434" s="143"/>
@@ -24257,13 +24257,13 @@
       <c r="F435" s="143"/>
       <c r="G435" s="143"/>
       <c r="H435" s="143">
-        <v>477.89926497809404</v>
+        <v>477.902883131444</v>
       </c>
       <c r="I435" s="143"/>
       <c r="J435" s="143"/>
       <c r="K435" s="143"/>
       <c r="L435" s="143">
-        <v>62.782884215781</v>
+        <v>62.786502369130964</v>
       </c>
       <c r="M435" s="143"/>
       <c r="N435" s="143"/>
@@ -24275,13 +24275,13 @@
       <c r="R435" s="143"/>
       <c r="S435" s="143"/>
       <c r="T435" s="143">
-        <v>558.232483789699</v>
+        <v>558.23537241730594</v>
       </c>
       <c r="U435" s="143"/>
       <c r="V435" s="143"/>
       <c r="W435" s="143"/>
       <c r="X435" s="143">
-        <v>93.116896837648056</v>
+        <v>93.119785465254978</v>
       </c>
       <c r="Y435" s="143"/>
       <c r="Z435" s="143"/>
@@ -24317,13 +24317,13 @@
       <c r="R436" s="143"/>
       <c r="S436" s="143"/>
       <c r="T436" s="143">
-        <v>8.2656039605238</v>
+        <v>8.26560396048715</v>
       </c>
       <c r="U436" s="143"/>
       <c r="V436" s="143"/>
       <c r="W436" s="143"/>
       <c r="X436" s="143">
-        <v>1.0045788836917</v>
+        <v>1.0045788836550491</v>
       </c>
       <c r="Y436" s="143"/>
       <c r="Z436" s="143"/>
@@ -24341,13 +24341,13 @@
       <c r="F437" s="145"/>
       <c r="G437" s="145"/>
       <c r="H437" s="145">
-        <v>485.53418255727695</v>
+        <v>485.537800710627</v>
       </c>
       <c r="I437" s="145"/>
       <c r="J437" s="145"/>
       <c r="K437" s="145"/>
       <c r="L437" s="145">
-        <v>63.698960690463949</v>
+        <v>63.702578843813974</v>
       </c>
       <c r="M437" s="145"/>
       <c r="N437" s="145"/>
@@ -24359,13 +24359,13 @@
       <c r="R437" s="145"/>
       <c r="S437" s="145"/>
       <c r="T437" s="145">
-        <v>566.498087750223</v>
+        <v>566.500976377793</v>
       </c>
       <c r="U437" s="145"/>
       <c r="V437" s="145"/>
       <c r="W437" s="145"/>
       <c r="X437" s="145">
-        <v>94.121475721339</v>
+        <v>94.124364348909</v>
       </c>
       <c r="Y437" s="145"/>
       <c r="Z437" s="145"/>
@@ -24383,13 +24383,13 @@
       <c r="F438" s="145"/>
       <c r="G438" s="145"/>
       <c r="H438" s="145">
-        <v>510.42175735075705</v>
+        <v>510.42537550410697</v>
       </c>
       <c r="I438" s="145"/>
       <c r="J438" s="145"/>
       <c r="K438" s="145"/>
       <c r="L438" s="145">
-        <v>64.148612311684</v>
+        <v>64.152230465033966</v>
       </c>
       <c r="M438" s="145"/>
       <c r="N438" s="145"/>
@@ -24401,13 +24401,13 @@
       <c r="R438" s="145"/>
       <c r="S438" s="145"/>
       <c r="T438" s="145">
-        <v>590.100102827721</v>
+        <v>590.102991455186</v>
       </c>
       <c r="U438" s="145"/>
       <c r="V438" s="145"/>
       <c r="W438" s="145"/>
       <c r="X438" s="145">
-        <v>94.569500385884027</v>
+        <v>94.572389013349024</v>
       </c>
       <c r="Y438" s="145"/>
       <c r="Z438" s="145"/>
@@ -24443,13 +24443,13 @@
       <c r="R439" s="143"/>
       <c r="S439" s="143"/>
       <c r="T439" s="143">
-        <v>263.055281427781</v>
+        <v>263.055281427858</v>
       </c>
       <c r="U439" s="143"/>
       <c r="V439" s="143"/>
       <c r="W439" s="143"/>
       <c r="X439" s="143">
-        <v>51.482495963165974</v>
+        <v>51.482495963242982</v>
       </c>
       <c r="Y439" s="143"/>
       <c r="Z439" s="143"/>
@@ -24485,13 +24485,13 @@
       <c r="R440" s="143"/>
       <c r="S440" s="143"/>
       <c r="T440" s="143">
-        <v>16.8105988906667</v>
+        <v>16.810598890671603</v>
       </c>
       <c r="U440" s="143"/>
       <c r="V440" s="143"/>
       <c r="W440" s="143"/>
       <c r="X440" s="143">
-        <v>6.5916476449667005</v>
+        <v>6.5916476449716006</v>
       </c>
       <c r="Y440" s="143"/>
       <c r="Z440" s="143"/>
@@ -24527,13 +24527,13 @@
       <c r="R441" s="145"/>
       <c r="S441" s="145"/>
       <c r="T441" s="145">
-        <v>279.865880318447</v>
+        <v>279.865880318529</v>
       </c>
       <c r="U441" s="145"/>
       <c r="V441" s="145"/>
       <c r="W441" s="145"/>
       <c r="X441" s="145">
-        <v>58.074143608132026</v>
+        <v>58.074143608213987</v>
       </c>
       <c r="Y441" s="145"/>
       <c r="Z441" s="145"/>
@@ -24551,13 +24551,13 @@
       <c r="F442" s="145"/>
       <c r="G442" s="145"/>
       <c r="H442" s="145">
-        <v>916.39393476919008</v>
+        <v>916.39755292254</v>
       </c>
       <c r="I442" s="145"/>
       <c r="J442" s="145"/>
       <c r="K442" s="145"/>
       <c r="L442" s="145">
-        <v>137.99433047367202</v>
+        <v>137.99794862702197</v>
       </c>
       <c r="M442" s="145"/>
       <c r="N442" s="145"/>
@@ -24569,13 +24569,13 @@
       <c r="R442" s="145"/>
       <c r="S442" s="145"/>
       <c r="T442" s="145">
-        <v>1087.65403744941</v>
+        <v>1087.65692607703</v>
       </c>
       <c r="U442" s="145"/>
       <c r="V442" s="145"/>
       <c r="W442" s="145"/>
       <c r="X442" s="145">
-        <v>180.79292328935094</v>
+        <v>180.79581191697088</v>
       </c>
       <c r="Y442" s="145"/>
       <c r="Z442" s="145"/>
@@ -24611,13 +24611,13 @@
       <c r="R443" s="143"/>
       <c r="S443" s="143"/>
       <c r="T443" s="143">
-        <v>72.6312426813105</v>
+        <v>72.6312426813671</v>
       </c>
       <c r="U443" s="143"/>
       <c r="V443" s="143"/>
       <c r="W443" s="143"/>
       <c r="X443" s="143">
-        <v>-0.28301830639380204</v>
+        <v>-0.2830183063371951</v>
       </c>
       <c r="Y443" s="143"/>
       <c r="Z443" s="143"/>
@@ -24653,13 +24653,13 @@
       <c r="R444" s="143"/>
       <c r="S444" s="143"/>
       <c r="T444" s="143">
-        <v>76.2245075511763</v>
+        <v>76.224507551611</v>
       </c>
       <c r="U444" s="143"/>
       <c r="V444" s="143"/>
       <c r="W444" s="143"/>
       <c r="X444" s="143">
-        <v>-22.811508958267297</v>
+        <v>-22.8115089578326</v>
       </c>
       <c r="Y444" s="143"/>
       <c r="Z444" s="143"/>
@@ -24695,13 +24695,13 @@
       <c r="R445" s="143"/>
       <c r="S445" s="143"/>
       <c r="T445" s="143">
-        <v>89.5169201198235</v>
+        <v>89.5169201196355</v>
       </c>
       <c r="U445" s="143"/>
       <c r="V445" s="143"/>
       <c r="W445" s="143"/>
       <c r="X445" s="143">
-        <v>16.153941237415697</v>
+        <v>16.1539412372277</v>
       </c>
       <c r="Y445" s="143"/>
       <c r="Z445" s="143"/>
@@ -24737,13 +24737,13 @@
       <c r="R446" s="143"/>
       <c r="S446" s="143"/>
       <c r="T446" s="143">
-        <v>103.810569038312</v>
+        <v>103.810569038548</v>
       </c>
       <c r="U446" s="143"/>
       <c r="V446" s="143"/>
       <c r="W446" s="143"/>
       <c r="X446" s="143">
-        <v>6.4094448238311017</v>
+        <v>6.4094448240671049</v>
       </c>
       <c r="Y446" s="143"/>
       <c r="Z446" s="143"/>
@@ -24779,13 +24779,13 @@
       <c r="R447" s="145"/>
       <c r="S447" s="145"/>
       <c r="T447" s="145">
-        <v>193.32748915813602</v>
+        <v>193.327489158183</v>
       </c>
       <c r="U447" s="145"/>
       <c r="V447" s="145"/>
       <c r="W447" s="145"/>
       <c r="X447" s="145">
-        <v>22.563386061247</v>
+        <v>22.563386061293976</v>
       </c>
       <c r="Y447" s="145"/>
       <c r="Z447" s="145"/>
@@ -24821,13 +24821,13 @@
       <c r="R448" s="143"/>
       <c r="S448" s="143"/>
       <c r="T448" s="143">
-        <v>0.230413464637982</v>
+        <v>0.23041346463930099</v>
       </c>
       <c r="U448" s="143"/>
       <c r="V448" s="143"/>
       <c r="W448" s="143"/>
       <c r="X448" s="143">
-        <v>-0.041714733126955</v>
+        <v>-0.041714733125636</v>
       </c>
       <c r="Y448" s="143"/>
       <c r="Z448" s="143"/>
@@ -24887,13 +24887,13 @@
       <c r="F450" s="145"/>
       <c r="G450" s="145"/>
       <c r="H450" s="145">
-        <v>1251.49171750607</v>
+        <v>1251.4953356594199</v>
       </c>
       <c r="I450" s="145"/>
       <c r="J450" s="145"/>
       <c r="K450" s="145"/>
       <c r="L450" s="145">
-        <v>184.21224008513988</v>
+        <v>184.21585823848983</v>
       </c>
       <c r="M450" s="145"/>
       <c r="N450" s="145"/>
@@ -24905,13 +24905,13 @@
       <c r="R450" s="145"/>
       <c r="S450" s="145"/>
       <c r="T450" s="145">
-        <v>1430.0676903046701</v>
+        <v>1430.07057893283</v>
       </c>
       <c r="U450" s="145"/>
       <c r="V450" s="145"/>
       <c r="W450" s="145"/>
       <c r="X450" s="145">
-        <v>180.22006735280993</v>
+        <v>180.22295598096983</v>
       </c>
       <c r="Y450" s="145"/>
       <c r="Z450" s="145"/>
@@ -25063,16 +25063,16 @@
         <v>1372.4000779618041</v>
       </c>
       <c r="G460" s="1">
-        <v>1450.2897866004898</v>
+        <v>1450.2895682002229</v>
       </c>
       <c r="H460" s="1">
-        <v>1424.6997441407721</v>
+        <v>1424.7003457339731</v>
       </c>
       <c r="I460" s="1">
-        <v>1392.0474403998271</v>
+        <v>1392.0482430696779</v>
       </c>
       <c r="J460" s="1">
-        <v>1355.8784169719602</v>
+        <v>1355.8801228359869</v>
       </c>
     </row>
     <row r="475" ht="14.25" customHeight="1">
@@ -25150,7 +25150,7 @@
       <c r="K477" s="52"/>
       <c r="L477" s="52"/>
       <c r="M477" s="52">
-        <v>1544.6138332616631</v>
+        <v>1544.6136148613941</v>
       </c>
       <c r="N477" s="52"/>
       <c r="O477" s="52"/>
@@ -25158,7 +25158,7 @@
       <c r="Q477" s="52"/>
       <c r="R477" s="52"/>
       <c r="S477" s="53">
-        <v>-0.604000433612413</v>
+        <v>-0.60401448768377564</v>
       </c>
       <c r="T477" s="53"/>
       <c r="U477" s="53"/>
@@ -25183,7 +25183,7 @@
       <c r="K478" s="52"/>
       <c r="L478" s="52"/>
       <c r="M478" s="52">
-        <v>1528.501075415476</v>
+        <v>1528.5012180146662</v>
       </c>
       <c r="N478" s="52"/>
       <c r="O478" s="52"/>
@@ -25191,7 +25191,7 @@
       <c r="Q478" s="52"/>
       <c r="R478" s="52"/>
       <c r="S478" s="53">
-        <v>-0.35846966000808655</v>
+        <v>-0.3584603641025968</v>
       </c>
       <c r="T478" s="53"/>
       <c r="U478" s="53"/>
@@ -25216,7 +25216,7 @@
       <c r="K479" s="52"/>
       <c r="L479" s="52"/>
       <c r="M479" s="52">
-        <v>13.275749325512908</v>
+        <v>13.275388328650418</v>
       </c>
       <c r="N479" s="52"/>
       <c r="O479" s="52"/>
@@ -25224,7 +25224,7 @@
       <c r="Q479" s="52"/>
       <c r="R479" s="52"/>
       <c r="S479" s="53">
-        <v>20.68863023193553</v>
+        <v>20.685348442276531</v>
       </c>
       <c r="T479" s="53"/>
       <c r="U479" s="53"/>
@@ -25249,7 +25249,7 @@
       <c r="K480" s="52"/>
       <c r="L480" s="52"/>
       <c r="M480" s="52">
-        <v>2.8370085206742424</v>
+        <v>2.8370085180775426</v>
       </c>
       <c r="N480" s="52"/>
       <c r="O480" s="52"/>
@@ -25257,7 +25257,7 @@
       <c r="Q480" s="52"/>
       <c r="R480" s="52"/>
       <c r="S480" s="53">
-        <v>-68.477683103619526</v>
+        <v>-68.477683132471753</v>
       </c>
       <c r="T480" s="53"/>
       <c r="U480" s="53"/>
@@ -25315,7 +25315,7 @@
       <c r="K482" s="52"/>
       <c r="L482" s="52"/>
       <c r="M482" s="52">
-        <v>1450.2897866004912</v>
+        <v>1450.2895682002222</v>
       </c>
       <c r="N482" s="52"/>
       <c r="O482" s="52"/>
@@ -25323,7 +25323,7 @@
       <c r="Q482" s="52"/>
       <c r="R482" s="52"/>
       <c r="S482" s="53">
-        <v>3.7403280830108154</v>
+        <v>3.7403124606739784</v>
       </c>
       <c r="T482" s="53"/>
       <c r="U482" s="53"/>
@@ -25455,7 +25455,7 @@
       <c r="Q486" s="52"/>
       <c r="R486" s="52"/>
       <c r="S486" s="53">
-        <v>-0.604000433612413</v>
+        <v>-0.60401448768377564</v>
       </c>
       <c r="T486" s="53"/>
       <c r="U486" s="53"/>
@@ -25509,7 +25509,7 @@
       <c r="K488" s="52"/>
       <c r="L488" s="52"/>
       <c r="M488" s="52">
-        <v>105.48254586194481</v>
+        <v>105.4825007456694</v>
       </c>
       <c r="N488" s="52"/>
       <c r="O488" s="52"/>
@@ -25517,7 +25517,7 @@
       <c r="Q488" s="52"/>
       <c r="R488" s="52"/>
       <c r="S488" s="53">
-        <v>6.54802612317658</v>
+        <v>6.54798055118121</v>
       </c>
       <c r="T488" s="53"/>
       <c r="U488" s="53"/>
@@ -25542,7 +25542,7 @@
       <c r="K489" s="52"/>
       <c r="L489" s="52"/>
       <c r="M489" s="52">
-        <v>405.14057407183</v>
+        <v>405.14040078786496</v>
       </c>
       <c r="N489" s="52"/>
       <c r="O489" s="52"/>
@@ -25550,7 +25550,7 @@
       <c r="Q489" s="52"/>
       <c r="R489" s="52"/>
       <c r="S489" s="53">
-        <v>9.49745245184594</v>
+        <v>9.4974056183418814</v>
       </c>
       <c r="T489" s="53"/>
       <c r="U489" s="53"/>
@@ -25633,7 +25633,7 @@
       <c r="K493" s="52"/>
       <c r="L493" s="52"/>
       <c r="M493" s="52">
-        <v>5925.9275120801785</v>
+        <v>5925.9304038069822</v>
       </c>
       <c r="N493" s="52"/>
       <c r="O493" s="52"/>
@@ -25641,7 +25641,7 @@
       <c r="Q493" s="52"/>
       <c r="R493" s="52"/>
       <c r="S493" s="53">
-        <v>-5.2760947557516218</v>
+        <v>-5.2760485324970876</v>
       </c>
       <c r="T493" s="53"/>
       <c r="U493" s="53"/>
@@ -25666,7 +25666,7 @@
       <c r="K494" s="52"/>
       <c r="L494" s="52"/>
       <c r="M494" s="52">
-        <v>5834.7490433665826</v>
+        <v>5834.7522732103243</v>
       </c>
       <c r="N494" s="52"/>
       <c r="O494" s="52"/>
@@ -25674,7 +25674,7 @@
       <c r="Q494" s="52"/>
       <c r="R494" s="52"/>
       <c r="S494" s="53">
-        <v>-5.69340482678871</v>
+        <v>-5.6933526230754108</v>
       </c>
       <c r="T494" s="53"/>
       <c r="U494" s="53"/>
@@ -25699,7 +25699,7 @@
       <c r="K495" s="52"/>
       <c r="L495" s="52"/>
       <c r="M495" s="52">
-        <v>65.151030647527875</v>
+        <v>65.15069186630231</v>
       </c>
       <c r="N495" s="52"/>
       <c r="O495" s="52"/>
@@ -25707,7 +25707,7 @@
       <c r="Q495" s="52"/>
       <c r="R495" s="52"/>
       <c r="S495" s="53">
-        <v>38.619214143676331</v>
+        <v>38.61849333255811</v>
       </c>
       <c r="T495" s="53"/>
       <c r="U495" s="53"/>
@@ -25732,7 +25732,7 @@
       <c r="K496" s="52"/>
       <c r="L496" s="52"/>
       <c r="M496" s="52">
-        <v>26.0274380660681</v>
+        <v>26.027438730355556</v>
       </c>
       <c r="N496" s="52"/>
       <c r="O496" s="52"/>
@@ -25740,7 +25740,7 @@
       <c r="Q496" s="52"/>
       <c r="R496" s="52"/>
       <c r="S496" s="53">
-        <v>18.306536663945909</v>
+        <v>18.306539683434345</v>
       </c>
       <c r="T496" s="53"/>
       <c r="U496" s="53"/>
@@ -25798,7 +25798,7 @@
       <c r="K498" s="52"/>
       <c r="L498" s="52"/>
       <c r="M498" s="52">
-        <v>5622.9153881130533</v>
+        <v>5622.918279839857</v>
       </c>
       <c r="N498" s="52"/>
       <c r="O498" s="52"/>
@@ -25806,7 +25806,7 @@
       <c r="Q498" s="52"/>
       <c r="R498" s="52"/>
       <c r="S498" s="53">
-        <v>1.0952065464410872</v>
+        <v>1.0952585372142565</v>
       </c>
       <c r="T498" s="53"/>
       <c r="U498" s="53"/>
@@ -25938,7 +25938,7 @@
       <c r="Q502" s="52"/>
       <c r="R502" s="52"/>
       <c r="S502" s="53">
-        <v>-5.2760947557516218</v>
+        <v>-5.2760485324970876</v>
       </c>
       <c r="T502" s="53"/>
       <c r="U502" s="53"/>
@@ -25992,7 +25992,7 @@
       <c r="K504" s="52"/>
       <c r="L504" s="52"/>
       <c r="M504" s="52">
-        <v>385.10927841170212</v>
+        <v>385.10987577343184</v>
       </c>
       <c r="N504" s="52"/>
       <c r="O504" s="52"/>
@@ -26000,7 +26000,7 @@
       <c r="Q504" s="52"/>
       <c r="R504" s="52"/>
       <c r="S504" s="53">
-        <v>1.3445469504479266</v>
+        <v>1.3447041509031152</v>
       </c>
       <c r="T504" s="53"/>
       <c r="U504" s="53"/>
@@ -26025,7 +26025,7 @@
       <c r="K505" s="52"/>
       <c r="L505" s="52"/>
       <c r="M505" s="52">
-        <v>1479.1394430345658</v>
+        <v>1479.1417373996849</v>
       </c>
       <c r="N505" s="52"/>
       <c r="O505" s="52"/>
@@ -26033,7 +26033,7 @@
       <c r="Q505" s="52"/>
       <c r="R505" s="52"/>
       <c r="S505" s="53">
-        <v>4.9779590514241185</v>
+        <v>4.9781218878413673</v>
       </c>
       <c r="T505" s="53"/>
       <c r="U505" s="53"/>
@@ -30527,31 +30527,31 @@
         <v>27.020894073879298</v>
       </c>
       <c r="D8" s="26">
-        <v>26.298620769320063</v>
+        <v>26.29854999188084</v>
       </c>
       <c r="E8" s="12">
         <v>33.32959875062182</v>
       </c>
       <c r="F8" s="26">
-        <v>32.882959500031561</v>
+        <v>32.88282896810518</v>
       </c>
       <c r="G8" s="12">
         <v>4.615897081991</v>
       </c>
       <c r="H8" s="26">
-        <v>3.3070747791920669</v>
+        <v>3.3071833926779255</v>
       </c>
       <c r="I8" s="12">
         <v>-9.7307448120335671</v>
       </c>
       <c r="J8" s="26">
-        <v>-7.670346216997487</v>
+        <v>-7.67024078678061</v>
       </c>
       <c r="K8" s="12">
         <v>9.73142273493317</v>
       </c>
       <c r="L8" s="12">
-        <v>-1.3417803191514977</v>
+        <v>-1.3417772624949345</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
@@ -30562,31 +30562,31 @@
         <v>20.876151420040092</v>
       </c>
       <c r="D9" s="26">
-        <v>20.059819876849879</v>
+        <v>20.059750418185651</v>
       </c>
       <c r="E9" s="12">
         <v>25.965981242570138</v>
       </c>
       <c r="F9" s="26">
-        <v>25.279217542381211</v>
+        <v>25.279085909868229</v>
       </c>
       <c r="G9" s="12">
         <v>4.0325850508751646</v>
       </c>
       <c r="H9" s="26">
-        <v>2.3590628347302904</v>
+        <v>2.3591691530241863</v>
       </c>
       <c r="I9" s="12">
         <v>-7.4697052924644654</v>
       </c>
       <c r="J9" s="26">
-        <v>-5.8289172895306933</v>
+        <v>-5.8288917655350936</v>
       </c>
       <c r="K9" s="12">
         <v>8.5932174182579164</v>
       </c>
       <c r="L9" s="12">
-        <v>-1.200917973764327</v>
+        <v>-1.2009151763716339</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
@@ -30597,31 +30597,31 @@
         <v>14.624669017585385</v>
       </c>
       <c r="D10" s="26">
-        <v>13.714271572122605</v>
+        <v>13.714213314022249</v>
       </c>
       <c r="E10" s="12">
         <v>18.255085659723239</v>
       </c>
       <c r="F10" s="26">
-        <v>17.456605029067585</v>
+        <v>17.456517295745254</v>
       </c>
       <c r="G10" s="12">
         <v>3.1682414541892432</v>
       </c>
       <c r="H10" s="26">
-        <v>1.4516239752379434</v>
+        <v>1.4517009712654245</v>
       </c>
       <c r="I10" s="12">
         <v>-5.08917529212352</v>
       </c>
       <c r="J10" s="26">
-        <v>-3.9245633188646041</v>
+        <v>-3.9245822462539044</v>
       </c>
       <c r="K10" s="12">
         <v>7.4352703497329307</v>
       </c>
       <c r="L10" s="12">
-        <v>-1.0576456169291579</v>
+        <v>-1.0576433134282515</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
@@ -30632,31 +30632,31 @@
         <v>7.463567354164673</v>
       </c>
       <c r="D11" s="26">
-        <v>7.0491823142492223</v>
+        <v>7.0491338502877454</v>
       </c>
       <c r="E11" s="12">
         <v>9.40315693163486</v>
       </c>
       <c r="F11" s="26">
-        <v>9.0960892254423538</v>
+        <v>9.09600020471807</v>
       </c>
       <c r="G11" s="12">
         <v>1.8242768136837431</v>
       </c>
       <c r="H11" s="26">
-        <v>0.622666413078783</v>
+        <v>0.62272550000647731</v>
       </c>
       <c r="I11" s="12">
         <v>-2.5894924033629025</v>
       </c>
       <c r="J11" s="26">
-        <v>-1.9563481703298653</v>
+        <v>-1.9563761600161369</v>
       </c>
       <c r="K11" s="12">
         <v>6.1089043024539187</v>
       </c>
       <c r="L11" s="12">
-        <v>-0.907152509660069</v>
+        <v>-0.90715067534121574</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
@@ -30691,7 +30691,7 @@
         <v>4.7266609861593727</v>
       </c>
       <c r="L12" s="12">
-        <v>-0.74792727919396063</v>
+        <v>-0.74792681315376386</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
@@ -30702,31 +30702,31 @@
         <v>-3.8435103157011237</v>
       </c>
       <c r="D13" s="26">
-        <v>-2.9802045656203009</v>
+        <v>-2.98009995102298</v>
       </c>
       <c r="E13" s="12">
         <v>-6.9037233342776512</v>
       </c>
       <c r="F13" s="26">
-        <v>-6.6388814858399607</v>
+        <v>-6.6387180820978919</v>
       </c>
       <c r="G13" s="12">
         <v>-2.5956095938547246</v>
       </c>
       <c r="H13" s="26">
-        <v>-0.31757729515799527</v>
+        <v>-0.31773705009837755</v>
       </c>
       <c r="I13" s="12">
         <v>1.6372460274698648</v>
       </c>
       <c r="J13" s="26">
-        <v>1.1699828909373686</v>
+        <v>1.1702487006711995</v>
       </c>
       <c r="K13" s="12">
         <v>4.01482504502208</v>
       </c>
       <c r="L13" s="12">
-        <v>-0.68064152468597927</v>
+        <v>-0.68064352568493647</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
@@ -30737,31 +30737,31 @@
         <v>-4.7709512187847212</v>
       </c>
       <c r="D14" s="26">
-        <v>-4.1799283067990309</v>
+        <v>-4.1808431514505155</v>
       </c>
       <c r="E14" s="12">
         <v>-8.5258481250384648</v>
       </c>
       <c r="F14" s="26">
-        <v>-9.1996435488766668</v>
+        <v>-9.2004303599624162</v>
       </c>
       <c r="G14" s="12">
         <v>-3.4021589308944624</v>
       </c>
       <c r="H14" s="26">
-        <v>-0.35061381640153366</v>
+        <v>-0.35076398770737971</v>
       </c>
       <c r="I14" s="12">
         <v>2.047372934524391</v>
       </c>
       <c r="J14" s="26">
-        <v>1.2885567400261653</v>
+        <v>1.2887584573900177</v>
       </c>
       <c r="K14" s="12">
         <v>3.8429920381653151</v>
       </c>
       <c r="L14" s="12">
-        <v>-0.65358342960003069</v>
+        <v>-0.65356242869553716</v>
       </c>
     </row>
     <row r="15" hidden="1" ht="14.25" customHeight="1">
@@ -30791,13 +30791,13 @@
         <v>-3.309120597600121</v>
       </c>
       <c r="H16" s="26">
-        <v>-0.34977386782856712</v>
+        <v>-0.34992309391565979</v>
       </c>
       <c r="I16" s="12">
         <v>2.0483616094505175</v>
       </c>
       <c r="J16" s="26">
-        <v>1.2890999068775475</v>
+        <v>1.2893016655619773</v>
       </c>
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
@@ -30810,31 +30810,31 @@
         <v>16.224053404379074</v>
       </c>
       <c r="D17" s="26">
-        <v>17.093260990169725</v>
+        <v>17.093213992866051</v>
       </c>
       <c r="E17" s="12">
         <v>17.802790728814106</v>
       </c>
       <c r="F17" s="26">
-        <v>17.976523409441175</v>
+        <v>17.976452787739742</v>
       </c>
       <c r="G17" s="12">
         <v>3.218902204894035</v>
       </c>
       <c r="H17" s="26">
-        <v>1.4496589247994138</v>
+        <v>1.4497974064356207</v>
       </c>
       <c r="I17" s="12">
         <v>-5.1736360439539393</v>
       </c>
       <c r="J17" s="26">
-        <v>-4.2044678351835847</v>
+        <v>-4.20451710897565</v>
       </c>
       <c r="K17" s="12">
         <v>7.7312362179736471</v>
       </c>
       <c r="L17" s="12">
-        <v>-1.1339725597248112</v>
+        <v>-1.1339703882386296</v>
       </c>
     </row>
     <row r="18" hidden="1" ht="14.25" customHeight="1">
@@ -30904,10 +30904,10 @@
         <v>5076.7480326111336</v>
       </c>
       <c r="D22" s="5">
-        <v>5622.9153881130487</v>
+        <v>5622.9182798398615</v>
       </c>
       <c r="E22" s="31">
-        <v>546.16735550191538</v>
+        <v>546.1702472287277</v>
       </c>
       <c r="F22" s="5">
         <v>131.33473549392528</v>
@@ -30919,7 +30919,7 @@
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5">
-        <v>558.74683473916116</v>
+        <v>558.74972646597348</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
@@ -30930,10 +30930,10 @@
         <v>9262.3476201439971</v>
       </c>
       <c r="D23" s="5">
-        <v>10689.225373192523</v>
+        <v>10689.235639462646</v>
       </c>
       <c r="E23" s="31">
-        <v>1426.8777530485261</v>
+        <v>1426.8880193186496</v>
       </c>
       <c r="F23" s="5">
         <v>262.66947098785056</v>
@@ -30945,7 +30945,7 @@
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5">
-        <v>1452.0367115230179</v>
+        <v>1452.0469777931412</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
@@ -30956,10 +30956,10 @@
         <v>1031.8210151959538</v>
       </c>
       <c r="D24" s="5">
-        <v>1479.1394430345658</v>
+        <v>1479.1417373996849</v>
       </c>
       <c r="E24" s="31">
-        <v>447.31842783861191</v>
+        <v>447.32072220373107</v>
       </c>
       <c r="F24" s="5">
         <v>131.33473549392528</v>
@@ -30974,10 +30974,10 @@
         <v>5.3333333333329067</v>
       </c>
       <c r="J24" s="5">
-        <v>-120.18226099652534</v>
+        <v>-120.18285835825506</v>
       </c>
       <c r="K24" s="5">
-        <v>558.7468347391615</v>
+        <v>558.74972646601043</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
@@ -30988,10 +30988,10 @@
         <v>1354.5561708672599</v>
       </c>
       <c r="D25" s="5">
-        <v>2516.6548707959009</v>
+        <v>2516.6630162997203</v>
       </c>
       <c r="E25" s="31">
-        <v>1162.0986999286411</v>
+        <v>1162.1068454324604</v>
       </c>
       <c r="F25" s="5">
         <v>262.66947098785056</v>
@@ -31006,10 +31006,10 @@
         <v>10.666666666665813</v>
       </c>
       <c r="J25" s="5">
-        <v>-307.445719786349</v>
+        <v>-307.44784055265922</v>
       </c>
       <c r="K25" s="5">
-        <v>1452.0367115230413</v>
+        <v>1452.046977793171</v>
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="1">
@@ -31029,7 +31029,7 @@
         <v>15.157245020181053</v>
       </c>
       <c r="D28" s="8">
-        <v>-130.75469471290157</v>
+        <v>-130.7553507378239</v>
       </c>
     </row>
     <row r="29" ht="14.25" customHeight="1">
@@ -31040,7 +31040,7 @@
         <v>-3.2189022048940314</v>
       </c>
       <c r="D29" s="8">
-        <v>-1.4496589247994181</v>
+        <v>-1.4497974064356298</v>
       </c>
       <c r="E29" s="23" t="s">
         <v>148</v>
@@ -31054,7 +31054,7 @@
         <v>4.11282641080694</v>
       </c>
       <c r="D30" s="8">
-        <v>-1.17112846079816</v>
+        <v>-1.17107625897543</v>
       </c>
       <c r="E30" s="23" t="s">
         <v>150</v>
@@ -31157,31 +31157,31 @@
         <v>159</v>
       </c>
       <c r="C36" s="5">
-        <v>5387.8815561379533</v>
+        <v>5387.8328860255169</v>
       </c>
       <c r="D36" s="5">
-        <v>5455.3410069955371</v>
+        <v>5455.3496949362916</v>
       </c>
       <c r="E36" s="5">
-        <v>5622.9153881130487</v>
+        <v>5622.9182798398615</v>
       </c>
       <c r="F36" s="5">
-        <v>6019.2849451971115</v>
+        <v>6019.28531567807</v>
       </c>
       <c r="G36" s="5">
-        <v>6394.0572747095439</v>
+        <v>6394.05728721025</v>
       </c>
       <c r="H36" s="5">
-        <v>6750.8620867962009</v>
+        <v>6750.8616529942747</v>
       </c>
       <c r="I36" s="5">
-        <v>7101.6645822126411</v>
+        <v>7101.6642546661533</v>
       </c>
       <c r="J36" s="5">
-        <v>6584.054990659627</v>
+        <v>6584.0557340568712</v>
       </c>
       <c r="K36" s="13">
-        <v>7.0491823142492223</v>
+        <v>7.0491338502877454</v>
       </c>
     </row>
     <row r="38" ht="14.25" customHeight="1">
@@ -31721,31 +31721,31 @@
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5">
-        <v>521.668889217834</v>
+        <v>521.66888921554</v>
       </c>
       <c r="H52" s="5">
-        <v>513.895817623165</v>
+        <v>513.895561418909</v>
       </c>
       <c r="I52" s="5">
-        <v>509.04912642066404</v>
+        <v>509.04916422694504</v>
       </c>
       <c r="J52" s="5">
-        <v>505.26845125900803</v>
+        <v>505.268595376398</v>
       </c>
       <c r="K52" s="5">
-        <v>500.796158555683</v>
+        <v>500.79630653993803</v>
       </c>
       <c r="L52" s="5">
-        <v>496.74338157115204</v>
+        <v>496.743691062707</v>
       </c>
       <c r="M52" s="5">
-        <v>492.24619424534296</v>
+        <v>492.246309486332</v>
       </c>
       <c r="N52" s="5">
-        <v>487.117858778107</v>
+        <v>487.118185215217</v>
       </c>
       <c r="O52" s="5">
-        <v>481.571478653401</v>
+        <v>481.57183964515</v>
       </c>
     </row>
     <row r="53" ht="14.25" customHeight="1">
@@ -31793,31 +31793,31 @@
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5">
-        <v>487.935157760921</v>
+        <v>487.935157758628</v>
       </c>
       <c r="H54" s="5">
-        <v>482.491011437512</v>
+        <v>482.490755233256</v>
       </c>
       <c r="I54" s="5">
-        <v>479.863617402057</v>
+        <v>479.86365520833897</v>
       </c>
       <c r="J54" s="5">
-        <v>478.202083421163</v>
+        <v>478.202227538553</v>
       </c>
       <c r="K54" s="5">
-        <v>474.761836842355</v>
+        <v>474.761984826611</v>
       </c>
       <c r="L54" s="5">
-        <v>471.73582387725395</v>
+        <v>471.736133368809</v>
       </c>
       <c r="M54" s="5">
-        <v>468.27305480588404</v>
+        <v>468.273170046874</v>
       </c>
       <c r="N54" s="5">
-        <v>464.17369513907204</v>
+        <v>464.17402157618295</v>
       </c>
       <c r="O54" s="5">
-        <v>459.60069045487097</v>
+        <v>459.601051446621</v>
       </c>
     </row>
     <row r="55" ht="14.25" customHeight="1">
@@ -31901,31 +31901,31 @@
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5">
-        <v>174.712935538686</v>
+        <v>174.712935536391</v>
       </c>
       <c r="H57" s="5">
-        <v>169.268789215273</v>
+        <v>169.26853301102602</v>
       </c>
       <c r="I57" s="5">
-        <v>166.64139517981502</v>
+        <v>166.641432986117</v>
       </c>
       <c r="J57" s="5">
-        <v>164.979861198939</v>
+        <v>164.980005316324</v>
       </c>
       <c r="K57" s="5">
-        <v>161.539614620126</v>
+        <v>161.539762604392</v>
       </c>
       <c r="L57" s="5">
-        <v>158.513601655013</v>
+        <v>158.51391114658802</v>
       </c>
       <c r="M57" s="5">
-        <v>155.050832583643</v>
+        <v>155.050947824634</v>
       </c>
       <c r="N57" s="5">
-        <v>150.951472916848</v>
+        <v>150.951799353964</v>
       </c>
       <c r="O57" s="5">
-        <v>146.378468232638</v>
+        <v>146.37882922438402</v>
       </c>
     </row>
     <row r="58" ht="14.25" customHeight="1">
@@ -31937,31 +31937,31 @@
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5">
-        <v>36.0915213514512</v>
+        <v>36.0915213509772</v>
       </c>
       <c r="H58" s="5">
-        <v>34.9668906956498</v>
+        <v>34.9668377699689</v>
       </c>
       <c r="I58" s="5">
-        <v>34.4241338148438</v>
+        <v>34.4241416247233</v>
       </c>
       <c r="J58" s="5">
-        <v>34.0809005621825</v>
+        <v>34.080930333393596</v>
       </c>
       <c r="K58" s="5">
-        <v>33.3702277521204</v>
+        <v>33.3702583221368</v>
       </c>
       <c r="L58" s="5">
-        <v>32.7451257171543</v>
+        <v>32.7451896507247</v>
       </c>
       <c r="M58" s="5">
-        <v>32.0298002978361</v>
+        <v>32.0298241038736</v>
       </c>
       <c r="N58" s="5">
-        <v>31.182970459592003</v>
+        <v>31.1830378937066</v>
       </c>
       <c r="O58" s="5">
-        <v>30.2382968686437</v>
+        <v>30.238371440920098</v>
       </c>
     </row>
     <row r="59" ht="14.25" customHeight="1">
@@ -31973,31 +31973,31 @@
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5">
-        <v>138.621414187235</v>
+        <v>138.621414185414</v>
       </c>
       <c r="H59" s="5">
-        <v>134.301898519624</v>
+        <v>134.301695241057</v>
       </c>
       <c r="I59" s="5">
-        <v>132.217261364971</v>
+        <v>132.217291361394</v>
       </c>
       <c r="J59" s="5">
-        <v>130.89896063675602</v>
+        <v>130.89907498293002</v>
       </c>
       <c r="K59" s="5">
-        <v>128.169386868006</v>
+        <v>128.169504282255</v>
       </c>
       <c r="L59" s="5">
-        <v>125.768475937859</v>
+        <v>125.768721495863</v>
       </c>
       <c r="M59" s="5">
-        <v>123.021032285807</v>
+        <v>123.02112372076</v>
       </c>
       <c r="N59" s="5">
-        <v>119.768502457256</v>
+        <v>119.768761460257</v>
       </c>
       <c r="O59" s="5">
-        <v>116.14017136399501</v>
+        <v>116.14045778346399</v>
       </c>
     </row>
     <row r="60" ht="14.25" customHeight="1">
@@ -32011,31 +32011,31 @@
         <v>14750.0000000001</v>
       </c>
       <c r="G60" s="5">
-        <v>14888.6214141871</v>
+        <v>14888.6214141853</v>
       </c>
       <c r="H60" s="5">
-        <v>15022.9233128736</v>
+        <v>15022.9231095903</v>
       </c>
       <c r="I60" s="5">
-        <v>15155.1405742301</v>
+        <v>15155.1404009773</v>
       </c>
       <c r="J60" s="5">
-        <v>15286.0395342664</v>
+        <v>15286.039475304799</v>
       </c>
       <c r="K60" s="5">
-        <v>15414.2089213983</v>
+        <v>15414.2089797726</v>
       </c>
       <c r="L60" s="5">
-        <v>15539.9773948008</v>
+        <v>15539.977698804001</v>
       </c>
       <c r="M60" s="5">
-        <v>15662.998432530001</v>
+        <v>15662.9988279176</v>
       </c>
       <c r="N60" s="5">
-        <v>15782.766931302</v>
+        <v>15782.7675857458</v>
       </c>
       <c r="O60" s="5">
-        <v>15898.9071064091</v>
+        <v>15898.9080473205</v>
       </c>
     </row>
     <row r="63" ht="14.25" customHeight="1">
@@ -32103,10 +32103,10 @@
         <v>0</v>
       </c>
       <c r="F65" s="5">
-        <v>5925.9275120801758</v>
+        <v>5925.930403806984</v>
       </c>
       <c r="G65" s="5">
-        <v>7948.0845602021045</v>
+        <v>7948.084232655614</v>
       </c>
       <c r="H65" s="5">
         <f>G65-F65</f>
@@ -32217,10 +32217,10 @@
         <f>IF(OR(C68="",D68=""),"",D68-C68)</f>
       </c>
       <c r="F68" s="5">
-        <v>26.027438066065748</v>
+        <v>26.027438730358163</v>
       </c>
       <c r="G68" s="5">
-        <v>1311.0186231851719</v>
+        <v>1311.0186160108219</v>
       </c>
       <c r="H68" s="5">
         <f>IF(OR(F68="",G68=""),"",G68-F68)</f>
@@ -32249,10 +32249,10 @@
         <f ref="E69:E78" t="shared" si="13">IF(OR(C69="",D69=""),"",D69-C69)</f>
       </c>
       <c r="F69" s="5">
-        <v>5834.7490433665826</v>
+        <v>5834.7522732103234</v>
       </c>
       <c r="G69" s="5">
-        <v>6503.5102522704883</v>
+        <v>6503.5103166389526</v>
       </c>
       <c r="H69" s="5">
         <f ref="H69:H78" t="shared" si="14">IF(OR(F69="",G69=""),"",G69-F69)</f>
@@ -32281,10 +32281,10 @@
         <f t="shared" si="13"/>
       </c>
       <c r="F70" s="5">
-        <v>65.151030647527875</v>
+        <v>65.15069186630231</v>
       </c>
       <c r="G70" s="5">
-        <v>133.555684746444</v>
+        <v>133.55530000583914</v>
       </c>
       <c r="H70" s="5">
         <f t="shared" si="14"/>
@@ -32624,10 +32624,10 @@
         <v>0</v>
       </c>
       <c r="F82" s="5">
-        <v>5925.9275120801758</v>
+        <v>5925.930403806984</v>
       </c>
       <c r="G82" s="5">
-        <v>7463.5482055664306</v>
+        <v>7463.5477717645044</v>
       </c>
       <c r="H82" s="5">
         <f>G82-F82</f>
@@ -32738,10 +32738,10 @@
         <f>IF(OR(C85="",D85=""),"",D85-C85)</f>
       </c>
       <c r="F85" s="5">
-        <v>26.027438066065748</v>
+        <v>26.027438730358163</v>
       </c>
       <c r="G85" s="5">
-        <v>988.1158721514762</v>
+        <v>988.11586568545783</v>
       </c>
       <c r="H85" s="5">
         <f>IF(OR(F85="",G85=""),"",G85-F85)</f>
@@ -32770,10 +32770,10 @@
         <f ref="E86:E95" t="shared" si="21">IF(OR(C86="",D86=""),"",D86-C86)</f>
       </c>
       <c r="F86" s="5">
-        <v>5834.7490433665826</v>
+        <v>5834.7522732103234</v>
       </c>
       <c r="G86" s="5">
-        <v>6358.78121657416</v>
+        <v>6358.7811803508475</v>
       </c>
       <c r="H86" s="5">
         <f ref="H86:H95" t="shared" si="22">IF(OR(F86="",G86=""),"",G86-F86)</f>
@@ -32802,10 +32802,10 @@
         <f t="shared" si="21"/>
       </c>
       <c r="F87" s="5">
-        <v>65.151030647527875</v>
+        <v>65.15069186630231</v>
       </c>
       <c r="G87" s="5">
-        <v>116.65111684079469</v>
+        <v>116.65072572819894</v>
       </c>
       <c r="H87" s="5">
         <f t="shared" si="22"/>
@@ -33145,10 +33145,10 @@
         <v>0</v>
       </c>
       <c r="F99" s="5">
-        <v>5925.9275120801758</v>
+        <v>5925.930403806984</v>
       </c>
       <c r="G99" s="5">
-        <v>6971.5899053478615</v>
+        <v>6971.58991784857</v>
       </c>
       <c r="H99" s="5">
         <f>G99-F99</f>
@@ -33259,10 +33259,10 @@
         <f>IF(OR(C102="",D102=""),"",D102-C102)</f>
       </c>
       <c r="F102" s="5">
-        <v>26.027438066065748</v>
+        <v>26.027438730358163</v>
       </c>
       <c r="G102" s="5">
-        <v>666.28563978510772</v>
+        <v>666.28563688278132</v>
       </c>
       <c r="H102" s="5">
         <f>IF(OR(F102="",G102=""),"",G102-F102)</f>
@@ -33291,10 +33291,10 @@
         <f ref="E103:E112" t="shared" si="29">IF(OR(C103="",D103=""),"",D103-C103)</f>
       </c>
       <c r="F103" s="5">
-        <v>5834.7490433665826</v>
+        <v>5834.7522732103234</v>
       </c>
       <c r="G103" s="5">
-        <v>6205.6496605063194</v>
+        <v>6205.6500787354644</v>
       </c>
       <c r="H103" s="5">
         <f ref="H103:H112" t="shared" si="30">IF(OR(F103="",G103=""),"",G103-F103)</f>
@@ -33323,10 +33323,10 @@
         <f t="shared" si="29"/>
       </c>
       <c r="F104" s="5">
-        <v>65.151030647527875</v>
+        <v>65.15069186630231</v>
       </c>
       <c r="G104" s="5">
-        <v>99.654605056434477</v>
+        <v>99.65420223032379</v>
       </c>
       <c r="H104" s="5">
         <f t="shared" si="30"/>
@@ -33666,10 +33666,10 @@
         <v>0</v>
       </c>
       <c r="F116" s="5">
-        <v>5925.9275120801758</v>
+        <v>5925.930403806984</v>
       </c>
       <c r="G116" s="5">
-        <v>6460.2180856042705</v>
+        <v>6460.2184560852293</v>
       </c>
       <c r="H116" s="5">
         <f>G116-F116</f>
@@ -33780,10 +33780,10 @@
         <f>IF(OR(C119="",D119=""),"",D119-C119)</f>
       </c>
       <c r="F119" s="5">
-        <v>26.027438066065748</v>
+        <v>26.027438730358163</v>
       </c>
       <c r="G119" s="5">
-        <v>345.54757383066357</v>
+        <v>345.54757385695376</v>
       </c>
       <c r="H119" s="5">
         <f>IF(OR(F119="",G119=""),"",G119-F119)</f>
@@ -33812,10 +33812,10 @@
         <f ref="E120:E129" t="shared" si="37">IF(OR(C120="",D120=""),"",D120-C120)</f>
       </c>
       <c r="F120" s="5">
-        <v>5834.7490433665826</v>
+        <v>5834.7522732103234</v>
       </c>
       <c r="G120" s="5">
-        <v>6032.1325429633589</v>
+        <v>6032.1333181874215</v>
       </c>
       <c r="H120" s="5">
         <f ref="H120:H129" t="shared" si="38">IF(OR(F120="",G120=""),"",G120-F120)</f>
@@ -33844,10 +33844,10 @@
         <f t="shared" si="37"/>
       </c>
       <c r="F121" s="5">
-        <v>65.151030647527875</v>
+        <v>65.15069186630231</v>
       </c>
       <c r="G121" s="5">
-        <v>82.537968810248259</v>
+        <v>82.537564040854164</v>
       </c>
       <c r="H121" s="5">
         <f t="shared" si="38"/>
@@ -34187,10 +34187,10 @@
         <v>0</v>
       </c>
       <c r="F133" s="5">
-        <v>5925.9275120801758</v>
+        <v>5925.930403806984</v>
       </c>
       <c r="G133" s="5">
-        <v>5735.6539998905091</v>
+        <v>5735.6626878312672</v>
       </c>
       <c r="H133" s="5">
         <f>G133-F133</f>
@@ -34301,7 +34301,7 @@
         <f>IF(OR(C136="",D136=""),"",D136-C136)</f>
       </c>
       <c r="F136" s="5">
-        <v>26.027438066065748</v>
+        <v>26.027438730358163</v>
       </c>
       <c r="G136" s="5">
         <v>1.0948000000070999</v>
@@ -34333,10 +34333,10 @@
         <f ref="E137:E146" t="shared" si="45">IF(OR(C137="",D137=""),"",D137-C137)</f>
       </c>
       <c r="F137" s="5">
-        <v>5834.7490433665826</v>
+        <v>5834.7522732103234</v>
       </c>
       <c r="G137" s="5">
-        <v>5687.3327359002906</v>
+        <v>5687.3417949883487</v>
       </c>
       <c r="H137" s="5">
         <f ref="H137:H146" t="shared" si="46">IF(OR(F137="",G137=""),"",G137-F137)</f>
@@ -34365,10 +34365,10 @@
         <f t="shared" si="45"/>
       </c>
       <c r="F138" s="5">
-        <v>65.151030647527875</v>
+        <v>65.15069186630231</v>
       </c>
       <c r="G138" s="5">
-        <v>47.226463990211855</v>
+        <v>47.226092842911392</v>
       </c>
       <c r="H138" s="5">
         <f t="shared" si="46"/>
@@ -34708,10 +34708,10 @@
         <v>0</v>
       </c>
       <c r="F150" s="5">
-        <v>5925.9275120801758</v>
+        <v>5925.930403806984</v>
       </c>
       <c r="G150" s="5">
-        <v>5668.1945490329235</v>
+        <v>5668.1458789204862</v>
       </c>
       <c r="H150" s="5">
         <f>G150-F150</f>
@@ -34822,7 +34822,7 @@
         <f>IF(OR(C153="",D153=""),"",D153-C153)</f>
       </c>
       <c r="F153" s="5">
-        <v>26.027438066065748</v>
+        <v>26.027438730358163</v>
       </c>
       <c r="G153" s="5">
         <v>1.0948000000070999</v>
@@ -34854,10 +34854,10 @@
         <f ref="E154:E163" t="shared" si="53">IF(OR(C154="",D154=""),"",D154-C154)</f>
       </c>
       <c r="F154" s="5">
-        <v>5834.7490433665826</v>
+        <v>5834.7522732103234</v>
       </c>
       <c r="G154" s="5">
-        <v>5629.2098109652816</v>
+        <v>5629.161903085821</v>
       </c>
       <c r="H154" s="5">
         <f ref="H154:H163" t="shared" si="54">IF(OR(F154="",G154=""),"",G154-F154)</f>
@@ -34886,10 +34886,10 @@
         <f t="shared" si="53"/>
       </c>
       <c r="F155" s="5">
-        <v>65.151030647527875</v>
+        <v>65.15069186630231</v>
       </c>
       <c r="G155" s="5">
-        <v>37.889938067635015</v>
+        <v>37.889175834658353</v>
       </c>
       <c r="H155" s="5">
         <f t="shared" si="54"/>
@@ -35478,32 +35478,32 @@
         <v>9.54962354551677</v>
       </c>
       <c r="M10" s="152">
-        <v>151248.979679504</v>
+        <v>151248.549686874</v>
       </c>
       <c r="N10" s="152">
         <v>139189</v>
       </c>
       <c r="O10" s="141">
-        <v>108.66067877297331</v>
+        <v>108.66036984580953</v>
       </c>
       <c r="P10" s="141">
-        <v>-6.9131502257095319</v>
+        <v>-6.913321299280816</v>
       </c>
       <c r="Q10" s="141">
-        <v>1.44572720792179</v>
+        <v>1.44565860486734</v>
       </c>
       <c r="R10" s="141"/>
       <c r="S10" s="141">
-        <v>0.749490815274544</v>
+        <v>0.74942221222009409</v>
       </c>
       <c r="T10" s="152">
         <v>3439.9380057981243</v>
       </c>
       <c r="U10" s="152">
-        <v>3784.047536403722</v>
+        <v>3783.6175437737197</v>
       </c>
       <c r="V10" s="152">
-        <v>7226.7123761959956</v>
+        <v>7226.2823835659947</v>
       </c>
       <c r="W10" s="153">
         <v>0.023885186329464035</v>
@@ -35512,7 +35512,7 @@
         <v>-0.026210495219274498</v>
       </c>
       <c r="Y10" s="153">
-        <v>0.025661576985262616</v>
+        <v>0.025658660983581414</v>
       </c>
       <c r="Z10" s="153">
         <v>0</v>
@@ -35521,7 +35521,7 @@
         <v>0.40475231574707976</v>
       </c>
       <c r="AB10" s="153">
-        <v>1.0764889959641621</v>
+        <v>1.0763904618237834</v>
       </c>
     </row>
     <row r="11">
@@ -35557,32 +35557,32 @@
         <v>9.54962354551677</v>
       </c>
       <c r="M11" s="152">
-        <v>151248.979679504</v>
+        <v>151248.549686874</v>
       </c>
       <c r="N11" s="152">
         <v>139189</v>
       </c>
       <c r="O11" s="141">
-        <v>108.66067877297331</v>
+        <v>108.66036984580953</v>
       </c>
       <c r="P11" s="141">
-        <v>-6.9131502257095319</v>
+        <v>-6.913321299280816</v>
       </c>
       <c r="Q11" s="141">
-        <v>1.44572720792179</v>
+        <v>1.44565860486734</v>
       </c>
       <c r="R11" s="141"/>
       <c r="S11" s="141">
-        <v>0.749490815274544</v>
+        <v>0.74942221222009409</v>
       </c>
       <c r="T11" s="152">
         <v>3439.9380057981243</v>
       </c>
       <c r="U11" s="152">
-        <v>3784.047536403722</v>
+        <v>3783.6175437737197</v>
       </c>
       <c r="V11" s="152">
-        <v>7226.7123761959956</v>
+        <v>7226.2823835659947</v>
       </c>
       <c r="W11" s="153">
         <v>0.023885186329464035</v>
@@ -35591,7 +35591,7 @@
         <v>-0.026210495219274498</v>
       </c>
       <c r="Y11" s="153">
-        <v>0.025661576985262616</v>
+        <v>0.025658660983581414</v>
       </c>
       <c r="Z11" s="153">
         <v>0</v>
@@ -35600,7 +35600,7 @@
         <v>0.40475231574707976</v>
       </c>
       <c r="AB11" s="153">
-        <v>1.0764889959641621</v>
+        <v>1.0763904618237834</v>
       </c>
     </row>
     <row r="12">
@@ -35715,32 +35715,32 @@
         <v>7.52087611225188</v>
       </c>
       <c r="M13" s="152">
-        <v>-197765.141636314</v>
+        <v>-197765.571628944</v>
       </c>
       <c r="N13" s="152">
         <v>14750</v>
       </c>
       <c r="O13" s="141">
-        <v>-1340.8163331424012</v>
+        <v>-1340.8192483466723</v>
       </c>
       <c r="P13" s="141">
-        <v>3.3070747791920669</v>
+        <v>3.3071833926779255</v>
       </c>
       <c r="Q13" s="141">
-        <v>-0.57047168062713</v>
+        <v>-0.570414830169929</v>
       </c>
       <c r="R13" s="141"/>
       <c r="S13" s="141">
-        <v>2.0065852537075597</v>
+        <v>2.0066421041647606</v>
       </c>
       <c r="T13" s="152">
         <v>561.6195333879856</v>
       </c>
       <c r="U13" s="152">
-        <v>-220159.29594247864</v>
+        <v>-220159.72593510864</v>
       </c>
       <c r="V13" s="152">
-        <v>-219594.94957509649</v>
+        <v>-219595.37956772649</v>
       </c>
       <c r="W13" s="153">
         <v>0.025730180806683076</v>
@@ -35749,7 +35749,7 @@
         <v>-0.0266798541238018</v>
       </c>
       <c r="Y13" s="153">
-        <v>-9.8334186004904964</v>
+        <v>-9.8334378061184378</v>
       </c>
       <c r="Z13" s="153">
         <v>0</v>
@@ -35758,7 +35758,7 @@
         <v>0.39300202839756648</v>
       </c>
       <c r="AB13" s="153">
-        <v>-0.77863442866682075</v>
+        <v>-0.77865648889236083</v>
       </c>
     </row>
     <row r="14"/>
@@ -36063,32 +36063,32 @@
         <v>1.3305954825462</v>
       </c>
       <c r="M19" s="143">
-        <v>3234.99801265673</v>
+        <v>3234.99799955292</v>
       </c>
       <c r="N19" s="143">
         <v>3235</v>
       </c>
       <c r="O19" s="138">
-        <v>99.999938567441433</v>
+        <v>99.999938162377745</v>
       </c>
       <c r="P19" s="138">
-        <v>-4.94123281040087</v>
+        <v>-4.9410992976824382</v>
       </c>
       <c r="Q19" s="138">
-        <v>1.29688816038546</v>
+        <v>1.29685095769915</v>
       </c>
       <c r="R19" s="138"/>
       <c r="S19" s="138">
-        <v>-0.22231360901561992</v>
+        <v>-0.22235081170192994</v>
       </c>
       <c r="T19" s="143">
         <v>0.9999994887934508</v>
       </c>
       <c r="U19" s="143">
-        <v>-0.00033359008310895888</v>
+        <v>-0.00034669389339896383</v>
       </c>
       <c r="V19" s="143">
-        <v>0.999665898710191</v>
+        <v>0.99965279490015746</v>
       </c>
       <c r="W19" s="151">
         <v>0.00030921459492888067</v>
@@ -36097,7 +36097,7 @@
         <v>-0.10804974550836805</v>
       </c>
       <c r="Y19" s="151">
-        <v>-1.0311908922487829E-07</v>
+        <v>-1.0716972817039978E-07</v>
       </c>
       <c r="Z19" s="151">
         <v>0</v>
@@ -36106,7 +36106,7 @@
         <v>-0.16780821917808442</v>
       </c>
       <c r="AB19" s="151">
-        <v>-0.14633580179627054</v>
+        <v>-0.14636029010786897</v>
       </c>
     </row>
     <row r="20">
@@ -36221,32 +36221,32 @@
         <v>21.7905544147844</v>
       </c>
       <c r="M21" s="143">
-        <v>1006.99810253271</v>
+        <v>1006.99810688759</v>
       </c>
       <c r="N21" s="143">
         <v>1007</v>
       </c>
       <c r="O21" s="138">
-        <v>99.999811572265145</v>
+        <v>99.999812004725911</v>
       </c>
       <c r="P21" s="138">
-        <v>-18.193861497840885</v>
+        <v>-18.193760326134608</v>
       </c>
       <c r="Q21" s="138">
-        <v>4.27849184261994</v>
+        <v>4.27888568404327</v>
       </c>
       <c r="R21" s="138"/>
       <c r="S21" s="138">
-        <v>-2.0431863077402</v>
+        <v>-2.04279246631687</v>
       </c>
       <c r="T21" s="143">
         <v>-63.999800610797237</v>
       </c>
       <c r="U21" s="143">
-        <v>0.0012397971972195876</v>
+        <v>0.0012441520771318438</v>
       </c>
       <c r="V21" s="143">
-        <v>-63.998560813599966</v>
+        <v>-63.998556458720032</v>
       </c>
       <c r="W21" s="151">
         <v>-0.059757236227824466</v>
@@ -36255,7 +36255,7 @@
         <v>0.08471405576352134</v>
       </c>
       <c r="Y21" s="151">
-        <v>1.2311827803034773E-06</v>
+        <v>1.235507401435291E-06</v>
       </c>
       <c r="Z21" s="151">
         <v>0</v>
@@ -36264,7 +36264,7 @@
         <v>-0.13319538226965944</v>
       </c>
       <c r="AB21" s="151">
-        <v>-0.32320315257172683</v>
+        <v>-0.32314085243338336</v>
       </c>
     </row>
     <row r="22">
@@ -36300,32 +36300,32 @@
         <v>21.7905544147844</v>
       </c>
       <c r="M22" s="145">
-        <v>1006.99810253271</v>
+        <v>1006.99810688759</v>
       </c>
       <c r="N22" s="145">
         <v>1007</v>
       </c>
       <c r="O22" s="146">
-        <v>99.999811572265145</v>
+        <v>99.999812004725911</v>
       </c>
       <c r="P22" s="146">
-        <v>-18.193861497840885</v>
+        <v>-18.193760326134608</v>
       </c>
       <c r="Q22" s="146">
-        <v>4.27849184261994</v>
+        <v>4.27888568404327</v>
       </c>
       <c r="R22" s="146"/>
       <c r="S22" s="146">
-        <v>-2.0431863077402</v>
+        <v>-2.04279246631687</v>
       </c>
       <c r="T22" s="145">
         <v>-63.999800610797237</v>
       </c>
       <c r="U22" s="145">
-        <v>0.0012397971972195876</v>
+        <v>0.0012441520771318438</v>
       </c>
       <c r="V22" s="145">
-        <v>-63.998560813599966</v>
+        <v>-63.998556458720032</v>
       </c>
       <c r="W22" s="155">
         <v>-0.059757236227824466</v>
@@ -36334,7 +36334,7 @@
         <v>0.08471405576352134</v>
       </c>
       <c r="Y22" s="155">
-        <v>1.2311827803034773E-06</v>
+        <v>1.235507401435291E-06</v>
       </c>
       <c r="Z22" s="155">
         <v>0</v>
@@ -36343,7 +36343,7 @@
         <v>-0.13319538226965944</v>
       </c>
       <c r="AB22" s="155">
-        <v>-0.32320315257172683</v>
+        <v>-0.32314085243338336</v>
       </c>
     </row>
     <row r="23">
@@ -36379,32 +36379,32 @@
         <v>20.0848733744011</v>
       </c>
       <c r="M23" s="143">
-        <v>144.255512961968</v>
+        <v>144.255511987425</v>
       </c>
       <c r="N23" s="143">
         <v>144</v>
       </c>
       <c r="O23" s="138">
-        <v>100.17743955692222</v>
+        <v>100.17743888015625</v>
       </c>
       <c r="P23" s="138">
-        <v>-6.7521576815708952</v>
+        <v>-6.7522736670215426</v>
       </c>
       <c r="Q23" s="138">
-        <v>1.52968145022415</v>
+        <v>1.53016430703343</v>
       </c>
       <c r="R23" s="138"/>
       <c r="S23" s="138">
-        <v>-0.18958324558973994</v>
+        <v>-0.18910038878045987</v>
       </c>
       <c r="T23" s="143">
         <v>-31.927474492182728</v>
       </c>
       <c r="U23" s="143">
-        <v>0.58187774714572693</v>
+        <v>0.58187677260271808</v>
       </c>
       <c r="V23" s="143">
-        <v>-31.345596745037</v>
+        <v>-31.345597719580013</v>
       </c>
       <c r="W23" s="151">
         <v>-0.18181818181818182</v>
@@ -36413,7 +36413,7 @@
         <v>0.083665783069860541</v>
       </c>
       <c r="Y23" s="151">
-        <v>0.0040499966905946068</v>
+        <v>0.004049989907561607</v>
       </c>
       <c r="Z23" s="151">
         <v>0</v>
@@ -36422,7 +36422,7 @@
         <v>-0.19543759596402702</v>
       </c>
       <c r="AB23" s="151">
-        <v>-0.11026995787870368</v>
+        <v>-0.10998910711124725</v>
       </c>
     </row>
     <row r="24">
@@ -36458,32 +36458,32 @@
         <v>20.0848733744011</v>
       </c>
       <c r="M24" s="145">
-        <v>144.255512961968</v>
+        <v>144.255511987425</v>
       </c>
       <c r="N24" s="145">
         <v>144</v>
       </c>
       <c r="O24" s="146">
-        <v>100.17743955692222</v>
+        <v>100.17743888015625</v>
       </c>
       <c r="P24" s="146">
-        <v>-6.7521576815708952</v>
+        <v>-6.7522736670215426</v>
       </c>
       <c r="Q24" s="146">
-        <v>1.52968145022415</v>
+        <v>1.53016430703343</v>
       </c>
       <c r="R24" s="146"/>
       <c r="S24" s="146">
-        <v>-0.18958324558973994</v>
+        <v>-0.18910038878045987</v>
       </c>
       <c r="T24" s="145">
         <v>-31.927474492182728</v>
       </c>
       <c r="U24" s="145">
-        <v>0.58187774714572693</v>
+        <v>0.58187677260271808</v>
       </c>
       <c r="V24" s="145">
-        <v>-31.345596745037</v>
+        <v>-31.345597719580013</v>
       </c>
       <c r="W24" s="155">
         <v>-0.18181818181818182</v>
@@ -36492,7 +36492,7 @@
         <v>0.083665783069860541</v>
       </c>
       <c r="Y24" s="155">
-        <v>0.0040499966905946068</v>
+        <v>0.004049989907561607</v>
       </c>
       <c r="Z24" s="155">
         <v>0</v>
@@ -36501,7 +36501,7 @@
         <v>-0.19543759596402702</v>
       </c>
       <c r="AB24" s="155">
-        <v>-0.11026995787870368</v>
+        <v>-0.10998910711124725</v>
       </c>
     </row>
     <row r="25">
@@ -36537,32 +36537,32 @@
         <v>21.5770020533881</v>
       </c>
       <c r="M25" s="145">
-        <v>1151.25361549468</v>
+        <v>1151.25361887502</v>
       </c>
       <c r="N25" s="145">
         <v>1151</v>
       </c>
       <c r="O25" s="146">
-        <v>100.02203436096264</v>
+        <v>100.02203465464987</v>
       </c>
       <c r="P25" s="146">
-        <v>-16.760181871596618</v>
+        <v>-16.760107924225061</v>
       </c>
       <c r="Q25" s="146">
-        <v>3.93405769895832</v>
+        <v>3.93446269761319</v>
       </c>
       <c r="R25" s="146"/>
       <c r="S25" s="146">
-        <v>-1.73930474972253</v>
+        <v>-1.73889975106766</v>
       </c>
       <c r="T25" s="145">
         <v>-95.969034653663769</v>
       </c>
       <c r="U25" s="145">
-        <v>0.62487709502373689</v>
+        <v>0.62488047536382685</v>
       </c>
       <c r="V25" s="145">
-        <v>-95.344157558640063</v>
+        <v>-95.344154178299959</v>
       </c>
       <c r="W25" s="155">
         <v>-0.076984763432237369</v>
@@ -36571,7 +36571,7 @@
         <v>0.087435115585920542</v>
       </c>
       <c r="Y25" s="155">
-        <v>0.00054307447239049732</v>
+        <v>0.00054307741021047094</v>
       </c>
       <c r="Z25" s="155">
         <v>0</v>
@@ -36580,7 +36580,7 @@
         <v>-0.14084814128420442</v>
       </c>
       <c r="AB25" s="155">
-        <v>-0.30657388197134261</v>
+        <v>-0.30650249597079471</v>
       </c>
     </row>
     <row r="26">
@@ -36616,32 +36616,32 @@
         <v>6.07529089664613</v>
       </c>
       <c r="M26" s="145">
-        <v>4903.51897993619</v>
+        <v>4903.51897021271</v>
       </c>
       <c r="N26" s="145">
         <v>4898</v>
       </c>
       <c r="O26" s="146">
-        <v>100.00513429452853</v>
+        <v>100.00513409600914</v>
       </c>
       <c r="P26" s="146">
-        <v>-7.670346216997487</v>
+        <v>-7.67024078678061</v>
       </c>
       <c r="Q26" s="146">
-        <v>1.90581715064664</v>
+        <v>1.90588769598143</v>
       </c>
       <c r="R26" s="146"/>
       <c r="S26" s="146">
-        <v>-0.64668782595437024</v>
+        <v>-0.64661728061958024</v>
       </c>
       <c r="T26" s="145">
         <v>-95.992234768443268</v>
       </c>
       <c r="U26" s="145">
-        <v>0.64766633105822935</v>
+        <v>0.64765660757862487</v>
       </c>
       <c r="V26" s="145">
-        <v>-92.617734443229892</v>
+        <v>-92.6177441667096</v>
       </c>
       <c r="W26" s="155">
         <v>-0.019223067681217461</v>
@@ -36650,7 +36650,7 @@
         <v>-0.0044048118225913082</v>
       </c>
       <c r="Y26" s="155">
-        <v>0.0001322414707267051</v>
+        <v>0.00013223948537223812</v>
       </c>
       <c r="Z26" s="155">
         <v>0</v>
@@ -36659,7 +36659,7 @@
         <v>-0.18658357771261014</v>
       </c>
       <c r="AB26" s="155">
-        <v>-0.25335418809467652</v>
+        <v>-0.25332655040721391</v>
       </c>
     </row>
     <row r="27">
@@ -37112,34 +37112,34 @@
         <v>16.0136892539357</v>
       </c>
       <c r="M32" s="143">
-        <v>65484.8141474219</v>
+        <v>65484.384164516</v>
       </c>
       <c r="N32" s="143">
         <v>59409</v>
       </c>
       <c r="O32" s="138">
-        <v>110.22709378616355</v>
+        <v>110.22637001887929</v>
       </c>
       <c r="P32" s="138">
-        <v>-9.2221290421850473</v>
+        <v>-9.2225472248976672</v>
       </c>
       <c r="Q32" s="138">
-        <v>1.50706185213233</v>
+        <v>1.50689852074111</v>
       </c>
       <c r="R32" s="138">
-        <v>25.435783248364203</v>
+        <v>25.4359693284899</v>
       </c>
       <c r="S32" s="138">
-        <v>0.888101986367564</v>
+        <v>0.887938654976344</v>
       </c>
       <c r="T32" s="143">
         <v>-193.10708582410769</v>
       </c>
       <c r="U32" s="143">
-        <v>2450.2050170327052</v>
+        <v>2449.7750341268011</v>
       </c>
       <c r="V32" s="143">
-        <v>2257.0979312085983</v>
+        <v>2256.6679483026965</v>
       </c>
       <c r="W32" s="151">
         <v>-0.0030541524726871248</v>
@@ -37148,16 +37148,16 @@
         <v>0.0094366248444064816</v>
       </c>
       <c r="Y32" s="151">
-        <v>0.038870789409741147</v>
+        <v>0.0388639680315834</v>
       </c>
       <c r="Z32" s="151">
-        <v>0.050275088914839</v>
+        <v>0.050282772394394312</v>
       </c>
       <c r="AA32" s="151">
         <v>0.50089812676418088</v>
       </c>
       <c r="AB32" s="151">
-        <v>1.4348296803868776</v>
+        <v>1.4345657999638424</v>
       </c>
     </row>
     <row r="33">
@@ -37278,34 +37278,34 @@
         <v>15.917864476386</v>
       </c>
       <c r="M34" s="145">
-        <v>66127.5972396796</v>
+        <v>66127.1672567737</v>
       </c>
       <c r="N34" s="145">
         <v>60011</v>
       </c>
       <c r="O34" s="146">
-        <v>110.19246011511156</v>
+        <v>110.19174360829464</v>
       </c>
       <c r="P34" s="146">
-        <v>-9.158870276305759</v>
+        <v>-9.1592839827801242</v>
       </c>
       <c r="Q34" s="146">
-        <v>1.49904576038993</v>
+        <v>1.49888396452315</v>
       </c>
       <c r="R34" s="146">
-        <v>25.431390408971822</v>
+        <v>25.431574622435814</v>
       </c>
       <c r="S34" s="146">
-        <v>0.88265743888413106</v>
+        <v>0.882495643017351</v>
       </c>
       <c r="T34" s="145">
         <v>-126.27047126780515</v>
       </c>
       <c r="U34" s="145">
-        <v>2450.141346749</v>
+        <v>2449.7113638431015</v>
       </c>
       <c r="V34" s="145">
-        <v>2323.870875481196</v>
+        <v>2323.4408925752941</v>
       </c>
       <c r="W34" s="155">
         <v>-0.0019790454016281114</v>
@@ -37314,16 +37314,16 @@
         <v>0.0084250956118233165</v>
       </c>
       <c r="Y34" s="155">
-        <v>0.038477374957767624</v>
+        <v>0.038470622443869742</v>
       </c>
       <c r="Z34" s="155">
-        <v>0.049790733953022533</v>
+        <v>0.0497983381612258</v>
       </c>
       <c r="AA34" s="155">
         <v>0.497295905227906</v>
       </c>
       <c r="AB34" s="155">
-        <v>1.4319827421905931</v>
+        <v>1.4317202520344123</v>
       </c>
     </row>
     <row r="35">
@@ -37361,34 +37361,34 @@
         <v>15.750855578371</v>
       </c>
       <c r="M35" s="145">
-        <v>68074.601151041</v>
+        <v>68074.1711681351</v>
       </c>
       <c r="N35" s="145">
         <v>61817</v>
       </c>
       <c r="O35" s="146">
-        <v>110.12278362107674</v>
+        <v>110.12208804719592</v>
       </c>
       <c r="P35" s="146">
-        <v>-8.9949520082183589</v>
+        <v>-8.9953528468138888</v>
       </c>
       <c r="Q35" s="146">
-        <v>1.47093991505218</v>
+        <v>1.47078256921601</v>
       </c>
       <c r="R35" s="146">
-        <v>25.418777427355387</v>
+        <v>25.418956258974323</v>
       </c>
       <c r="S35" s="146">
-        <v>0.865392361418153</v>
+        <v>0.8652350155819829</v>
       </c>
       <c r="T35" s="145">
         <v>-96.574536264185753</v>
       </c>
       <c r="U35" s="145">
-        <v>2470.7757856580006</v>
+        <v>2470.3458027520951</v>
       </c>
       <c r="V35" s="145">
-        <v>2374.2012493938091</v>
+        <v>2373.7712664879073</v>
       </c>
       <c r="W35" s="155">
         <v>-0.0014699231117125135</v>
@@ -37397,16 +37397,16 @@
         <v>0.00453800187585018</v>
       </c>
       <c r="Y35" s="155">
-        <v>0.037662068818348944</v>
+        <v>0.037655514583081244</v>
       </c>
       <c r="Z35" s="155">
-        <v>0.048307562238229934</v>
+        <v>0.0483149375157795</v>
       </c>
       <c r="AA35" s="155">
         <v>0.48387928810935887</v>
       </c>
       <c r="AB35" s="155">
-        <v>1.4291071877422985</v>
+        <v>1.4288473471480696</v>
       </c>
     </row>
     <row r="36">
@@ -37693,34 +37693,34 @@
         <v>14.0561259411362</v>
       </c>
       <c r="M39" s="145">
-        <v>90094.4589631627</v>
+        <v>90094.0289802568</v>
       </c>
       <c r="N39" s="145">
         <v>81371</v>
       </c>
       <c r="O39" s="146">
-        <v>110.72059943120117</v>
+        <v>110.72007100841429</v>
       </c>
       <c r="P39" s="146">
-        <v>-9.2054241910302554</v>
+        <v>-9.2057280652704634</v>
       </c>
       <c r="Q39" s="146">
-        <v>1.77696104291952</v>
+        <v>1.7768436144545</v>
       </c>
       <c r="R39" s="146">
-        <v>19.310473807951578</v>
+        <v>19.310609665126591</v>
       </c>
       <c r="S39" s="146">
-        <v>1.04319131735001</v>
+        <v>1.0430738888849898</v>
       </c>
       <c r="T39" s="145">
         <v>-6.4216078786651511</v>
       </c>
       <c r="U39" s="145">
-        <v>3005.6831792071725</v>
+        <v>3005.2531963012675</v>
       </c>
       <c r="V39" s="145">
-        <v>2999.2615713285049</v>
+        <v>2998.8315884226031</v>
       </c>
       <c r="W39" s="155">
         <v>-7.3730906766016738E-05</v>
@@ -37729,16 +37729,16 @@
         <v>0.0014946993125793261</v>
       </c>
       <c r="Y39" s="155">
-        <v>0.034512865201636156</v>
+        <v>0.0345079279074552</v>
       </c>
       <c r="Z39" s="155">
-        <v>0.046843815468069233</v>
+        <v>0.0468511804475547</v>
       </c>
       <c r="AA39" s="155">
         <v>0.43487982112912138</v>
       </c>
       <c r="AB39" s="155">
-        <v>1.4216875962555482</v>
+        <v>1.4215275617638976</v>
       </c>
     </row>
     <row r="40">
@@ -38357,34 +38357,34 @@
         <v>12.4928131416838</v>
       </c>
       <c r="M47" s="145">
-        <v>110420.255938736</v>
+        <v>110419.82595583</v>
       </c>
       <c r="N47" s="145">
         <v>98366</v>
       </c>
       <c r="O47" s="146">
-        <v>112.25449437685379</v>
+        <v>112.25405725131651</v>
       </c>
       <c r="P47" s="146">
-        <v>-9.1270373570186152</v>
+        <v>-9.1272849896272472</v>
       </c>
       <c r="Q47" s="146">
-        <v>1.89140298375031</v>
+        <v>1.89130761685967</v>
       </c>
       <c r="R47" s="146">
-        <v>17.429300909052664</v>
+        <v>17.429413293760671</v>
       </c>
       <c r="S47" s="146">
-        <v>1.0935400703352169</v>
+        <v>1.0934447034445771</v>
       </c>
       <c r="T47" s="145">
         <v>-1564.1008881843911</v>
       </c>
       <c r="U47" s="145">
-        <v>4093.8233422213789</v>
+        <v>4093.3933593153834</v>
       </c>
       <c r="V47" s="145">
-        <v>2529.7224540369934</v>
+        <v>2529.2924711310043</v>
       </c>
       <c r="W47" s="155">
         <v>-0.014497109594941536</v>
@@ -38393,16 +38393,16 @@
         <v>0.009808561285562567</v>
       </c>
       <c r="Y47" s="155">
-        <v>0.038502404738401566</v>
+        <v>0.038498360749569291</v>
       </c>
       <c r="Z47" s="155">
-        <v>0.023637143860822871</v>
+        <v>0.023643744306940506</v>
       </c>
       <c r="AA47" s="155">
         <v>0.44949174078780535</v>
       </c>
       <c r="AB47" s="155">
-        <v>1.3705864152208014</v>
+        <v>1.3704668873056216</v>
       </c>
     </row>
     <row r="48">
@@ -38754,32 +38754,32 @@
         <v>9.54962354551677</v>
       </c>
       <c r="M52" s="145">
-        <v>151248.979679504</v>
+        <v>151248.549686874</v>
       </c>
       <c r="N52" s="145">
         <v>139189</v>
       </c>
       <c r="O52" s="146">
-        <v>108.66067877297331</v>
+        <v>108.66036984580953</v>
       </c>
       <c r="P52" s="146">
-        <v>-6.9131502257095319</v>
+        <v>-6.913321299280816</v>
       </c>
       <c r="Q52" s="146">
-        <v>1.44572720792179</v>
+        <v>1.44565860486734</v>
       </c>
       <c r="R52" s="146"/>
       <c r="S52" s="146">
-        <v>0.749490815274544</v>
+        <v>0.74942221222009409</v>
       </c>
       <c r="T52" s="145">
         <v>3439.9380057981243</v>
       </c>
       <c r="U52" s="145">
-        <v>3784.047536403722</v>
+        <v>3783.6175437737197</v>
       </c>
       <c r="V52" s="145">
-        <v>7226.7123761959956</v>
+        <v>7226.2823835659947</v>
       </c>
       <c r="W52" s="155">
         <v>0.023885186329464035</v>
@@ -38788,7 +38788,7 @@
         <v>-0.026210495219274498</v>
       </c>
       <c r="Y52" s="155">
-        <v>0.025661576985262616</v>
+        <v>0.025658660983581414</v>
       </c>
       <c r="Z52" s="155">
         <v>0</v>
@@ -38797,7 +38797,7 @@
         <v>0.40475231574707976</v>
       </c>
       <c r="AB52" s="155">
-        <v>1.0764889959641621</v>
+        <v>1.0763904618237834</v>
       </c>
     </row>
     <row r="53"/>
@@ -39628,32 +39628,32 @@
         <v>7.52087611225188</v>
       </c>
       <c r="M66" s="145">
-        <v>-197765.141636314</v>
+        <v>-197765.571628944</v>
       </c>
       <c r="N66" s="145">
         <v>14750</v>
       </c>
       <c r="O66" s="146">
-        <v>-1340.8163331424012</v>
+        <v>-1340.8192483466723</v>
       </c>
       <c r="P66" s="146">
-        <v>3.3070747791920669</v>
+        <v>3.3071833926779255</v>
       </c>
       <c r="Q66" s="146">
-        <v>-0.57047168062713</v>
+        <v>-0.570414830169929</v>
       </c>
       <c r="R66" s="146"/>
       <c r="S66" s="146">
-        <v>2.0065852537075597</v>
+        <v>2.0066421041647606</v>
       </c>
       <c r="T66" s="145">
         <v>561.6195333879856</v>
       </c>
       <c r="U66" s="145">
-        <v>-220159.29594247864</v>
+        <v>-220159.72593510864</v>
       </c>
       <c r="V66" s="145">
-        <v>-219594.94957509649</v>
+        <v>-219595.37956772649</v>
       </c>
       <c r="W66" s="155">
         <v>0.025730180806683076</v>
@@ -39662,7 +39662,7 @@
         <v>-0.0266798541238018</v>
       </c>
       <c r="Y66" s="155">
-        <v>-9.8334186004904964</v>
+        <v>-9.8334378061184378</v>
       </c>
       <c r="Z66" s="155">
         <v>0</v>
@@ -39671,7 +39671,7 @@
         <v>0.39300202839756648</v>
       </c>
       <c r="AB66" s="155">
-        <v>-0.77863442866682075</v>
+        <v>-0.77865648889236083</v>
       </c>
     </row>
     <row r="67">
@@ -40035,19 +40035,19 @@
         <v>6367.14923083544</v>
       </c>
       <c r="D19" s="123">
-        <v>1017.6222885679</v>
+        <v>1017.6223577887599</v>
       </c>
       <c r="E19" s="123">
-        <v>-5349.52694226754</v>
+        <v>-5349.52687304668</v>
       </c>
       <c r="F19" s="123">
         <v>6434.44406009928</v>
       </c>
       <c r="G19" s="123">
-        <v>1048.92178056308</v>
+        <v>1048.9220263066202</v>
       </c>
       <c r="H19" s="123">
-        <v>-5385.5222795362006</v>
+        <v>-5385.52203379266</v>
       </c>
     </row>
     <row r="20">
@@ -40058,19 +40058,19 @@
         <v>24168.6717877876</v>
       </c>
       <c r="D20" s="123">
-        <v>32714.5171494389</v>
+        <v>32714.5193747505</v>
       </c>
       <c r="E20" s="123">
-        <v>8545.8453616512979</v>
+        <v>8545.8475869628965</v>
       </c>
       <c r="F20" s="123">
         <v>24424.112108491303</v>
       </c>
       <c r="G20" s="123">
-        <v>33720.7330894278</v>
+        <v>33720.740989589896</v>
       </c>
       <c r="H20" s="123">
-        <v>9296.6209809364973</v>
+        <v>9296.6288810985989</v>
       </c>
     </row>
     <row r="21">
@@ -40081,19 +40081,19 @@
         <v>30535.821018623</v>
       </c>
       <c r="D21" s="161">
-        <v>33732.1394380068</v>
+        <v>33732.141732539305</v>
       </c>
       <c r="E21" s="161">
-        <v>3196.3184193838051</v>
+        <v>3196.3207139163055</v>
       </c>
       <c r="F21" s="161">
         <v>30858.5561685905</v>
       </c>
       <c r="G21" s="161">
-        <v>34769.6548699909</v>
+        <v>34769.6630158965</v>
       </c>
       <c r="H21" s="161">
-        <v>3911.098701400399</v>
+        <v>3911.1068473059981</v>
       </c>
     </row>
     <row r="22">
@@ -40573,10 +40573,10 @@
         <v>81377</v>
       </c>
       <c r="G42" s="161">
-        <v>81371</v>
+        <v>81371.0000000001</v>
       </c>
       <c r="H42" s="161">
-        <v>-6</v>
+        <v>-5.9999999998956914</v>
       </c>
     </row>
     <row r="43">
@@ -40863,19 +40863,19 @@
         <v>136973.82101862298</v>
       </c>
       <c r="D55" s="161">
-        <v>140668.139438007</v>
+        <v>140668.141732539</v>
       </c>
       <c r="E55" s="161">
-        <v>3694.3184193840025</v>
+        <v>3694.3207139160036</v>
       </c>
       <c r="F55" s="161">
         <v>137296.556168591</v>
       </c>
       <c r="G55" s="161">
-        <v>141705.654869991</v>
+        <v>141705.663015897</v>
       </c>
       <c r="H55" s="161">
-        <v>4409.098701400012</v>
+        <v>4409.1068473060132</v>
       </c>
     </row>
     <row r="56"/>
@@ -41095,19 +41095,19 @@
         <v>15411.821018623</v>
       </c>
       <c r="D67" s="161">
-        <v>16229.1394380068</v>
+        <v>16229.141732539401</v>
       </c>
       <c r="E67" s="161">
-        <v>817.31841938379966</v>
+        <v>817.32071391640045</v>
       </c>
       <c r="F67" s="161">
         <v>15734.5561685906</v>
       </c>
       <c r="G67" s="161">
-        <v>17266.6548699909</v>
+        <v>17266.663015896498</v>
       </c>
       <c r="H67" s="161">
-        <v>1532.0987014003006</v>
+        <v>1532.1068473058995</v>
       </c>
     </row>
     <row r="68">
@@ -41204,19 +41204,19 @@
         <v>23479.053664279472</v>
       </c>
       <c r="D74" s="123">
-        <v>26027.438066065748</v>
+        <v>26027.438730358164</v>
       </c>
       <c r="E74" s="123">
-        <v>2548.3844017862757</v>
+        <v>2548.385066078692</v>
       </c>
       <c r="F74" s="123">
         <v>112061.6792646602</v>
       </c>
       <c r="G74" s="123">
-        <v>152947.52461324778</v>
+        <v>152947.54752501467</v>
       </c>
       <c r="H74" s="123">
-        <v>40885.84534858758</v>
+        <v>40885.868260354473</v>
       </c>
     </row>
     <row r="75">
@@ -41227,19 +41227,19 @@
         <v>23479.053664279472</v>
       </c>
       <c r="D75" s="161">
-        <v>26027.438066065748</v>
+        <v>26027.438730358164</v>
       </c>
       <c r="E75" s="161">
-        <v>2548.3844017862757</v>
+        <v>2548.385066078692</v>
       </c>
       <c r="F75" s="161">
         <v>112061.6792646602</v>
       </c>
       <c r="G75" s="161">
-        <v>152947.52461324778</v>
+        <v>152947.54752501467</v>
       </c>
       <c r="H75" s="161">
-        <v>40885.84534858758</v>
+        <v>40885.868260354473</v>
       </c>
     </row>
     <row r="76">
@@ -41296,19 +41296,19 @@
         <v>23527.157289605428</v>
       </c>
       <c r="D78" s="123">
-        <v>23786.545695739056</v>
+        <v>23786.570393968988</v>
       </c>
       <c r="E78" s="123">
-        <v>259.38840613362845</v>
+        <v>259.41310436356071</v>
       </c>
       <c r="F78" s="123">
         <v>23375.059270046942</v>
       </c>
       <c r="G78" s="123">
-        <v>23312.730573469318</v>
+        <v>23312.767439050407</v>
       </c>
       <c r="H78" s="123">
-        <v>-62.328696577624214</v>
+        <v>-62.291830996535282</v>
       </c>
     </row>
     <row r="79">
@@ -41319,19 +41319,19 @@
         <v>23527.157289605428</v>
       </c>
       <c r="D79" s="161">
-        <v>23786.545695739056</v>
+        <v>23786.570393968988</v>
       </c>
       <c r="E79" s="161">
-        <v>259.38840613362845</v>
+        <v>259.41310436356071</v>
       </c>
       <c r="F79" s="161">
         <v>23375.059270046942</v>
       </c>
       <c r="G79" s="161">
-        <v>23312.730573469318</v>
+        <v>23312.767439050407</v>
       </c>
       <c r="H79" s="161">
-        <v>-62.328696577624214</v>
+        <v>-62.291830996535282</v>
       </c>
     </row>
     <row r="80">
@@ -41342,19 +41342,19 @@
         <v>3229.2063024960075</v>
       </c>
       <c r="D80" s="123">
-        <v>2907.7875989717791</v>
+        <v>2907.4241195162745</v>
       </c>
       <c r="E80" s="123">
-        <v>-321.41870352422848</v>
+        <v>-321.78218297973308</v>
       </c>
       <c r="F80" s="123">
         <v>3178.330893275378</v>
       </c>
       <c r="G80" s="123">
-        <v>3111.6658934874863</v>
+        <v>3111.6494158444261</v>
       </c>
       <c r="H80" s="123">
-        <v>-66.6649997878917</v>
+        <v>-66.681477430951873</v>
       </c>
     </row>
     <row r="81">
@@ -41365,19 +41365,19 @@
         <v>3229.2063024960075</v>
       </c>
       <c r="D81" s="161">
-        <v>2907.7875989717791</v>
+        <v>2907.4241195162745</v>
       </c>
       <c r="E81" s="161">
-        <v>-321.41870352422848</v>
+        <v>-321.78218297973308</v>
       </c>
       <c r="F81" s="161">
         <v>3178.330893275378</v>
       </c>
       <c r="G81" s="161">
-        <v>3111.6658934874863</v>
+        <v>3111.6494158444261</v>
       </c>
       <c r="H81" s="161">
-        <v>-66.6649997878917</v>
+        <v>-66.681477430951873</v>
       </c>
     </row>
     <row r="82">
@@ -41388,19 +41388,19 @@
         <v>26756.36359210145</v>
       </c>
       <c r="D82" s="161">
-        <v>26694.333294710832</v>
+        <v>26693.994513485264</v>
       </c>
       <c r="E82" s="161">
-        <v>-62.030297390618216</v>
+        <v>-62.369078616186016</v>
       </c>
       <c r="F82" s="161">
         <v>26553.390163322321</v>
       </c>
       <c r="G82" s="161">
-        <v>26424.39646695683</v>
+        <v>26424.41685489484</v>
       </c>
       <c r="H82" s="161">
-        <v>-128.99369636549091</v>
+        <v>-128.97330842748124</v>
       </c>
     </row>
     <row r="83">
@@ -41411,19 +41411,19 @@
         <v>55488.5703326387</v>
       </c>
       <c r="D83" s="161">
-        <v>65151.030647527878</v>
+        <v>65150.69186630231</v>
       </c>
       <c r="E83" s="161">
-        <v>9662.4603148891765</v>
+        <v>9662.1215336636087</v>
       </c>
       <c r="F83" s="161">
         <v>73435.981553489575</v>
       </c>
       <c r="G83" s="161">
-        <v>71774.695055871416</v>
+        <v>71774.715443809415</v>
       </c>
       <c r="H83" s="161">
-        <v>-1661.2864976181591</v>
+        <v>-1661.2661096801603</v>
       </c>
     </row>
     <row r="84">
@@ -41549,19 +41549,19 @@
         <v>3026791.605144673</v>
       </c>
       <c r="D89" s="123">
-        <v>3319506.090454475</v>
+        <v>3319509.3202982186</v>
       </c>
       <c r="E89" s="123">
-        <v>292714.485309802</v>
+        <v>292717.71515354561</v>
       </c>
       <c r="F89" s="123">
         <v>2365778.8214944387</v>
       </c>
       <c r="G89" s="123">
-        <v>2821972.269097263</v>
+        <v>2821979.60034087</v>
       </c>
       <c r="H89" s="123">
-        <v>456193.44760282431</v>
+        <v>456200.77884643152</v>
       </c>
     </row>
     <row r="90">
@@ -41595,19 +41595,19 @@
         <v>3058056.1393762259</v>
       </c>
       <c r="D91" s="161">
-        <v>3351562.5201874473</v>
+        <v>3351565.75003119</v>
       </c>
       <c r="E91" s="161">
-        <v>293506.38081122143</v>
+        <v>293509.61065496411</v>
       </c>
       <c r="F91" s="161">
         <v>2393111.2193495366</v>
       </c>
       <c r="G91" s="161">
-        <v>2850796.3818543116</v>
+        <v>2850803.7130979165</v>
       </c>
       <c r="H91" s="161">
-        <v>457685.162504775</v>
+        <v>457692.49374837987</v>
       </c>
     </row>
     <row r="92">
@@ -41618,19 +41618,19 @@
         <v>3144678.5597541421</v>
       </c>
       <c r="D92" s="161">
-        <v>3428255.87787803</v>
+        <v>3428259.1077217716</v>
       </c>
       <c r="E92" s="161">
-        <v>283577.31812388776</v>
+        <v>283580.54796762951</v>
       </c>
       <c r="F92" s="161">
         <v>2479983.265109052</v>
       </c>
       <c r="G92" s="161">
-        <v>2939287.4483514745</v>
+        <v>2939294.7795950794</v>
       </c>
       <c r="H92" s="161">
-        <v>459304.18324242253</v>
+        <v>459311.51448602742</v>
       </c>
     </row>
     <row r="93">
@@ -41710,19 +41710,19 @@
         <v>4114836.620818146</v>
       </c>
       <c r="D96" s="161">
-        <v>4387700.6208760962</v>
+        <v>4387703.85071984</v>
       </c>
       <c r="E96" s="161">
-        <v>272864.00005795015</v>
+        <v>272867.22990169423</v>
       </c>
       <c r="F96" s="161">
         <v>3416863.1390649141</v>
       </c>
       <c r="G96" s="161">
-        <v>3863168.3949893527</v>
+        <v>3863175.7262329594</v>
       </c>
       <c r="H96" s="161">
-        <v>446305.25592443859</v>
+        <v>446312.58716804534</v>
       </c>
     </row>
     <row r="97">
@@ -41894,19 +41894,19 @@
         <v>5580628.0368955918</v>
       </c>
       <c r="D104" s="161">
-        <v>5834749.0433665821</v>
+        <v>5834752.2732103234</v>
       </c>
       <c r="E104" s="161">
-        <v>254121.00647099037</v>
+        <v>254124.23631473165</v>
       </c>
       <c r="F104" s="161">
         <v>4619264.9554114491</v>
       </c>
       <c r="G104" s="161">
-        <v>5123200.1940321308</v>
+        <v>5123207.525275737</v>
       </c>
       <c r="H104" s="161">
-        <v>503935.23862068169</v>
+        <v>503942.569864288</v>
       </c>
     </row>
     <row r="105">
@@ -42009,19 +42009,19 @@
         <v>5659595.6608925126</v>
       </c>
       <c r="D109" s="161">
-        <v>5925927.5120801767</v>
+        <v>5925930.4038069816</v>
       </c>
       <c r="E109" s="161">
-        <v>266331.85118766408</v>
+        <v>266334.742914469</v>
       </c>
       <c r="F109" s="161">
         <v>4804762.6162295984</v>
       </c>
       <c r="G109" s="161">
-        <v>5347922.4137012511</v>
+        <v>5347929.7882445632</v>
       </c>
       <c r="H109" s="161">
-        <v>543159.79747165274</v>
+        <v>543167.17201496474</v>
       </c>
     </row>
     <row r="110"/>
@@ -42241,19 +42241,19 @@
         <v>5076748.0326111335</v>
       </c>
       <c r="D121" s="161">
-        <v>5622915.3881130489</v>
+        <v>5622918.2798398612</v>
       </c>
       <c r="E121" s="161">
-        <v>546167.35550191533</v>
+        <v>546170.24722872768</v>
       </c>
       <c r="F121" s="161">
         <v>4185599.5875328616</v>
       </c>
       <c r="G121" s="161">
-        <v>5066309.9850794757</v>
+        <v>5066317.3596227868</v>
       </c>
       <c r="H121" s="161">
-        <v>880710.397546614</v>
+        <v>880717.77208992513</v>
       </c>
     </row>
     <row r="122">
@@ -42446,19 +42446,19 @@
         <v>2.196746712381461</v>
       </c>
       <c r="D132" s="122">
-        <v>2.362119731453729</v>
+        <v>2.362122184108141</v>
       </c>
       <c r="E132" s="122">
-        <v>0.16537301907226798</v>
+        <v>0.16537547172668</v>
       </c>
       <c r="F132" s="122">
         <v>2.1825452166243644</v>
       </c>
       <c r="G132" s="122">
-        <v>2.3150675842571329</v>
+        <v>2.3150712451887205</v>
       </c>
       <c r="H132" s="122">
-        <v>0.13252236763276848</v>
+        <v>0.13252602856435614</v>
       </c>
     </row>
     <row r="133">
@@ -42469,19 +42469,19 @@
         <v>2.196746712381461</v>
       </c>
       <c r="D133" s="162">
-        <v>2.362119731453729</v>
+        <v>2.362122184108141</v>
       </c>
       <c r="E133" s="162">
-        <v>0.16537301907226798</v>
+        <v>0.16537547172668</v>
       </c>
       <c r="F133" s="162">
         <v>2.1825452166243644</v>
       </c>
       <c r="G133" s="162">
-        <v>2.3150675842571329</v>
+        <v>2.3150712451887205</v>
       </c>
       <c r="H133" s="162">
-        <v>0.13252236763276848</v>
+        <v>0.13252602856435614</v>
       </c>
     </row>
     <row r="134">
@@ -42492,19 +42492,19 @@
         <v>1.8347763082363662</v>
       </c>
       <c r="D134" s="122">
-        <v>2.0192969437304011</v>
+        <v>2.0190445274418551</v>
       </c>
       <c r="E134" s="122">
-        <v>0.18452063549403497</v>
+        <v>0.18426821920548897</v>
       </c>
       <c r="F134" s="122">
         <v>1.8058698257246466</v>
       </c>
       <c r="G134" s="122">
-        <v>2.1608790926996391</v>
+        <v>2.16086764989196</v>
       </c>
       <c r="H134" s="122">
-        <v>0.35500926697499247</v>
+        <v>0.35499782416731329</v>
       </c>
     </row>
     <row r="135">
@@ -42515,19 +42515,19 @@
         <v>1.8347763082363662</v>
       </c>
       <c r="D135" s="162">
-        <v>2.0192969437304011</v>
+        <v>2.0190445274418551</v>
       </c>
       <c r="E135" s="162">
-        <v>0.18452063549403497</v>
+        <v>0.18426821920548897</v>
       </c>
       <c r="F135" s="162">
         <v>1.8058698257246466</v>
       </c>
       <c r="G135" s="162">
-        <v>2.1608790926996391</v>
+        <v>2.16086764989196</v>
       </c>
       <c r="H135" s="162">
-        <v>0.35500926697499247</v>
+        <v>0.35499782416731329</v>
       </c>
     </row>
     <row r="136">
@@ -42538,19 +42538,19 @@
         <v>2.1456586681717273</v>
       </c>
       <c r="D136" s="162">
-        <v>2.3192296520165785</v>
+        <v>2.3192002183740441</v>
       </c>
       <c r="E136" s="162">
-        <v>0.17357098384485115</v>
+        <v>0.17354155020231676</v>
       </c>
       <c r="F136" s="162">
         <v>2.1293817292159032</v>
       </c>
       <c r="G136" s="162">
-        <v>2.2957772777547185</v>
+        <v>2.2957790490786136</v>
       </c>
       <c r="H136" s="162">
-        <v>0.16639554853881533</v>
+        <v>0.16639731986271045</v>
       </c>
     </row>
     <row r="137">
@@ -42561,19 +42561,19 @@
         <v>1.1111047323315748</v>
       </c>
       <c r="D137" s="162">
-        <v>1.3301557910887671</v>
+        <v>1.3301488743630514</v>
       </c>
       <c r="E137" s="162">
-        <v>0.21905105875719233</v>
+        <v>0.2190441420314766</v>
       </c>
       <c r="F137" s="162">
         <v>1.4704842121243431</v>
       </c>
       <c r="G137" s="162">
-        <v>1.4653878124922708</v>
+        <v>1.4653882287425359</v>
       </c>
       <c r="H137" s="162">
-        <v>-0.0050963996320723126</v>
+        <v>-0.0050959833818071676</v>
       </c>
     </row>
     <row r="138">
@@ -42699,19 +42699,19 @@
         <v>5.0792764094320786</v>
       </c>
       <c r="D143" s="122">
-        <v>5.5875474935691116</v>
+        <v>5.5875529301927562</v>
       </c>
       <c r="E143" s="122">
-        <v>0.508271084137033</v>
+        <v>0.50827652076067764</v>
       </c>
       <c r="F143" s="122">
         <v>3.9700270535725815</v>
       </c>
       <c r="G143" s="122">
-        <v>4.7500753574328138</v>
+        <v>4.7500876977240276</v>
       </c>
       <c r="H143" s="122">
-        <v>0.78004830386023238</v>
+        <v>0.78006064415144616</v>
       </c>
     </row>
     <row r="144">
@@ -42745,19 +42745,19 @@
         <v>5.0857411265195829</v>
       </c>
       <c r="D145" s="162">
-        <v>5.5849136328130582</v>
+        <v>5.5849190148992429</v>
       </c>
       <c r="E145" s="162">
-        <v>0.49917250629347532</v>
+        <v>0.49917788837966004</v>
       </c>
       <c r="F145" s="162">
         <v>3.9798955918003238</v>
       </c>
       <c r="G145" s="162">
-        <v>4.7504563860863973</v>
+        <v>4.7504686025860527</v>
       </c>
       <c r="H145" s="162">
-        <v>0.77056079428607349</v>
+        <v>0.77057301078572893</v>
       </c>
     </row>
     <row r="146">
@@ -42768,19 +42768,19 @@
         <v>5.0795996636204377</v>
       </c>
       <c r="D146" s="162">
-        <v>5.5458140606597324</v>
+        <v>5.5458192855068473</v>
       </c>
       <c r="E146" s="162">
-        <v>0.46621439703929468</v>
+        <v>0.46621962188640964</v>
       </c>
       <c r="F146" s="162">
         <v>4.00591727258036</v>
       </c>
       <c r="G146" s="162">
-        <v>4.7548205968446711</v>
+        <v>4.7548324564360573</v>
       </c>
       <c r="H146" s="162">
-        <v>0.74890332426431083</v>
+        <v>0.74891518385569711</v>
       </c>
     </row>
     <row r="147">
@@ -42860,19 +42860,19 @@
         <v>5.0565105875347394</v>
       </c>
       <c r="D150" s="162">
-        <v>5.3922166630324</v>
+        <v>5.3922206323135216</v>
       </c>
       <c r="E150" s="162">
-        <v>0.33570607549766063</v>
+        <v>0.33571004477878219</v>
       </c>
       <c r="F150" s="162">
         <v>4.1988069590485173</v>
       </c>
       <c r="G150" s="162">
-        <v>4.7475985240311038</v>
+        <v>4.747607533682709</v>
       </c>
       <c r="H150" s="162">
-        <v>0.54879156498258652</v>
+        <v>0.54880057463419174</v>
       </c>
     </row>
     <row r="151">
@@ -43044,19 +43044,19 @@
         <v>5.5910833627839951</v>
       </c>
       <c r="D158" s="162">
-        <v>5.9316725732128743</v>
+        <v>5.9316758567089449</v>
       </c>
       <c r="E158" s="162">
-        <v>0.34058921042887924</v>
+        <v>0.34059249392494984</v>
       </c>
       <c r="F158" s="162">
         <v>4.6279191642485911</v>
       </c>
       <c r="G158" s="162">
-        <v>5.208303879421881</v>
+        <v>5.2083113324479342</v>
       </c>
       <c r="H158" s="162">
-        <v>0.58038471517328993</v>
+        <v>0.58039216819934314</v>
       </c>
     </row>
     <row r="159">
@@ -43159,19 +43159,19 @@
         <v>4.1472298212816989</v>
       </c>
       <c r="D163" s="162">
-        <v>4.2362946164791433</v>
+        <v>4.2362966650167211</v>
       </c>
       <c r="E163" s="162">
-        <v>0.089064795197444369</v>
+        <v>0.089066843735022161</v>
       </c>
       <c r="F163" s="162">
         <v>3.5029495557941708</v>
       </c>
       <c r="G163" s="162">
-        <v>3.7883397306442084</v>
+        <v>3.7883448263646358</v>
       </c>
       <c r="H163" s="162">
-        <v>0.28539017485003759</v>
+        <v>0.285395270570465</v>
       </c>
     </row>
     <row r="164"/>
@@ -43453,19 +43453,19 @@
         <v>75403.23478216</v>
       </c>
       <c r="D179" s="123">
-        <v>11978.096526819158</v>
+        <v>11978.096753824759</v>
       </c>
       <c r="E179" s="123">
-        <v>-63425.13825534084</v>
+        <v>-63425.138028335241</v>
       </c>
       <c r="F179" s="123">
         <v>76953.898800118666</v>
       </c>
       <c r="G179" s="123">
-        <v>12425.869845862759</v>
+        <v>12425.871742378102</v>
       </c>
       <c r="H179" s="123">
-        <v>-64528.028954255911</v>
+        <v>-64528.027057740568</v>
       </c>
     </row>
     <row r="180">
@@ -43476,19 +43476,19 @@
         <v>286218.52058403764</v>
       </c>
       <c r="D180" s="123">
-        <v>385071.79790226452</v>
+        <v>385071.805200039</v>
       </c>
       <c r="E180" s="123">
-        <v>98853.277318226872</v>
+        <v>98853.284616001372</v>
       </c>
       <c r="F180" s="123">
         <v>292104.59115415631</v>
       </c>
       <c r="G180" s="123">
-        <v>399466.81272208324</v>
+        <v>399466.87369125045</v>
       </c>
       <c r="H180" s="123">
-        <v>107362.22156792689</v>
+        <v>107362.28253709411</v>
       </c>
     </row>
     <row r="181">
@@ -43499,19 +43499,19 @@
         <v>361621.75536619761</v>
       </c>
       <c r="D181" s="161">
-        <v>397049.89442908403</v>
+        <v>397049.90195386379</v>
       </c>
       <c r="E181" s="161">
-        <v>35428.139062886417</v>
+        <v>35428.146587666211</v>
       </c>
       <c r="F181" s="161">
         <v>369058.489954275</v>
       </c>
       <c r="G181" s="161">
-        <v>411892.68256794609</v>
+        <v>411892.74543362856</v>
       </c>
       <c r="H181" s="161">
-        <v>42834.192613671061</v>
+        <v>42834.255479353546</v>
       </c>
     </row>
     <row r="182">
@@ -43568,19 +43568,19 @@
         <v>87.541946596668666</v>
       </c>
       <c r="D184" s="123">
-        <v>147.7196052134876</v>
+        <v>147.70085608411691</v>
       </c>
       <c r="E184" s="123">
-        <v>60.177658616818938</v>
+        <v>60.158909487448241</v>
       </c>
       <c r="F184" s="123">
         <v>102.39323410788705</v>
       </c>
       <c r="G184" s="123">
-        <v>144.09073230664518</v>
+        <v>144.0786230736376</v>
       </c>
       <c r="H184" s="123">
-        <v>41.69749819875814</v>
+        <v>41.685388965750548</v>
       </c>
     </row>
     <row r="185">
@@ -43591,19 +43591,19 @@
         <v>87.541946596668666</v>
       </c>
       <c r="D185" s="161">
-        <v>147.7196052134876</v>
+        <v>147.70085608411691</v>
       </c>
       <c r="E185" s="161">
-        <v>60.177658616818938</v>
+        <v>60.158909487448241</v>
       </c>
       <c r="F185" s="161">
         <v>102.39323410788705</v>
       </c>
       <c r="G185" s="161">
-        <v>144.09073230664518</v>
+        <v>144.0786230736376</v>
       </c>
       <c r="H185" s="161">
-        <v>41.69749819875814</v>
+        <v>41.685388965750548</v>
       </c>
     </row>
     <row r="186">
@@ -43614,19 +43614,19 @@
         <v>20.782533801928633</v>
       </c>
       <c r="D186" s="123">
-        <v>20.304217291510056</v>
+        <v>20.301039207650113</v>
       </c>
       <c r="E186" s="123">
-        <v>-0.47831651041857548</v>
+        <v>-0.48149459427851982</v>
       </c>
       <c r="F186" s="123">
         <v>20.085780624404666</v>
       </c>
       <c r="G186" s="123">
-        <v>20.864413722253762</v>
+        <v>20.860029312902764</v>
       </c>
       <c r="H186" s="123">
-        <v>0.77863309784909507</v>
+        <v>0.77424868849809714</v>
       </c>
     </row>
     <row r="187">
@@ -43637,19 +43637,19 @@
         <v>20.782533801928633</v>
       </c>
       <c r="D187" s="161">
-        <v>20.304217291510056</v>
+        <v>20.301039207650113</v>
       </c>
       <c r="E187" s="161">
-        <v>-0.47831651041857548</v>
+        <v>-0.48149459427851982</v>
       </c>
       <c r="F187" s="161">
         <v>20.085780624404666</v>
       </c>
       <c r="G187" s="161">
-        <v>20.864413722253762</v>
+        <v>20.860029312902764</v>
       </c>
       <c r="H187" s="161">
-        <v>0.77863309784909507</v>
+        <v>0.77424868849809714</v>
       </c>
     </row>
     <row r="188">
@@ -43660,19 +43660,19 @@
         <v>108.32448039859726</v>
       </c>
       <c r="D188" s="161">
-        <v>168.02382250499741</v>
+        <v>168.00189529176717</v>
       </c>
       <c r="E188" s="161">
-        <v>59.699342106400145</v>
+        <v>59.677414893169917</v>
       </c>
       <c r="F188" s="161">
         <v>122.47901473229173</v>
       </c>
       <c r="G188" s="161">
-        <v>164.95514602889912</v>
+        <v>164.93865238654041</v>
       </c>
       <c r="H188" s="161">
-        <v>42.476131296607392</v>
+        <v>42.459637654248667</v>
       </c>
     </row>
     <row r="189">
@@ -43683,19 +43683,19 @@
         <v>2102.7576541088665</v>
       </c>
       <c r="D189" s="161">
-        <v>2167.8794210571336</v>
+        <v>2167.8574938439042</v>
       </c>
       <c r="E189" s="161">
-        <v>65.121766948266881</v>
+        <v>65.099839735037648</v>
       </c>
       <c r="F189" s="161">
         <v>718.06187896223855</v>
       </c>
       <c r="G189" s="161">
-        <v>761.92500363524948</v>
+        <v>761.90850999289069</v>
       </c>
       <c r="H189" s="161">
-        <v>43.8631246730109</v>
+        <v>43.846631030652091</v>
       </c>
     </row>
     <row r="190">
@@ -43715,10 +43715,10 @@
         <v>367.600314688347</v>
       </c>
       <c r="G190" s="123">
-        <v>646.02709540815715</v>
+        <v>646.02709540807712</v>
       </c>
       <c r="H190" s="123">
-        <v>278.4267807198101</v>
+        <v>278.42678071973012</v>
       </c>
     </row>
     <row r="191">
@@ -43738,10 +43738,10 @@
         <v>374.40126927699566</v>
       </c>
       <c r="G191" s="123">
-        <v>472.34919295931024</v>
+        <v>472.34919295925175</v>
       </c>
       <c r="H191" s="123">
-        <v>97.947923682314581</v>
+        <v>97.947923682256075</v>
       </c>
     </row>
     <row r="192">
@@ -43761,10 +43761,10 @@
         <v>742.00158396534187</v>
       </c>
       <c r="G192" s="161">
-        <v>1118.3762883674665</v>
+        <v>1118.3762883673282</v>
       </c>
       <c r="H192" s="161">
-        <v>376.37470440212462</v>
+        <v>376.37470440198632</v>
       </c>
     </row>
     <row r="193">
@@ -43784,10 +43784,10 @@
         <v>1117.9372520155616</v>
       </c>
       <c r="G193" s="123">
-        <v>898.39237326784519</v>
+        <v>898.39237326762861</v>
       </c>
       <c r="H193" s="123">
-        <v>-219.54487874771644</v>
+        <v>-219.54487874793296</v>
       </c>
     </row>
     <row r="194">
@@ -43807,10 +43807,10 @@
         <v>662.98186031229409</v>
       </c>
       <c r="G194" s="123">
-        <v>673.18279230536382</v>
+        <v>673.18279230575638</v>
       </c>
       <c r="H194" s="123">
-        <v>10.200931993069709</v>
+        <v>10.200931993462262</v>
       </c>
     </row>
     <row r="195">
@@ -43821,19 +43821,19 @@
         <v>39758.022161754605</v>
       </c>
       <c r="D195" s="123">
-        <v>19213.123383576469</v>
+        <v>19212.891891399307</v>
       </c>
       <c r="E195" s="123">
-        <v>-20544.89877817814</v>
+        <v>-20545.130270355297</v>
       </c>
       <c r="F195" s="123">
         <v>14760.457551195688</v>
       </c>
       <c r="G195" s="123">
-        <v>16711.801956560768</v>
+        <v>16711.35199219851</v>
       </c>
       <c r="H195" s="123">
-        <v>1951.3444053650815</v>
+        <v>1950.8944410028216</v>
       </c>
     </row>
     <row r="196">
@@ -43853,10 +43853,10 @@
         <v>236.39322324506631</v>
       </c>
       <c r="G196" s="123">
-        <v>265.43352455373827</v>
+        <v>265.43352455364032</v>
       </c>
       <c r="H196" s="123">
-        <v>29.040301308671943</v>
+        <v>29.040301308574037</v>
       </c>
     </row>
     <row r="197">
@@ -43867,19 +43867,19 @@
         <v>40060.131763162964</v>
       </c>
       <c r="D197" s="161">
-        <v>19555.881856280932</v>
+        <v>19555.650364103767</v>
       </c>
       <c r="E197" s="161">
-        <v>-20504.249906882033</v>
+        <v>-20504.481399059194</v>
       </c>
       <c r="F197" s="161">
         <v>14996.850774440762</v>
       </c>
       <c r="G197" s="161">
-        <v>16977.23548111452</v>
+        <v>16976.785516752137</v>
       </c>
       <c r="H197" s="161">
-        <v>1980.3847066737562</v>
+        <v>1979.934742311377</v>
       </c>
     </row>
     <row r="198">
@@ -43890,19 +43890,19 @@
         <v>40726.980714904639</v>
       </c>
       <c r="D198" s="161">
-        <v>20237.790937144953</v>
+        <v>20237.55944496777</v>
       </c>
       <c r="E198" s="161">
-        <v>-20489.189777759682</v>
+        <v>-20489.421269936865</v>
       </c>
       <c r="F198" s="161">
         <v>15659.832634753053</v>
       </c>
       <c r="G198" s="161">
-        <v>17650.418273419891</v>
+        <v>17649.96830905788</v>
       </c>
       <c r="H198" s="161">
-        <v>1990.5856386668384</v>
+        <v>1990.1356743048279</v>
       </c>
     </row>
     <row r="199">
@@ -43922,10 +43922,10 @@
         <v>1658.9812750064552</v>
       </c>
       <c r="G199" s="123">
-        <v>1315.803816394686</v>
+        <v>1315.8038163943179</v>
       </c>
       <c r="H199" s="123">
-        <v>-343.17745861176911</v>
+        <v>-343.17745861213723</v>
       </c>
     </row>
     <row r="200">
@@ -43945,10 +43945,10 @@
         <v>80.128683514723292</v>
       </c>
       <c r="G200" s="123">
-        <v>84.086698644337829</v>
+        <v>84.0866986443143</v>
       </c>
       <c r="H200" s="123">
-        <v>3.9580151296145343</v>
+        <v>3.9580151295910038</v>
       </c>
     </row>
     <row r="201">
@@ -43968,10 +43968,10 @@
         <v>1739.1099585211789</v>
       </c>
       <c r="G201" s="161">
-        <v>1399.8905150390231</v>
+        <v>1399.8905150386311</v>
       </c>
       <c r="H201" s="161">
-        <v>-339.2194434821559</v>
+        <v>-339.21944348254777</v>
       </c>
     </row>
     <row r="202">
@@ -43982,19 +43982,19 @@
         <v>46507.201677073994</v>
       </c>
       <c r="D202" s="161">
-        <v>25433.2678323812</v>
+        <v>25433.036340204049</v>
       </c>
       <c r="E202" s="161">
-        <v>-21073.933844692794</v>
+        <v>-21074.165336869944</v>
       </c>
       <c r="F202" s="161">
         <v>19258.881429255129</v>
       </c>
       <c r="G202" s="161">
-        <v>21067.077450094213</v>
+        <v>21066.6274857315</v>
       </c>
       <c r="H202" s="161">
-        <v>1808.196020839084</v>
+        <v>1807.7460564763733</v>
       </c>
     </row>
     <row r="203">
@@ -44014,10 +44014,10 @@
         <v>447.9641395133828</v>
       </c>
       <c r="G203" s="123">
-        <v>386.9916598711111</v>
+        <v>386.99165987120847</v>
       </c>
       <c r="H203" s="123">
-        <v>-60.972479642271708</v>
+        <v>-60.972479642174321</v>
       </c>
     </row>
     <row r="204">
@@ -44037,10 +44037,10 @@
         <v>4368.448854736167</v>
       </c>
       <c r="G204" s="123">
-        <v>1340.05570761674</v>
+        <v>1340.05570761714</v>
       </c>
       <c r="H204" s="123">
-        <v>-3028.3931471194269</v>
+        <v>-3028.3931471190272</v>
       </c>
     </row>
     <row r="205">
@@ -44060,10 +44060,10 @@
         <v>2657.9749971201104</v>
       </c>
       <c r="G205" s="123">
-        <v>2638.6901109210662</v>
+        <v>2638.6901109107912</v>
       </c>
       <c r="H205" s="123">
-        <v>-19.284886199044063</v>
+        <v>-19.284886209319346</v>
       </c>
     </row>
     <row r="206">
@@ -44083,10 +44083,10 @@
         <v>2685.216941013939</v>
       </c>
       <c r="G206" s="123">
-        <v>2367.1185628787748</v>
+        <v>2367.118562885</v>
       </c>
       <c r="H206" s="123">
-        <v>-318.0983781351643</v>
+        <v>-318.09837812893932</v>
       </c>
     </row>
     <row r="207">
@@ -44106,10 +44106,10 @@
         <v>5343.1919381340476</v>
       </c>
       <c r="G207" s="161">
-        <v>5005.8086737998383</v>
+        <v>5005.8086737957883</v>
       </c>
       <c r="H207" s="161">
-        <v>-337.38326433420929</v>
+        <v>-337.38326433825864</v>
       </c>
     </row>
     <row r="208">
@@ -44129,10 +44129,10 @@
         <v>9.1349600043576018</v>
       </c>
       <c r="G208" s="123">
-        <v>3.6267253714291376</v>
+        <v>3.6267253714296848</v>
       </c>
       <c r="H208" s="123">
-        <v>-5.5082346329284633</v>
+        <v>-5.5082346329279162</v>
       </c>
     </row>
     <row r="209">
@@ -44166,19 +44166,19 @@
         <v>54287.108623027983</v>
       </c>
       <c r="D210" s="161">
-        <v>31464.208806219594</v>
+        <v>31463.977314042419</v>
       </c>
       <c r="E210" s="161">
-        <v>-22822.899816808389</v>
+        <v>-22823.131308985561</v>
       </c>
       <c r="F210" s="161">
         <v>29427.621321643084</v>
       </c>
       <c r="G210" s="161">
-        <v>27803.560216753329</v>
+        <v>27803.110252387069</v>
       </c>
       <c r="H210" s="161">
-        <v>-1624.0611048897542</v>
+        <v>-1624.5110692560152</v>
       </c>
     </row>
     <row r="211">
@@ -44281,19 +44281,19 @@
         <v>418011.62164333451</v>
       </c>
       <c r="D215" s="161">
-        <v>430681.98265636072</v>
+        <v>430681.7367617499</v>
       </c>
       <c r="E215" s="161">
-        <v>12670.361013026237</v>
+        <v>12670.115118415415</v>
       </c>
       <c r="F215" s="161">
         <v>399204.17315488029</v>
       </c>
       <c r="G215" s="161">
-        <v>440458.1677883346</v>
+        <v>440457.76419600844</v>
       </c>
       <c r="H215" s="161">
-        <v>41253.99463345432</v>
+        <v>41253.591041128158</v>
       </c>
     </row>
     <row r="216"/>
@@ -44314,10 +44314,10 @@
         <v>46504.303049751172</v>
       </c>
       <c r="G217" s="123">
-        <v>59736.874620498485</v>
+        <v>59736.874620891263</v>
       </c>
       <c r="H217" s="123">
-        <v>13232.571570747316</v>
+        <v>13232.571571140095</v>
       </c>
     </row>
     <row r="218">
@@ -44429,10 +44429,10 @@
         <v>78293.56796652636</v>
       </c>
       <c r="G222" s="161">
-        <v>69541.438690407347</v>
+        <v>69541.438690800132</v>
       </c>
       <c r="H222" s="161">
-        <v>-8752.1292761190089</v>
+        <v>-8752.129275726229</v>
       </c>
     </row>
     <row r="223">
@@ -44498,10 +44498,10 @@
         <v>78293.56796652636</v>
       </c>
       <c r="G225" s="161">
-        <v>69541.438690407347</v>
+        <v>69541.438690800132</v>
       </c>
       <c r="H225" s="161">
-        <v>-8752.1292761190089</v>
+        <v>-8752.129275726229</v>
       </c>
     </row>
     <row r="226">
@@ -44694,19 +44694,19 @@
         <v>1.97067227223011</v>
       </c>
       <c r="D236" s="122">
-        <v>2.0475138581535433</v>
+        <v>2.04750987173738</v>
       </c>
       <c r="E236" s="122">
-        <v>0.076841585923433264</v>
+        <v>0.076837599507269871</v>
       </c>
       <c r="F236" s="122">
         <v>2.1658575331825176</v>
       </c>
       <c r="G236" s="122">
-        <v>2.2475582676150325</v>
+        <v>2.2475562148940003</v>
       </c>
       <c r="H236" s="122">
-        <v>0.08170073443251491</v>
+        <v>0.081698681711482646</v>
       </c>
     </row>
     <row r="237">
@@ -44717,19 +44717,19 @@
         <v>1.97067227223011</v>
       </c>
       <c r="D237" s="162">
-        <v>2.0475138581535433</v>
+        <v>2.04750987173738</v>
       </c>
       <c r="E237" s="162">
-        <v>0.076841585923433264</v>
+        <v>0.076837599507269871</v>
       </c>
       <c r="F237" s="162">
         <v>2.1658575331825176</v>
       </c>
       <c r="G237" s="162">
-        <v>2.2475582676150325</v>
+        <v>2.2475562148940003</v>
       </c>
       <c r="H237" s="162">
-        <v>0.08170073443251491</v>
+        <v>0.081698681711482646</v>
       </c>
     </row>
     <row r="238">
@@ -44786,19 +44786,19 @@
         <v>1.9811442977181597</v>
       </c>
       <c r="D240" s="162">
-        <v>2.0517831839266591</v>
+        <v>2.0517795627301045</v>
       </c>
       <c r="E240" s="162">
-        <v>0.070638886208499452</v>
+        <v>0.070635265011944837</v>
       </c>
       <c r="F240" s="162">
         <v>2.17713552022048</v>
       </c>
       <c r="G240" s="162">
-        <v>2.2533721664641124</v>
+        <v>2.2533697591110817</v>
       </c>
       <c r="H240" s="162">
-        <v>0.076236646243632578</v>
+        <v>0.07623423889060188</v>
       </c>
     </row>
     <row r="241">
@@ -44809,19 +44809,19 @@
         <v>1.6513061157347639</v>
       </c>
       <c r="D241" s="162">
-        <v>1.9445400121169041</v>
+        <v>1.944537139301491</v>
       </c>
       <c r="E241" s="162">
-        <v>0.29323389638214015</v>
+        <v>0.29323102356672703</v>
       </c>
       <c r="F241" s="162">
         <v>1.8026031924176502</v>
       </c>
       <c r="G241" s="162">
-        <v>1.8945978809747928</v>
+        <v>1.8945897374039118</v>
       </c>
       <c r="H241" s="162">
-        <v>0.091994688557142545</v>
+        <v>0.091986544986261576</v>
       </c>
     </row>
     <row r="242">
@@ -44864,10 +44864,10 @@
         <v>4.6633655623928538</v>
       </c>
       <c r="G243" s="122">
-        <v>4.8581610314773318</v>
+        <v>4.8581610314773309</v>
       </c>
       <c r="H243" s="122">
-        <v>0.19479546908447798</v>
+        <v>0.19479546908447709</v>
       </c>
     </row>
     <row r="244">
@@ -44887,10 +44887,10 @@
         <v>4.6633655623928663</v>
       </c>
       <c r="G244" s="162">
-        <v>4.8581610314772989</v>
+        <v>4.8581610314772981</v>
       </c>
       <c r="H244" s="162">
-        <v>0.19479546908443268</v>
+        <v>0.19479546908443179</v>
       </c>
     </row>
     <row r="245">
@@ -44910,10 +44910,10 @@
         <v>3.9928737484030772</v>
       </c>
       <c r="G245" s="122">
-        <v>3.999486544166285</v>
+        <v>3.9994865441659795</v>
       </c>
       <c r="H245" s="122">
-        <v>0.0066127957632078349</v>
+        <v>0.0066127957629023015</v>
       </c>
     </row>
     <row r="246">
@@ -44947,19 +44947,19 @@
         <v>2.6151232083053721</v>
       </c>
       <c r="D247" s="122">
-        <v>3.2072628819777034</v>
+        <v>3.2072692990722529</v>
       </c>
       <c r="E247" s="122">
-        <v>0.59213967367233122</v>
+        <v>0.59214609076688074</v>
       </c>
       <c r="F247" s="122">
         <v>3.0399755181404018</v>
       </c>
       <c r="G247" s="122">
-        <v>3.4160997180127182</v>
+        <v>3.4160962106229302</v>
       </c>
       <c r="H247" s="122">
-        <v>0.37612419987231638</v>
+        <v>0.37612069248252844</v>
       </c>
     </row>
     <row r="248">
@@ -44979,10 +44979,10 @@
         <v>4.00239332667591</v>
       </c>
       <c r="G248" s="122">
-        <v>4.083331705329579</v>
+        <v>4.08333170532947</v>
       </c>
       <c r="H248" s="122">
-        <v>0.080938378653669041</v>
+        <v>0.0809383786535598</v>
       </c>
     </row>
     <row r="249">
@@ -44993,19 +44993,19 @@
         <v>2.6247878313514481</v>
       </c>
       <c r="D249" s="162">
-        <v>3.2156301235462439</v>
+        <v>3.2156365226021282</v>
       </c>
       <c r="E249" s="162">
-        <v>0.59084229219479578</v>
+        <v>0.59084869125068007</v>
       </c>
       <c r="F249" s="162">
         <v>3.0554680255717783</v>
       </c>
       <c r="G249" s="162">
-        <v>3.42674169038307</v>
+        <v>3.4267386212953537</v>
       </c>
       <c r="H249" s="162">
-        <v>0.37127366481129176</v>
+        <v>0.37127059572357535</v>
       </c>
     </row>
     <row r="250">
@@ -45016,19 +45016,19 @@
         <v>2.6444051868827567</v>
       </c>
       <c r="D250" s="162">
-        <v>3.2282952629426416</v>
+        <v>3.22830158398448</v>
       </c>
       <c r="E250" s="162">
-        <v>0.58389007605988485</v>
+        <v>0.58389639710172325</v>
       </c>
       <c r="F250" s="162">
         <v>3.0944787385236943</v>
       </c>
       <c r="G250" s="162">
-        <v>3.4485066570113383</v>
+        <v>3.448504491872169</v>
       </c>
       <c r="H250" s="162">
-        <v>0.35402791848764403</v>
+        <v>0.35402575334847475</v>
       </c>
     </row>
     <row r="251">
@@ -45048,10 +45048,10 @@
         <v>3.9927700073818211</v>
       </c>
       <c r="G251" s="122">
-        <v>4.0004597530317616</v>
+        <v>4.0004597530314427</v>
       </c>
       <c r="H251" s="122">
-        <v>0.0076897456499405159</v>
+        <v>0.00768974564962166</v>
       </c>
     </row>
     <row r="252">
@@ -45071,10 +45071,10 @@
         <v>3.9927700073818237</v>
       </c>
       <c r="G252" s="122">
-        <v>4.0004597530317545</v>
+        <v>4.0004597530314356</v>
       </c>
       <c r="H252" s="122">
-        <v>0.0076897456499307459</v>
+        <v>0.00768974564961189</v>
       </c>
     </row>
     <row r="253">
@@ -45094,10 +45094,10 @@
         <v>3.99277000738182</v>
       </c>
       <c r="G253" s="162">
-        <v>4.0004597530317616</v>
+        <v>4.0004597530314427</v>
       </c>
       <c r="H253" s="162">
-        <v>0.0076897456499414041</v>
+        <v>0.007689745649622548</v>
       </c>
     </row>
     <row r="254">
@@ -45108,19 +45108,19 @@
         <v>2.8334175543261861</v>
       </c>
       <c r="D254" s="162">
-        <v>3.3602338523956266</v>
+        <v>3.3602399510026477</v>
       </c>
       <c r="E254" s="162">
-        <v>0.52681629806944041</v>
+        <v>0.52682239667646158</v>
       </c>
       <c r="F254" s="162">
         <v>3.284319607281688</v>
       </c>
       <c r="G254" s="162">
-        <v>3.573394642076861</v>
+        <v>3.5733950581090572</v>
       </c>
       <c r="H254" s="162">
-        <v>0.28907503479517294</v>
+        <v>0.28907545082736918</v>
       </c>
     </row>
     <row r="255">
@@ -45140,10 +45140,10 @@
         <v>4.0208990787315821</v>
       </c>
       <c r="G255" s="122">
-        <v>3.9836895177589291</v>
+        <v>3.98368951775879</v>
       </c>
       <c r="H255" s="122">
-        <v>-0.037209560972653044</v>
+        <v>-0.037209560972792044</v>
       </c>
     </row>
     <row r="256">
@@ -45163,10 +45163,10 @@
         <v>4.1948610665361423</v>
       </c>
       <c r="G256" s="122">
-        <v>4.2200085193048524</v>
+        <v>4.2200085193048364</v>
       </c>
       <c r="H256" s="122">
-        <v>0.02514745276871011</v>
+        <v>0.025147452768694123</v>
       </c>
     </row>
     <row r="257">
@@ -45232,10 +45232,10 @@
         <v>6.5782980355515521</v>
       </c>
       <c r="G259" s="162">
-        <v>6.4996079359724339</v>
+        <v>6.4996079359811487</v>
       </c>
       <c r="H259" s="162">
-        <v>-0.078690099579118211</v>
+        <v>-0.0786900995704034</v>
       </c>
     </row>
     <row r="260">
@@ -45255,10 +45255,10 @@
         <v>4.0409358518058554</v>
       </c>
       <c r="G260" s="122">
-        <v>4.1777146978113047</v>
+        <v>4.1777146978112922</v>
       </c>
       <c r="H260" s="122">
-        <v>0.13677884600544932</v>
+        <v>0.13677884600543688</v>
       </c>
     </row>
     <row r="261">
@@ -45292,19 +45292,19 @@
         <v>3.2157285083616696</v>
       </c>
       <c r="D262" s="162">
-        <v>3.6974389519007027</v>
+        <v>3.6974468355344539</v>
       </c>
       <c r="E262" s="162">
-        <v>0.48171044353903314</v>
+        <v>0.48171832717278429</v>
       </c>
       <c r="F262" s="162">
         <v>4.03219552213467</v>
       </c>
       <c r="G262" s="162">
-        <v>4.1506117078814553</v>
+        <v>4.1506246882697821</v>
       </c>
       <c r="H262" s="162">
-        <v>0.11841618574678492</v>
+        <v>0.11842916613511179</v>
       </c>
     </row>
     <row r="263">
@@ -45407,19 +45407,19 @@
         <v>0.48760038363163832</v>
       </c>
       <c r="D267" s="162">
-        <v>0.37050169776813968</v>
+        <v>0.37050032493809132</v>
       </c>
       <c r="E267" s="162">
-        <v>-0.11709868586349864</v>
+        <v>-0.117100058693547</v>
       </c>
       <c r="F267" s="162">
         <v>0.6575664834388113</v>
       </c>
       <c r="G267" s="162">
-        <v>0.71384592552455439</v>
+        <v>0.713842998805652</v>
       </c>
       <c r="H267" s="162">
-        <v>0.056279442085743092</v>
+        <v>0.056276515366840751</v>
       </c>
     </row>
     <row r="268"/>
@@ -45440,10 +45440,10 @@
         <v>0.6158400893478696</v>
       </c>
       <c r="G269" s="122">
-        <v>0.64228818547144806</v>
+        <v>0.64228818547139355</v>
       </c>
       <c r="H269" s="122">
-        <v>0.026448096123578457</v>
+        <v>0.026448096123523945</v>
       </c>
     </row>
     <row r="270">
@@ -45555,10 +45555,10 @@
         <v>0.53716090094703717</v>
       </c>
       <c r="G274" s="162">
-        <v>0.55174548474752816</v>
+        <v>0.55174548474805019</v>
       </c>
       <c r="H274" s="162">
-        <v>0.014584583800490991</v>
+        <v>0.014584583801013018</v>
       </c>
     </row>
     <row r="275">
@@ -45624,10 +45624,10 @@
         <v>0.53716090094703717</v>
       </c>
       <c r="G277" s="162">
-        <v>0.55174548474752816</v>
+        <v>0.55174548474805019</v>
       </c>
       <c r="H277" s="162">
-        <v>0.014584583800490991</v>
+        <v>0.014584583801013018</v>
       </c>
     </row>
     <row r="278">
@@ -45816,19 +45816,19 @@
         <v>55.903893602162093</v>
       </c>
       <c r="D288" s="123">
-        <v>64.90657634486854</v>
+        <v>64.906553247086734</v>
       </c>
       <c r="E288" s="123">
-        <v>9.0026827427064564</v>
+        <v>9.002659644924643</v>
       </c>
       <c r="F288" s="123">
         <v>133.71726406484009</v>
       </c>
       <c r="G288" s="123">
-        <v>145.369395891046</v>
+        <v>145.36938351931872</v>
       </c>
       <c r="H288" s="123">
-        <v>11.652131826205906</v>
+        <v>11.652119454478612</v>
       </c>
     </row>
     <row r="289">
@@ -45862,19 +45862,19 @@
         <v>59.878441762480882</v>
       </c>
       <c r="D290" s="161">
-        <v>69.327072076475133</v>
+        <v>69.327048978693313</v>
       </c>
       <c r="E290" s="161">
-        <v>9.4486303139942471</v>
+        <v>9.4486072162124337</v>
       </c>
       <c r="F290" s="161">
         <v>137.48283218717802</v>
       </c>
       <c r="G290" s="161">
-        <v>149.6022321575982</v>
+        <v>149.60221978587089</v>
       </c>
       <c r="H290" s="161">
-        <v>12.119399970420171</v>
+        <v>12.119387598692876</v>
       </c>
     </row>
     <row r="291">
@@ -45885,19 +45885,19 @@
         <v>73.688676373154266</v>
       </c>
       <c r="D291" s="161">
-        <v>83.349643165458588</v>
+        <v>83.349620067676767</v>
       </c>
       <c r="E291" s="161">
-        <v>9.66096679230433</v>
+        <v>9.6609436945225031</v>
       </c>
       <c r="F291" s="161">
         <v>150.92142498426071</v>
       </c>
       <c r="G291" s="161">
-        <v>163.21692444289187</v>
+        <v>163.2169120711647</v>
       </c>
       <c r="H291" s="161">
-        <v>12.295499458631152</v>
+        <v>12.295487086903973</v>
       </c>
     </row>
     <row r="292">
@@ -45977,19 +45977,19 @@
         <v>140.73246293203317</v>
       </c>
       <c r="D295" s="161">
-        <v>150.95245435874381</v>
+        <v>150.9524312609619</v>
       </c>
       <c r="E295" s="161">
-        <v>10.219991426710621</v>
+        <v>10.21996832892872</v>
       </c>
       <c r="F295" s="161">
         <v>232.49829935562167</v>
       </c>
       <c r="G295" s="161">
-        <v>244.389517157644</v>
+        <v>244.38950478591679</v>
       </c>
       <c r="H295" s="161">
-        <v>11.891217802022322</v>
+        <v>11.891205430295115</v>
       </c>
     </row>
     <row r="296">
@@ -46161,19 +46161,19 @@
         <v>287.43024712181136</v>
       </c>
       <c r="D303" s="161">
-        <v>293.75189188218889</v>
+        <v>293.75186878440724</v>
       </c>
       <c r="E303" s="161">
-        <v>6.3216447603775308</v>
+        <v>6.3216216625958328</v>
       </c>
       <c r="F303" s="161">
         <v>414.172344639128</v>
       </c>
       <c r="G303" s="161">
-        <v>416.04002106105361</v>
+        <v>416.04000868932633</v>
       </c>
       <c r="H303" s="161">
-        <v>1.8676764219256001</v>
+        <v>1.8676640501983348</v>
       </c>
     </row>
     <row r="304">
@@ -46256,10 +46256,10 @@
         <v>24.0725184681561</v>
       </c>
       <c r="G309" s="123">
-        <v>26.0874211571501</v>
+        <v>26.0874211571612</v>
       </c>
       <c r="H309" s="123">
-        <v>2.014902688994</v>
+        <v>2.0149026890050989</v>
       </c>
     </row>
     <row r="310">
@@ -46279,10 +46279,10 @@
         <v>24.5178828990182</v>
       </c>
       <c r="G310" s="123">
-        <v>19.0740797368319</v>
+        <v>19.07407973684</v>
       </c>
       <c r="H310" s="123">
-        <v>-5.4438031621863008</v>
+        <v>-5.4438031621782</v>
       </c>
     </row>
     <row r="311">
@@ -46302,10 +46302,10 @@
         <v>48.5904013671743</v>
       </c>
       <c r="G311" s="161">
-        <v>45.161500893982</v>
+        <v>45.1615008940011</v>
       </c>
       <c r="H311" s="161">
-        <v>-3.4289004731922978</v>
+        <v>-3.4289004731731985</v>
       </c>
     </row>
     <row r="312">
@@ -46325,10 +46325,10 @@
         <v>140.948373640732</v>
       </c>
       <c r="G312" s="123">
-        <v>172.526553409257</v>
+        <v>172.526553409315</v>
       </c>
       <c r="H312" s="123">
-        <v>31.578179768525004</v>
+        <v>31.578179768583009</v>
       </c>
     </row>
     <row r="313">
@@ -46348,10 +46348,10 @@
         <v>23.153990412954002</v>
       </c>
       <c r="G313" s="123">
-        <v>23.602015077498198</v>
+        <v>23.602015077392902</v>
       </c>
       <c r="H313" s="123">
-        <v>0.44802466454419848</v>
+        <v>0.44802466443890082</v>
       </c>
     </row>
     <row r="314">
@@ -46362,19 +46362,19 @@
         <v>415.11638076231304</v>
       </c>
       <c r="D314" s="123">
-        <v>477.89926497809404</v>
+        <v>477.902883131444</v>
       </c>
       <c r="E314" s="123">
-        <v>62.782884215781</v>
+        <v>62.786502369130964</v>
       </c>
       <c r="F314" s="123">
         <v>465.115586952051</v>
       </c>
       <c r="G314" s="123">
-        <v>558.232483789699</v>
+        <v>558.23537241730594</v>
       </c>
       <c r="H314" s="123">
-        <v>93.116896837648056</v>
+        <v>93.119785465254978</v>
       </c>
     </row>
     <row r="315">
@@ -46394,10 +46394,10 @@
         <v>7.2610250768321</v>
       </c>
       <c r="G315" s="123">
-        <v>8.2656039605238</v>
+        <v>8.26560396048715</v>
       </c>
       <c r="H315" s="123">
-        <v>1.0045788836917</v>
+        <v>1.0045788836550491</v>
       </c>
     </row>
     <row r="316">
@@ -46408,19 +46408,19 @@
         <v>421.835221866813</v>
       </c>
       <c r="D316" s="161">
-        <v>485.53418255727695</v>
+        <v>485.537800710627</v>
       </c>
       <c r="E316" s="161">
-        <v>63.698960690463949</v>
+        <v>63.702578843813974</v>
       </c>
       <c r="F316" s="161">
         <v>472.376612028884</v>
       </c>
       <c r="G316" s="161">
-        <v>566.498087750223</v>
+        <v>566.500976377793</v>
       </c>
       <c r="H316" s="161">
-        <v>94.121475721339</v>
+        <v>94.124364348909</v>
       </c>
     </row>
     <row r="317">
@@ -46431,19 +46431,19 @@
         <v>446.27314503907303</v>
       </c>
       <c r="D317" s="161">
-        <v>510.42175735075705</v>
+        <v>510.42537550410697</v>
       </c>
       <c r="E317" s="161">
-        <v>64.148612311684</v>
+        <v>64.152230465033966</v>
       </c>
       <c r="F317" s="161">
         <v>495.530602441837</v>
       </c>
       <c r="G317" s="161">
-        <v>590.100102827721</v>
+        <v>590.102991455186</v>
       </c>
       <c r="H317" s="161">
-        <v>94.569500385884027</v>
+        <v>94.572389013349024</v>
       </c>
     </row>
     <row r="318">
@@ -46463,10 +46463,10 @@
         <v>211.572785464615</v>
       </c>
       <c r="G318" s="123">
-        <v>263.055281427781</v>
+        <v>263.055281427858</v>
       </c>
       <c r="H318" s="123">
-        <v>51.482495963165974</v>
+        <v>51.482495963242982</v>
       </c>
     </row>
     <row r="319">
@@ -46486,10 +46486,10 @@
         <v>10.2189512457</v>
       </c>
       <c r="G319" s="123">
-        <v>16.8105988906667</v>
+        <v>16.810598890671603</v>
       </c>
       <c r="H319" s="123">
-        <v>6.5916476449667005</v>
+        <v>6.5916476449716006</v>
       </c>
     </row>
     <row r="320">
@@ -46509,10 +46509,10 @@
         <v>221.79173671031498</v>
       </c>
       <c r="G320" s="161">
-        <v>279.865880318447</v>
+        <v>279.865880318529</v>
       </c>
       <c r="H320" s="161">
-        <v>58.074143608132026</v>
+        <v>58.074143608213987</v>
       </c>
     </row>
     <row r="321">
@@ -46523,19 +46523,19 @@
         <v>778.399604295518</v>
       </c>
       <c r="D321" s="161">
-        <v>916.39393476919008</v>
+        <v>916.39755292254</v>
       </c>
       <c r="E321" s="161">
-        <v>137.99433047367202</v>
+        <v>137.99794862702197</v>
       </c>
       <c r="F321" s="161">
         <v>906.86111416005906</v>
       </c>
       <c r="G321" s="161">
-        <v>1087.65403744941</v>
+        <v>1087.65692607703</v>
       </c>
       <c r="H321" s="161">
-        <v>180.79292328935094</v>
+        <v>180.79581191697088</v>
       </c>
     </row>
     <row r="322">
@@ -46555,10 +46555,10 @@
         <v>72.9142609877043</v>
       </c>
       <c r="G322" s="123">
-        <v>72.6312426813105</v>
+        <v>72.6312426813671</v>
       </c>
       <c r="H322" s="123">
-        <v>-0.28301830639380204</v>
+        <v>-0.2830183063371951</v>
       </c>
     </row>
     <row r="323">
@@ -46578,10 +46578,10 @@
         <v>99.0360165094436</v>
       </c>
       <c r="G323" s="123">
-        <v>76.2245075511763</v>
+        <v>76.224507551611</v>
       </c>
       <c r="H323" s="123">
-        <v>-22.811508958267297</v>
+        <v>-22.8115089578326</v>
       </c>
     </row>
     <row r="324">
@@ -46601,10 +46601,10 @@
         <v>73.3629788824078</v>
       </c>
       <c r="G324" s="123">
-        <v>89.5169201198235</v>
+        <v>89.5169201196355</v>
       </c>
       <c r="H324" s="123">
-        <v>16.153941237415697</v>
+        <v>16.1539412372277</v>
       </c>
     </row>
     <row r="325">
@@ -46624,10 +46624,10 @@
         <v>97.401124214480888</v>
       </c>
       <c r="G325" s="123">
-        <v>103.810569038312</v>
+        <v>103.810569038548</v>
       </c>
       <c r="H325" s="123">
-        <v>6.4094448238311017</v>
+        <v>6.4094448240671049</v>
       </c>
     </row>
     <row r="326">
@@ -46647,10 +46647,10 @@
         <v>170.76410309688902</v>
       </c>
       <c r="G326" s="161">
-        <v>193.32748915813602</v>
+        <v>193.327489158183</v>
       </c>
       <c r="H326" s="161">
-        <v>22.563386061247</v>
+        <v>22.563386061293976</v>
       </c>
     </row>
     <row r="327">
@@ -46670,10 +46670,10 @@
         <v>0.272128197764937</v>
       </c>
       <c r="G327" s="123">
-        <v>0.230413464637982</v>
+        <v>0.23041346463930099</v>
       </c>
       <c r="H327" s="123">
-        <v>-0.041714733126955</v>
+        <v>-0.041714733125636</v>
       </c>
     </row>
     <row r="328">
@@ -46707,19 +46707,19 @@
         <v>1067.27947742093</v>
       </c>
       <c r="D329" s="161">
-        <v>1251.49171750607</v>
+        <v>1251.4953356594199</v>
       </c>
       <c r="E329" s="161">
-        <v>184.21224008513988</v>
+        <v>184.21585823848983</v>
       </c>
       <c r="F329" s="161">
         <v>1249.84762295186</v>
       </c>
       <c r="G329" s="161">
-        <v>1430.0676903046701</v>
+        <v>1430.07057893283</v>
       </c>
       <c r="H329" s="161">
-        <v>180.22006735280993</v>
+        <v>180.22295598096983</v>
       </c>
     </row>
     <row r="330">
@@ -46816,16 +46816,16 @@
         <v>1372.4000779618041</v>
       </c>
       <c r="G339" s="108">
-        <v>1450.2897866004898</v>
+        <v>1450.2895682002229</v>
       </c>
       <c r="H339" s="108">
-        <v>1424.6997441407721</v>
+        <v>1424.7003457339731</v>
       </c>
       <c r="I339" s="108">
-        <v>1392.0474403998271</v>
+        <v>1392.0482430696779</v>
       </c>
       <c r="J339" s="108">
-        <v>1355.8784169719602</v>
+        <v>1355.8801228359869</v>
       </c>
     </row>
     <row r="340" s="108" customFormat="1">
@@ -46870,10 +46870,10 @@
         <v>1554</v>
       </c>
       <c r="D356" s="112">
-        <v>1544.6138332616631</v>
+        <v>1544.6136148613941</v>
       </c>
       <c r="E356" s="113">
-        <v>-0.604000433612413</v>
+        <v>-0.60401448768377564</v>
       </c>
     </row>
     <row r="357">
@@ -46884,10 +46884,10 @@
         <v>1534</v>
       </c>
       <c r="D357" s="112">
-        <v>1528.501075415476</v>
+        <v>1528.5012180146662</v>
       </c>
       <c r="E357" s="113">
-        <v>-0.35846966000808655</v>
+        <v>-0.3584603641025968</v>
       </c>
     </row>
     <row r="358">
@@ -46898,10 +46898,10 @@
         <v>11</v>
       </c>
       <c r="D358" s="112">
-        <v>13.275749325512908</v>
+        <v>13.275388328650418</v>
       </c>
       <c r="E358" s="113">
-        <v>20.68863023193553</v>
+        <v>20.685348442276531</v>
       </c>
     </row>
     <row r="359">
@@ -46912,10 +46912,10 @@
         <v>9</v>
       </c>
       <c r="D359" s="112">
-        <v>2.8370085206742424</v>
+        <v>2.8370085180775426</v>
       </c>
       <c r="E359" s="113">
-        <v>-68.477683103619526</v>
+        <v>-68.477683132471753</v>
       </c>
     </row>
     <row r="360">
@@ -46940,10 +46940,10 @@
         <v>1398</v>
       </c>
       <c r="D361" s="112">
-        <v>1450.2897866004912</v>
+        <v>1450.2895682002222</v>
       </c>
       <c r="E361" s="113">
-        <v>3.7403280830108154</v>
+        <v>3.7403124606739784</v>
       </c>
     </row>
     <row r="362">
@@ -46999,7 +46999,7 @@
         <v>77.6666666666667</v>
       </c>
       <c r="E365" s="113">
-        <v>-0.604000433612413</v>
+        <v>-0.60401448768377564</v>
       </c>
     </row>
     <row r="366">
@@ -47020,10 +47020,10 @@
         <v>99</v>
       </c>
       <c r="D367" s="112">
-        <v>105.48254586194481</v>
+        <v>105.4825007456694</v>
       </c>
       <c r="E367" s="113">
-        <v>6.54802612317658</v>
+        <v>6.54798055118121</v>
       </c>
     </row>
     <row r="368">
@@ -47034,10 +47034,10 @@
         <v>370</v>
       </c>
       <c r="D368" s="112">
-        <v>405.14057407183</v>
+        <v>405.14040078786496</v>
       </c>
       <c r="E368" s="113">
-        <v>9.49745245184594</v>
+        <v>9.4974056183418814</v>
       </c>
     </row>
     <row r="370">
@@ -47070,10 +47070,10 @@
         <v>6256</v>
       </c>
       <c r="D372" s="112">
-        <v>5925.9275120801785</v>
+        <v>5925.9304038069822</v>
       </c>
       <c r="E372" s="113">
-        <v>-5.2760947557516218</v>
+        <v>-5.2760485324970876</v>
       </c>
     </row>
     <row r="373">
@@ -47084,10 +47084,10 @@
         <v>6187</v>
       </c>
       <c r="D373" s="112">
-        <v>5834.7490433665826</v>
+        <v>5834.7522732103243</v>
       </c>
       <c r="E373" s="113">
-        <v>-5.69340482678871</v>
+        <v>-5.6933526230754108</v>
       </c>
     </row>
     <row r="374">
@@ -47098,10 +47098,10 @@
         <v>47</v>
       </c>
       <c r="D374" s="112">
-        <v>65.151030647527875</v>
+        <v>65.15069186630231</v>
       </c>
       <c r="E374" s="113">
-        <v>38.619214143676331</v>
+        <v>38.61849333255811</v>
       </c>
     </row>
     <row r="375">
@@ -47112,10 +47112,10 @@
         <v>22</v>
       </c>
       <c r="D375" s="112">
-        <v>26.0274380660681</v>
+        <v>26.027438730355556</v>
       </c>
       <c r="E375" s="113">
-        <v>18.306536663945909</v>
+        <v>18.306539683434345</v>
       </c>
     </row>
     <row r="376">
@@ -47140,10 +47140,10 @@
         <v>5562</v>
       </c>
       <c r="D377" s="112">
-        <v>5622.9153881130533</v>
+        <v>5622.918279839857</v>
       </c>
       <c r="E377" s="113">
-        <v>1.0952065464410872</v>
+        <v>1.0952585372142565</v>
       </c>
     </row>
     <row r="378">
@@ -47199,7 +47199,7 @@
         <v>310.6666666666668</v>
       </c>
       <c r="E381" s="113">
-        <v>-5.2760947557516218</v>
+        <v>-5.2760485324970876</v>
       </c>
     </row>
     <row r="382">
@@ -47220,10 +47220,10 @@
         <v>380</v>
       </c>
       <c r="D383" s="112">
-        <v>385.10927841170212</v>
+        <v>385.10987577343184</v>
       </c>
       <c r="E383" s="113">
-        <v>1.3445469504479266</v>
+        <v>1.3447041509031152</v>
       </c>
     </row>
     <row r="384">
@@ -47234,10 +47234,10 @@
         <v>1409</v>
       </c>
       <c r="D384" s="112">
-        <v>1479.1394430345658</v>
+        <v>1479.1417373996849</v>
       </c>
       <c r="E384" s="113">
-        <v>4.9779590514241185</v>
+        <v>4.9781218878413673</v>
       </c>
     </row>
     <row r="386">
